--- a/ReDI.School.Teacher.Schedule.-.Cycle.One.xlsx
+++ b/ReDI.School.Teacher.Schedule.-.Cycle.One.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="177">
   <si>
     <t>SUNDAYS</t>
   </si>
@@ -211,13 +211,13 @@
     <t>Henning, Dennis</t>
   </si>
   <si>
-    <t>Richard G., Genevieve P.</t>
+    <t>Richard, Genevieve</t>
   </si>
   <si>
     <t>Jag, Sebastian M., Diaa</t>
   </si>
   <si>
-    <t xml:space="preserve">Yasmin*, Sebastian U., Alina </t>
+    <t>Sebastian U., Alina, Stefan</t>
   </si>
   <si>
     <t>Alejandro, Julia, Jason, Dominic</t>
@@ -364,13 +364,16 @@
     <t>Nkentšo Ledimo</t>
   </si>
   <si>
+    <t>Isa Abo-Mohana</t>
+  </si>
+  <si>
     <t>Louna Al Bondakji</t>
   </si>
   <si>
     <t>Mohamed Salim</t>
   </si>
   <si>
-    <t>Isa Abo-Mohana</t>
+    <t>Lara  Alsaadi</t>
   </si>
   <si>
     <t>Ghanem Zein</t>
@@ -382,49 +385,7 @@
     <t>Fadi Zaim</t>
   </si>
   <si>
-    <t>Lara  Alsaadi</t>
-  </si>
-  <si>
     <t>Omar Alshafai</t>
-  </si>
-  <si>
-    <t>Anas Almagdad</t>
-  </si>
-  <si>
-    <t>Tuesday laptop registration</t>
-  </si>
-  <si>
-    <t>Scala</t>
-  </si>
-  <si>
-    <t>Back end</t>
-  </si>
-  <si>
-    <t>Bahjat al Mostafa</t>
-  </si>
-  <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Talent Takundwa</t>
-  </si>
-  <si>
-    <t>node.js</t>
-  </si>
-  <si>
-    <t>front end</t>
-  </si>
-  <si>
-    <t>Anas Snakr</t>
-  </si>
-  <si>
-    <t>Ali Sheikh</t>
-  </si>
-  <si>
-    <t>Anas sankar</t>
   </si>
   <si>
     <t>Contact Information</t>
@@ -596,7 +557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -668,10 +629,10 @@
       <color rgb="FF000000"/>
     </font>
     <font>
+      <b/>
       <color rgb="FF000000"/>
     </font>
     <font>
-      <b/>
       <color rgb="FF000000"/>
     </font>
     <font>
@@ -681,10 +642,6 @@
       <color rgb="FF4A86E8"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
       <color rgb="FF666666"/>
     </font>
     <font>
@@ -692,7 +649,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,14 +724,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
-        <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF999999"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -917,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="108">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1095,22 +1046,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="5" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1131,22 +1082,22 @@
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1161,35 +1112,25 @@
     <xf borderId="11" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="13" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1198,17 +1139,8 @@
     <xf borderId="13" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -1228,13 +1160,13 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1272,7 +1204,7 @@
     <col customWidth="1" min="4" max="4" width="22.86"/>
     <col customWidth="1" min="5" max="5" width="28.14"/>
     <col customWidth="1" min="6" max="6" width="28.71"/>
-    <col customWidth="1" min="7" max="7" width="24.14"/>
+    <col customWidth="1" min="7" max="7" width="29.86"/>
     <col customWidth="1" min="8" max="8" width="23.0"/>
     <col customWidth="1" min="9" max="9" width="19.0"/>
     <col customWidth="1" min="10" max="10" width="22.57"/>
@@ -1867,17 +1799,20 @@
       <c r="B24" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="C24" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="E24" s="47" t="s">
         <v>116</v>
       </c>
+      <c r="F24" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="G24" s="79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1885,26 +1820,42 @@
     </row>
     <row r="25">
       <c r="A25" s="84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="88" t="s">
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
     </row>
     <row r="26">
       <c r="A26" s="7"/>
-      <c r="F26" s="89"/>
+      <c r="F26" s="90"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1928,17 +1879,14 @@
     </row>
     <row r="27">
       <c r="A27" s="7"/>
-      <c r="B27" s="90" t="s">
-        <v>122</v>
-      </c>
       <c r="D27" s="91" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1963,8 +1911,8 @@
     </row>
     <row r="28">
       <c r="A28" s="7"/>
-      <c r="B28" s="92" t="s">
-        <v>126</v>
+      <c r="B28" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>14</v>
@@ -1973,13 +1921,13 @@
         <v>14</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
@@ -2001,18 +1949,15 @@
     </row>
     <row r="29">
       <c r="A29" s="7"/>
-      <c r="B29" s="94" t="s">
-        <v>129</v>
-      </c>
       <c r="E29" s="21"/>
-      <c r="F29" s="95" t="s">
-        <v>130</v>
+      <c r="F29" s="93" t="s">
+        <v>14</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="97"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
@@ -2034,13 +1979,13 @@
     </row>
     <row r="30">
       <c r="A30" s="7"/>
-      <c r="B30" s="98" t="s">
-        <v>132</v>
+      <c r="B30" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="89"/>
+      <c r="G30" s="90"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -2063,19 +2008,13 @@
       <c r="AA30" s="7"/>
     </row>
     <row r="31">
-      <c r="B31" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="96"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
     <row r="32">
-      <c r="B32" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="100"/>
+      <c r="G32" s="96"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -2105,7 +2044,7 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36">
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="97" t="s">
         <v>14</v>
       </c>
       <c r="K36" s="7"/>
@@ -6919,10 +6858,7 @@
       <c r="M996" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="F29"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6939,12 +6875,12 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104" t="s">
-        <v>135</v>
+      <c r="A1" s="98"/>
+      <c r="B1" s="99" t="s">
+        <v>122</v>
       </c>
-      <c r="C1" s="104" t="s">
-        <v>136</v>
+      <c r="C1" s="99" t="s">
+        <v>123</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6972,14 +6908,14 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="105" t="s">
-        <v>137</v>
+      <c r="A2" s="100" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
-      <c r="C2" s="106" t="s">
-        <v>139</v>
+      <c r="C2" s="101" t="s">
+        <v>126</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -7007,14 +6943,14 @@
       <c r="AA2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="107" t="s">
-        <v>140</v>
+      <c r="A3" s="102" t="s">
+        <v>127</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>141</v>
+      <c r="B3" s="103" t="s">
+        <v>128</v>
       </c>
-      <c r="C3" s="106" t="s">
-        <v>142</v>
+      <c r="C3" s="101" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7042,14 +6978,14 @@
       <c r="AA3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="105" t="s">
-        <v>137</v>
+      <c r="A4" s="100" t="s">
+        <v>124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
-      <c r="C4" s="106" t="s">
-        <v>144</v>
+      <c r="C4" s="101" t="s">
+        <v>131</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -7077,25 +7013,25 @@
       <c r="AA4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="107" t="s">
-        <v>140</v>
+      <c r="A5" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
-      <c r="C5" s="109" t="s">
-        <v>146</v>
+      <c r="C5" s="104" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="105" t="s">
-        <v>137</v>
+      <c r="A6" s="100" t="s">
+        <v>124</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>147</v>
+      <c r="C6" s="101" t="s">
+        <v>134</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7123,14 +7059,14 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="105" t="s">
-        <v>137</v>
+      <c r="A7" s="100" t="s">
+        <v>124</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
-      <c r="C7" s="106" t="s">
-        <v>149</v>
+      <c r="C7" s="101" t="s">
+        <v>136</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7158,14 +7094,14 @@
       <c r="AA7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>151</v>
+      <c r="C8" s="101" t="s">
+        <v>138</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -7193,14 +7129,14 @@
       <c r="AA8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="105" t="s">
-        <v>137</v>
+      <c r="A9" s="100" t="s">
+        <v>124</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="106" t="s">
-        <v>152</v>
+      <c r="C9" s="101" t="s">
+        <v>139</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -7228,14 +7164,14 @@
       <c r="AA9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>154</v>
+      <c r="C10" s="101" t="s">
+        <v>141</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -7263,14 +7199,14 @@
       <c r="AA10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="107" t="s">
-        <v>140</v>
+      <c r="A11" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
-      <c r="C11" s="106" t="s">
-        <v>156</v>
+      <c r="C11" s="101" t="s">
+        <v>143</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -7298,14 +7234,14 @@
       <c r="AA11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="107" t="s">
-        <v>140</v>
+      <c r="A12" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>158</v>
+      <c r="C12" s="101" t="s">
+        <v>145</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -7333,14 +7269,14 @@
       <c r="AA12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="105" t="s">
-        <v>159</v>
+      <c r="A13" s="100" t="s">
+        <v>146</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
-      <c r="C13" s="106" t="s">
-        <v>161</v>
+      <c r="C13" s="101" t="s">
+        <v>148</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -7368,14 +7304,14 @@
       <c r="AA13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="107" t="s">
-        <v>140</v>
+      <c r="A14" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
-      <c r="C14" s="110" t="s">
-        <v>163</v>
+      <c r="C14" s="105" t="s">
+        <v>150</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -7403,14 +7339,14 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="105" t="s">
-        <v>159</v>
+      <c r="A15" s="100" t="s">
+        <v>146</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="110" t="s">
-        <v>164</v>
+      <c r="C15" s="105" t="s">
+        <v>151</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -7438,14 +7374,14 @@
       <c r="AA15" s="6"/>
     </row>
     <row r="16">
-      <c r="A16" s="107" t="s">
-        <v>140</v>
+      <c r="A16" s="102" t="s">
+        <v>127</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
-      <c r="C16" s="110" t="s">
-        <v>166</v>
+      <c r="C16" s="105" t="s">
+        <v>153</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -7473,14 +7409,14 @@
       <c r="AA16" s="6"/>
     </row>
     <row r="17">
-      <c r="A17" s="105" t="s">
-        <v>159</v>
+      <c r="A17" s="100" t="s">
+        <v>146</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>168</v>
+      <c r="C17" s="101" t="s">
+        <v>155</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -7508,14 +7444,14 @@
       <c r="AA17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="105" t="s">
-        <v>159</v>
+      <c r="A18" s="100" t="s">
+        <v>146</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
-      <c r="C18" s="106" t="s">
-        <v>170</v>
+      <c r="C18" s="101" t="s">
+        <v>157</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -7543,14 +7479,14 @@
       <c r="AA18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="105" t="s">
-        <v>159</v>
+      <c r="A19" s="100" t="s">
+        <v>146</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
-      <c r="C19" s="106" t="s">
-        <v>172</v>
+      <c r="C19" s="101" t="s">
+        <v>159</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -7578,14 +7514,14 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="107" t="s">
-        <v>140</v>
+      <c r="A20" s="102" t="s">
+        <v>127</v>
       </c>
-      <c r="B20" s="108" t="s">
-        <v>173</v>
+      <c r="B20" s="103" t="s">
+        <v>160</v>
       </c>
-      <c r="C20" s="106" t="s">
-        <v>174</v>
+      <c r="C20" s="101" t="s">
+        <v>161</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -7613,14 +7549,14 @@
       <c r="AA20" s="6"/>
     </row>
     <row r="21">
-      <c r="A21" s="105" t="s">
-        <v>175</v>
+      <c r="A21" s="100" t="s">
+        <v>162</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
-      <c r="C21" s="106" t="s">
-        <v>177</v>
+      <c r="C21" s="101" t="s">
+        <v>164</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -7648,14 +7584,14 @@
       <c r="AA21" s="6"/>
     </row>
     <row r="22">
-      <c r="A22" s="105" t="s">
-        <v>175</v>
+      <c r="A22" s="100" t="s">
+        <v>162</v>
       </c>
-      <c r="B22" s="108" t="s">
-        <v>178</v>
+      <c r="B22" s="103" t="s">
+        <v>165</v>
       </c>
-      <c r="C22" s="106" t="s">
-        <v>179</v>
+      <c r="C22" s="101" t="s">
+        <v>166</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -7683,14 +7619,14 @@
       <c r="AA22" s="6"/>
     </row>
     <row r="23">
-      <c r="A23" s="107" t="s">
-        <v>140</v>
+      <c r="A23" s="102" t="s">
+        <v>127</v>
       </c>
-      <c r="B23" s="108" t="s">
-        <v>180</v>
+      <c r="B23" s="103" t="s">
+        <v>167</v>
       </c>
-      <c r="C23" s="106" t="s">
-        <v>181</v>
+      <c r="C23" s="101" t="s">
+        <v>168</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -7718,14 +7654,14 @@
       <c r="AA23" s="6"/>
     </row>
     <row r="24">
-      <c r="A24" s="105" t="s">
-        <v>175</v>
+      <c r="A24" s="100" t="s">
+        <v>162</v>
       </c>
-      <c r="B24" s="108" t="s">
-        <v>182</v>
+      <c r="B24" s="103" t="s">
+        <v>169</v>
       </c>
-      <c r="C24" s="106" t="s">
-        <v>183</v>
+      <c r="C24" s="101" t="s">
+        <v>170</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -7753,14 +7689,14 @@
       <c r="AA24" s="6"/>
     </row>
     <row r="25">
-      <c r="A25" s="105" t="s">
-        <v>175</v>
+      <c r="A25" s="100" t="s">
+        <v>162</v>
       </c>
-      <c r="B25" s="108" t="s">
-        <v>141</v>
+      <c r="B25" s="103" t="s">
+        <v>128</v>
       </c>
-      <c r="C25" s="106" t="s">
-        <v>142</v>
+      <c r="C25" s="101" t="s">
+        <v>129</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -7788,14 +7724,14 @@
       <c r="AA25" s="6"/>
     </row>
     <row r="26">
-      <c r="A26" s="105" t="s">
-        <v>175</v>
+      <c r="A26" s="100" t="s">
+        <v>162</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
-      <c r="C26" s="106" t="s">
-        <v>185</v>
+      <c r="C26" s="101" t="s">
+        <v>172</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -7823,14 +7759,14 @@
       <c r="AA26" s="6"/>
     </row>
     <row r="27">
-      <c r="A27" s="105" t="s">
-        <v>175</v>
+      <c r="A27" s="100" t="s">
+        <v>162</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
-      <c r="C27" s="106" t="s">
-        <v>187</v>
+      <c r="C27" s="101" t="s">
+        <v>174</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -7858,7 +7794,7 @@
       <c r="AA27" s="6"/>
     </row>
     <row r="28">
-      <c r="A28" s="111"/>
+      <c r="A28" s="106"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -7887,7 +7823,7 @@
       <c r="AA28" s="6"/>
     </row>
     <row r="29">
-      <c r="A29" s="111"/>
+      <c r="A29" s="106"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -7916,14 +7852,14 @@
       <c r="AA29" s="6"/>
     </row>
     <row r="30">
-      <c r="A30" s="111" t="s">
-        <v>188</v>
+      <c r="A30" s="106" t="s">
+        <v>175</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="106" t="s">
-        <v>189</v>
+      <c r="C30" s="101" t="s">
+        <v>176</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -7951,7 +7887,7 @@
       <c r="AA30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="111"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -7980,7 +7916,7 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="111"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -8009,7 +7945,7 @@
       <c r="AA32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="111"/>
+      <c r="A33" s="106"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -8038,7 +7974,7 @@
       <c r="AA33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="111"/>
+      <c r="A34" s="106"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -8067,7 +8003,7 @@
       <c r="AA34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="111"/>
+      <c r="A35" s="106"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -8096,7 +8032,7 @@
       <c r="AA35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="111"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -8125,7 +8061,7 @@
       <c r="AA36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="111"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -8154,7 +8090,7 @@
       <c r="AA37" s="6"/>
     </row>
     <row r="38">
-      <c r="A38" s="111"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -8183,7 +8119,7 @@
       <c r="AA38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="111"/>
+      <c r="A39" s="106"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -8212,7 +8148,7 @@
       <c r="AA39" s="6"/>
     </row>
     <row r="40">
-      <c r="A40" s="111"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -8241,7 +8177,7 @@
       <c r="AA40" s="6"/>
     </row>
     <row r="41">
-      <c r="A41" s="111"/>
+      <c r="A41" s="106"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -8270,7 +8206,7 @@
       <c r="AA41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="111"/>
+      <c r="A42" s="106"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -8299,7 +8235,7 @@
       <c r="AA42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="111"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -8328,7 +8264,7 @@
       <c r="AA43" s="6"/>
     </row>
     <row r="44">
-      <c r="A44" s="111"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -8357,7 +8293,7 @@
       <c r="AA44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="111"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -8386,7 +8322,7 @@
       <c r="AA45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="111"/>
+      <c r="A46" s="106"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -8415,7 +8351,7 @@
       <c r="AA46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="111"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -8444,7 +8380,7 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="111"/>
+      <c r="A48" s="106"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -8473,7 +8409,7 @@
       <c r="AA48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="111"/>
+      <c r="A49" s="106"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -8502,7 +8438,7 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="111"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -8531,7 +8467,7 @@
       <c r="AA50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="111"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -8560,7 +8496,7 @@
       <c r="AA51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="111"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -8589,7 +8525,7 @@
       <c r="AA52" s="6"/>
     </row>
     <row r="53">
-      <c r="A53" s="111"/>
+      <c r="A53" s="106"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -8618,7 +8554,7 @@
       <c r="AA53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="111"/>
+      <c r="A54" s="106"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -8647,7 +8583,7 @@
       <c r="AA54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="111"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -8676,7 +8612,7 @@
       <c r="AA55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="111"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -8705,7 +8641,7 @@
       <c r="AA56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="111"/>
+      <c r="A57" s="106"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -8734,7 +8670,7 @@
       <c r="AA57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="111"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -8763,7 +8699,7 @@
       <c r="AA58" s="6"/>
     </row>
     <row r="59">
-      <c r="A59" s="111"/>
+      <c r="A59" s="106"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -8792,7 +8728,7 @@
       <c r="AA59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="111"/>
+      <c r="A60" s="106"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -8821,7 +8757,7 @@
       <c r="AA60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="111"/>
+      <c r="A61" s="106"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -8850,7 +8786,7 @@
       <c r="AA61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="111"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -8879,7 +8815,7 @@
       <c r="AA62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="111"/>
+      <c r="A63" s="106"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -8908,7 +8844,7 @@
       <c r="AA63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="111"/>
+      <c r="A64" s="106"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -8937,7 +8873,7 @@
       <c r="AA64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="111"/>
+      <c r="A65" s="106"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -8966,7 +8902,7 @@
       <c r="AA65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="111"/>
+      <c r="A66" s="106"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -8995,7 +8931,7 @@
       <c r="AA66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="111"/>
+      <c r="A67" s="106"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -9024,7 +8960,7 @@
       <c r="AA67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="111"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -9053,7 +8989,7 @@
       <c r="AA68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="111"/>
+      <c r="A69" s="106"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -9082,7 +9018,7 @@
       <c r="AA69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="111"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -9111,7 +9047,7 @@
       <c r="AA70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="111"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -9140,7 +9076,7 @@
       <c r="AA71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="111"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -9169,7 +9105,7 @@
       <c r="AA72" s="6"/>
     </row>
     <row r="73">
-      <c r="A73" s="111"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -9198,7 +9134,7 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="111"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -9227,7 +9163,7 @@
       <c r="AA74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="111"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -9256,7 +9192,7 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="111"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -9285,7 +9221,7 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="111"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -9314,7 +9250,7 @@
       <c r="AA77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="111"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -9343,7 +9279,7 @@
       <c r="AA78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="111"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -9372,7 +9308,7 @@
       <c r="AA79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="111"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -9401,7 +9337,7 @@
       <c r="AA80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="111"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -9430,7 +9366,7 @@
       <c r="AA81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="111"/>
+      <c r="A82" s="106"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -9459,7 +9395,7 @@
       <c r="AA82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="111"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -9488,7 +9424,7 @@
       <c r="AA83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="111"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -9517,7 +9453,7 @@
       <c r="AA84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="111"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -9546,7 +9482,7 @@
       <c r="AA85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="111"/>
+      <c r="A86" s="106"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -9575,7 +9511,7 @@
       <c r="AA86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="111"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -9604,7 +9540,7 @@
       <c r="AA87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="111"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -9633,7 +9569,7 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="111"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -9662,7 +9598,7 @@
       <c r="AA89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="111"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -9691,7 +9627,7 @@
       <c r="AA90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="111"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -9720,7 +9656,7 @@
       <c r="AA91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="111"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -9749,7 +9685,7 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="111"/>
+      <c r="A93" s="106"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -9778,7 +9714,7 @@
       <c r="AA93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="111"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -9807,7 +9743,7 @@
       <c r="AA94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="111"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -9836,7 +9772,7 @@
       <c r="AA95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="111"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -9865,7 +9801,7 @@
       <c r="AA96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="111"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -9894,7 +9830,7 @@
       <c r="AA97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="111"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -9923,7 +9859,7 @@
       <c r="AA98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="111"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -9952,7 +9888,7 @@
       <c r="AA99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="111"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -9981,7 +9917,7 @@
       <c r="AA100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="111"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -10010,7 +9946,7 @@
       <c r="AA101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="111"/>
+      <c r="A102" s="106"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -10039,7 +9975,7 @@
       <c r="AA102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="111"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -10068,7 +10004,7 @@
       <c r="AA103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="111"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -10097,7 +10033,7 @@
       <c r="AA104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="111"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -10126,7 +10062,7 @@
       <c r="AA105" s="6"/>
     </row>
     <row r="106">
-      <c r="A106" s="111"/>
+      <c r="A106" s="106"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -10155,7 +10091,7 @@
       <c r="AA106" s="6"/>
     </row>
     <row r="107">
-      <c r="A107" s="111"/>
+      <c r="A107" s="106"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -10184,7 +10120,7 @@
       <c r="AA107" s="6"/>
     </row>
     <row r="108">
-      <c r="A108" s="111"/>
+      <c r="A108" s="106"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -10213,7 +10149,7 @@
       <c r="AA108" s="6"/>
     </row>
     <row r="109">
-      <c r="A109" s="111"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -10242,7 +10178,7 @@
       <c r="AA109" s="6"/>
     </row>
     <row r="110">
-      <c r="A110" s="111"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -10271,7 +10207,7 @@
       <c r="AA110" s="6"/>
     </row>
     <row r="111">
-      <c r="A111" s="111"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -10300,7 +10236,7 @@
       <c r="AA111" s="6"/>
     </row>
     <row r="112">
-      <c r="A112" s="111"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -10329,7 +10265,7 @@
       <c r="AA112" s="6"/>
     </row>
     <row r="113">
-      <c r="A113" s="111"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -10358,7 +10294,7 @@
       <c r="AA113" s="6"/>
     </row>
     <row r="114">
-      <c r="A114" s="111"/>
+      <c r="A114" s="106"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -10387,7 +10323,7 @@
       <c r="AA114" s="6"/>
     </row>
     <row r="115">
-      <c r="A115" s="111"/>
+      <c r="A115" s="106"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -10416,7 +10352,7 @@
       <c r="AA115" s="6"/>
     </row>
     <row r="116">
-      <c r="A116" s="111"/>
+      <c r="A116" s="106"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -10445,7 +10381,7 @@
       <c r="AA116" s="6"/>
     </row>
     <row r="117">
-      <c r="A117" s="111"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -10474,7 +10410,7 @@
       <c r="AA117" s="6"/>
     </row>
     <row r="118">
-      <c r="A118" s="111"/>
+      <c r="A118" s="106"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -10503,7 +10439,7 @@
       <c r="AA118" s="6"/>
     </row>
     <row r="119">
-      <c r="A119" s="111"/>
+      <c r="A119" s="106"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -10532,7 +10468,7 @@
       <c r="AA119" s="6"/>
     </row>
     <row r="120">
-      <c r="A120" s="111"/>
+      <c r="A120" s="106"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -10561,7 +10497,7 @@
       <c r="AA120" s="6"/>
     </row>
     <row r="121">
-      <c r="A121" s="111"/>
+      <c r="A121" s="106"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -10590,7 +10526,7 @@
       <c r="AA121" s="6"/>
     </row>
     <row r="122">
-      <c r="A122" s="111"/>
+      <c r="A122" s="106"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -10619,7 +10555,7 @@
       <c r="AA122" s="6"/>
     </row>
     <row r="123">
-      <c r="A123" s="111"/>
+      <c r="A123" s="106"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -10648,7 +10584,7 @@
       <c r="AA123" s="6"/>
     </row>
     <row r="124">
-      <c r="A124" s="111"/>
+      <c r="A124" s="106"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -10677,7 +10613,7 @@
       <c r="AA124" s="6"/>
     </row>
     <row r="125">
-      <c r="A125" s="111"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -10706,7 +10642,7 @@
       <c r="AA125" s="6"/>
     </row>
     <row r="126">
-      <c r="A126" s="111"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -10735,7 +10671,7 @@
       <c r="AA126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="111"/>
+      <c r="A127" s="106"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -10764,7 +10700,7 @@
       <c r="AA127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="111"/>
+      <c r="A128" s="106"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -10793,7 +10729,7 @@
       <c r="AA128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="111"/>
+      <c r="A129" s="106"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -10822,7 +10758,7 @@
       <c r="AA129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="111"/>
+      <c r="A130" s="106"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -10851,7 +10787,7 @@
       <c r="AA130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="111"/>
+      <c r="A131" s="106"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -10880,7 +10816,7 @@
       <c r="AA131" s="6"/>
     </row>
     <row r="132">
-      <c r="A132" s="111"/>
+      <c r="A132" s="106"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -10909,7 +10845,7 @@
       <c r="AA132" s="6"/>
     </row>
     <row r="133">
-      <c r="A133" s="111"/>
+      <c r="A133" s="106"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -10938,7 +10874,7 @@
       <c r="AA133" s="6"/>
     </row>
     <row r="134">
-      <c r="A134" s="111"/>
+      <c r="A134" s="106"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -10967,7 +10903,7 @@
       <c r="AA134" s="6"/>
     </row>
     <row r="135">
-      <c r="A135" s="111"/>
+      <c r="A135" s="106"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -10996,7 +10932,7 @@
       <c r="AA135" s="6"/>
     </row>
     <row r="136">
-      <c r="A136" s="111"/>
+      <c r="A136" s="106"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -11025,7 +10961,7 @@
       <c r="AA136" s="6"/>
     </row>
     <row r="137">
-      <c r="A137" s="111"/>
+      <c r="A137" s="106"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -11054,7 +10990,7 @@
       <c r="AA137" s="6"/>
     </row>
     <row r="138">
-      <c r="A138" s="111"/>
+      <c r="A138" s="106"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -11083,7 +11019,7 @@
       <c r="AA138" s="6"/>
     </row>
     <row r="139">
-      <c r="A139" s="111"/>
+      <c r="A139" s="106"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -11112,7 +11048,7 @@
       <c r="AA139" s="6"/>
     </row>
     <row r="140">
-      <c r="A140" s="111"/>
+      <c r="A140" s="106"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -11141,7 +11077,7 @@
       <c r="AA140" s="6"/>
     </row>
     <row r="141">
-      <c r="A141" s="111"/>
+      <c r="A141" s="106"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -11170,7 +11106,7 @@
       <c r="AA141" s="6"/>
     </row>
     <row r="142">
-      <c r="A142" s="111"/>
+      <c r="A142" s="106"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -11199,7 +11135,7 @@
       <c r="AA142" s="6"/>
     </row>
     <row r="143">
-      <c r="A143" s="111"/>
+      <c r="A143" s="106"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -11228,7 +11164,7 @@
       <c r="AA143" s="6"/>
     </row>
     <row r="144">
-      <c r="A144" s="111"/>
+      <c r="A144" s="106"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -11257,7 +11193,7 @@
       <c r="AA144" s="6"/>
     </row>
     <row r="145">
-      <c r="A145" s="111"/>
+      <c r="A145" s="106"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -11286,7 +11222,7 @@
       <c r="AA145" s="6"/>
     </row>
     <row r="146">
-      <c r="A146" s="111"/>
+      <c r="A146" s="106"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -11315,7 +11251,7 @@
       <c r="AA146" s="6"/>
     </row>
     <row r="147">
-      <c r="A147" s="111"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -11344,7 +11280,7 @@
       <c r="AA147" s="6"/>
     </row>
     <row r="148">
-      <c r="A148" s="111"/>
+      <c r="A148" s="106"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -11373,7 +11309,7 @@
       <c r="AA148" s="6"/>
     </row>
     <row r="149">
-      <c r="A149" s="111"/>
+      <c r="A149" s="106"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -11402,7 +11338,7 @@
       <c r="AA149" s="6"/>
     </row>
     <row r="150">
-      <c r="A150" s="111"/>
+      <c r="A150" s="106"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -11431,7 +11367,7 @@
       <c r="AA150" s="6"/>
     </row>
     <row r="151">
-      <c r="A151" s="111"/>
+      <c r="A151" s="106"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -11460,7 +11396,7 @@
       <c r="AA151" s="6"/>
     </row>
     <row r="152">
-      <c r="A152" s="111"/>
+      <c r="A152" s="106"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -11489,7 +11425,7 @@
       <c r="AA152" s="6"/>
     </row>
     <row r="153">
-      <c r="A153" s="111"/>
+      <c r="A153" s="106"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -11518,7 +11454,7 @@
       <c r="AA153" s="6"/>
     </row>
     <row r="154">
-      <c r="A154" s="111"/>
+      <c r="A154" s="106"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -11547,7 +11483,7 @@
       <c r="AA154" s="6"/>
     </row>
     <row r="155">
-      <c r="A155" s="111"/>
+      <c r="A155" s="106"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -11576,7 +11512,7 @@
       <c r="AA155" s="6"/>
     </row>
     <row r="156">
-      <c r="A156" s="111"/>
+      <c r="A156" s="106"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -11605,7 +11541,7 @@
       <c r="AA156" s="6"/>
     </row>
     <row r="157">
-      <c r="A157" s="111"/>
+      <c r="A157" s="106"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -11634,7 +11570,7 @@
       <c r="AA157" s="6"/>
     </row>
     <row r="158">
-      <c r="A158" s="111"/>
+      <c r="A158" s="106"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -11663,7 +11599,7 @@
       <c r="AA158" s="6"/>
     </row>
     <row r="159">
-      <c r="A159" s="111"/>
+      <c r="A159" s="106"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -11692,7 +11628,7 @@
       <c r="AA159" s="6"/>
     </row>
     <row r="160">
-      <c r="A160" s="111"/>
+      <c r="A160" s="106"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -11721,7 +11657,7 @@
       <c r="AA160" s="6"/>
     </row>
     <row r="161">
-      <c r="A161" s="111"/>
+      <c r="A161" s="106"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -11750,7 +11686,7 @@
       <c r="AA161" s="6"/>
     </row>
     <row r="162">
-      <c r="A162" s="111"/>
+      <c r="A162" s="106"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -11779,7 +11715,7 @@
       <c r="AA162" s="6"/>
     </row>
     <row r="163">
-      <c r="A163" s="111"/>
+      <c r="A163" s="106"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -11808,7 +11744,7 @@
       <c r="AA163" s="6"/>
     </row>
     <row r="164">
-      <c r="A164" s="111"/>
+      <c r="A164" s="106"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -11837,7 +11773,7 @@
       <c r="AA164" s="6"/>
     </row>
     <row r="165">
-      <c r="A165" s="111"/>
+      <c r="A165" s="106"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -11866,7 +11802,7 @@
       <c r="AA165" s="6"/>
     </row>
     <row r="166">
-      <c r="A166" s="111"/>
+      <c r="A166" s="106"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -11895,7 +11831,7 @@
       <c r="AA166" s="6"/>
     </row>
     <row r="167">
-      <c r="A167" s="111"/>
+      <c r="A167" s="106"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -11924,7 +11860,7 @@
       <c r="AA167" s="6"/>
     </row>
     <row r="168">
-      <c r="A168" s="111"/>
+      <c r="A168" s="106"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -11953,7 +11889,7 @@
       <c r="AA168" s="6"/>
     </row>
     <row r="169">
-      <c r="A169" s="111"/>
+      <c r="A169" s="106"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -11982,7 +11918,7 @@
       <c r="AA169" s="6"/>
     </row>
     <row r="170">
-      <c r="A170" s="111"/>
+      <c r="A170" s="106"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -12011,7 +11947,7 @@
       <c r="AA170" s="6"/>
     </row>
     <row r="171">
-      <c r="A171" s="111"/>
+      <c r="A171" s="106"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -12040,7 +11976,7 @@
       <c r="AA171" s="6"/>
     </row>
     <row r="172">
-      <c r="A172" s="111"/>
+      <c r="A172" s="106"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -12069,7 +12005,7 @@
       <c r="AA172" s="6"/>
     </row>
     <row r="173">
-      <c r="A173" s="111"/>
+      <c r="A173" s="106"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -12098,7 +12034,7 @@
       <c r="AA173" s="6"/>
     </row>
     <row r="174">
-      <c r="A174" s="111"/>
+      <c r="A174" s="106"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -12127,7 +12063,7 @@
       <c r="AA174" s="6"/>
     </row>
     <row r="175">
-      <c r="A175" s="111"/>
+      <c r="A175" s="106"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -12156,7 +12092,7 @@
       <c r="AA175" s="6"/>
     </row>
     <row r="176">
-      <c r="A176" s="111"/>
+      <c r="A176" s="106"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -12185,7 +12121,7 @@
       <c r="AA176" s="6"/>
     </row>
     <row r="177">
-      <c r="A177" s="111"/>
+      <c r="A177" s="106"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -12214,7 +12150,7 @@
       <c r="AA177" s="6"/>
     </row>
     <row r="178">
-      <c r="A178" s="111"/>
+      <c r="A178" s="106"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -12243,7 +12179,7 @@
       <c r="AA178" s="6"/>
     </row>
     <row r="179">
-      <c r="A179" s="111"/>
+      <c r="A179" s="106"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -12272,7 +12208,7 @@
       <c r="AA179" s="6"/>
     </row>
     <row r="180">
-      <c r="A180" s="111"/>
+      <c r="A180" s="106"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -12301,7 +12237,7 @@
       <c r="AA180" s="6"/>
     </row>
     <row r="181">
-      <c r="A181" s="111"/>
+      <c r="A181" s="106"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -12330,7 +12266,7 @@
       <c r="AA181" s="6"/>
     </row>
     <row r="182">
-      <c r="A182" s="111"/>
+      <c r="A182" s="106"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -12359,7 +12295,7 @@
       <c r="AA182" s="6"/>
     </row>
     <row r="183">
-      <c r="A183" s="111"/>
+      <c r="A183" s="106"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -12388,7 +12324,7 @@
       <c r="AA183" s="6"/>
     </row>
     <row r="184">
-      <c r="A184" s="111"/>
+      <c r="A184" s="106"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -12417,7 +12353,7 @@
       <c r="AA184" s="6"/>
     </row>
     <row r="185">
-      <c r="A185" s="111"/>
+      <c r="A185" s="106"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -12446,7 +12382,7 @@
       <c r="AA185" s="6"/>
     </row>
     <row r="186">
-      <c r="A186" s="111"/>
+      <c r="A186" s="106"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -12475,7 +12411,7 @@
       <c r="AA186" s="6"/>
     </row>
     <row r="187">
-      <c r="A187" s="111"/>
+      <c r="A187" s="106"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -12504,7 +12440,7 @@
       <c r="AA187" s="6"/>
     </row>
     <row r="188">
-      <c r="A188" s="111"/>
+      <c r="A188" s="106"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -12533,7 +12469,7 @@
       <c r="AA188" s="6"/>
     </row>
     <row r="189">
-      <c r="A189" s="111"/>
+      <c r="A189" s="106"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -12562,7 +12498,7 @@
       <c r="AA189" s="6"/>
     </row>
     <row r="190">
-      <c r="A190" s="111"/>
+      <c r="A190" s="106"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -12591,7 +12527,7 @@
       <c r="AA190" s="6"/>
     </row>
     <row r="191">
-      <c r="A191" s="111"/>
+      <c r="A191" s="106"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -12620,7 +12556,7 @@
       <c r="AA191" s="6"/>
     </row>
     <row r="192">
-      <c r="A192" s="111"/>
+      <c r="A192" s="106"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -12649,7 +12585,7 @@
       <c r="AA192" s="6"/>
     </row>
     <row r="193">
-      <c r="A193" s="111"/>
+      <c r="A193" s="106"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -12678,7 +12614,7 @@
       <c r="AA193" s="6"/>
     </row>
     <row r="194">
-      <c r="A194" s="111"/>
+      <c r="A194" s="106"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -12707,7 +12643,7 @@
       <c r="AA194" s="6"/>
     </row>
     <row r="195">
-      <c r="A195" s="111"/>
+      <c r="A195" s="106"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -12736,7 +12672,7 @@
       <c r="AA195" s="6"/>
     </row>
     <row r="196">
-      <c r="A196" s="111"/>
+      <c r="A196" s="106"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -12765,7 +12701,7 @@
       <c r="AA196" s="6"/>
     </row>
     <row r="197">
-      <c r="A197" s="111"/>
+      <c r="A197" s="106"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -12794,7 +12730,7 @@
       <c r="AA197" s="6"/>
     </row>
     <row r="198">
-      <c r="A198" s="111"/>
+      <c r="A198" s="106"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -12823,7 +12759,7 @@
       <c r="AA198" s="6"/>
     </row>
     <row r="199">
-      <c r="A199" s="111"/>
+      <c r="A199" s="106"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -12852,7 +12788,7 @@
       <c r="AA199" s="6"/>
     </row>
     <row r="200">
-      <c r="A200" s="111"/>
+      <c r="A200" s="106"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -12881,7 +12817,7 @@
       <c r="AA200" s="6"/>
     </row>
     <row r="201">
-      <c r="A201" s="111"/>
+      <c r="A201" s="106"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -12910,7 +12846,7 @@
       <c r="AA201" s="6"/>
     </row>
     <row r="202">
-      <c r="A202" s="111"/>
+      <c r="A202" s="106"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -12939,7 +12875,7 @@
       <c r="AA202" s="6"/>
     </row>
     <row r="203">
-      <c r="A203" s="111"/>
+      <c r="A203" s="106"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -12968,7 +12904,7 @@
       <c r="AA203" s="6"/>
     </row>
     <row r="204">
-      <c r="A204" s="111"/>
+      <c r="A204" s="106"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -12997,7 +12933,7 @@
       <c r="AA204" s="6"/>
     </row>
     <row r="205">
-      <c r="A205" s="111"/>
+      <c r="A205" s="106"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -13026,7 +12962,7 @@
       <c r="AA205" s="6"/>
     </row>
     <row r="206">
-      <c r="A206" s="111"/>
+      <c r="A206" s="106"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -13055,7 +12991,7 @@
       <c r="AA206" s="6"/>
     </row>
     <row r="207">
-      <c r="A207" s="111"/>
+      <c r="A207" s="106"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -13084,7 +13020,7 @@
       <c r="AA207" s="6"/>
     </row>
     <row r="208">
-      <c r="A208" s="111"/>
+      <c r="A208" s="106"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -13113,7 +13049,7 @@
       <c r="AA208" s="6"/>
     </row>
     <row r="209">
-      <c r="A209" s="111"/>
+      <c r="A209" s="106"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -13142,7 +13078,7 @@
       <c r="AA209" s="6"/>
     </row>
     <row r="210">
-      <c r="A210" s="111"/>
+      <c r="A210" s="106"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -13171,7 +13107,7 @@
       <c r="AA210" s="6"/>
     </row>
     <row r="211">
-      <c r="A211" s="111"/>
+      <c r="A211" s="106"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -13200,7 +13136,7 @@
       <c r="AA211" s="6"/>
     </row>
     <row r="212">
-      <c r="A212" s="111"/>
+      <c r="A212" s="106"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -13229,7 +13165,7 @@
       <c r="AA212" s="6"/>
     </row>
     <row r="213">
-      <c r="A213" s="111"/>
+      <c r="A213" s="106"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -13258,7 +13194,7 @@
       <c r="AA213" s="6"/>
     </row>
     <row r="214">
-      <c r="A214" s="111"/>
+      <c r="A214" s="106"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -13287,7 +13223,7 @@
       <c r="AA214" s="6"/>
     </row>
     <row r="215">
-      <c r="A215" s="111"/>
+      <c r="A215" s="106"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -13316,7 +13252,7 @@
       <c r="AA215" s="6"/>
     </row>
     <row r="216">
-      <c r="A216" s="111"/>
+      <c r="A216" s="106"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -13345,7 +13281,7 @@
       <c r="AA216" s="6"/>
     </row>
     <row r="217">
-      <c r="A217" s="111"/>
+      <c r="A217" s="106"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -13374,7 +13310,7 @@
       <c r="AA217" s="6"/>
     </row>
     <row r="218">
-      <c r="A218" s="111"/>
+      <c r="A218" s="106"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -13403,7 +13339,7 @@
       <c r="AA218" s="6"/>
     </row>
     <row r="219">
-      <c r="A219" s="111"/>
+      <c r="A219" s="106"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -13432,7 +13368,7 @@
       <c r="AA219" s="6"/>
     </row>
     <row r="220">
-      <c r="A220" s="111"/>
+      <c r="A220" s="106"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -13461,7 +13397,7 @@
       <c r="AA220" s="6"/>
     </row>
     <row r="221">
-      <c r="A221" s="111"/>
+      <c r="A221" s="106"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -13490,7 +13426,7 @@
       <c r="AA221" s="6"/>
     </row>
     <row r="222">
-      <c r="A222" s="111"/>
+      <c r="A222" s="106"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -13519,7 +13455,7 @@
       <c r="AA222" s="6"/>
     </row>
     <row r="223">
-      <c r="A223" s="111"/>
+      <c r="A223" s="106"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -13548,7 +13484,7 @@
       <c r="AA223" s="6"/>
     </row>
     <row r="224">
-      <c r="A224" s="111"/>
+      <c r="A224" s="106"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -13577,7 +13513,7 @@
       <c r="AA224" s="6"/>
     </row>
     <row r="225">
-      <c r="A225" s="111"/>
+      <c r="A225" s="106"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -13606,7 +13542,7 @@
       <c r="AA225" s="6"/>
     </row>
     <row r="226">
-      <c r="A226" s="111"/>
+      <c r="A226" s="106"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -13635,7 +13571,7 @@
       <c r="AA226" s="6"/>
     </row>
     <row r="227">
-      <c r="A227" s="111"/>
+      <c r="A227" s="106"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -13664,7 +13600,7 @@
       <c r="AA227" s="6"/>
     </row>
     <row r="228">
-      <c r="A228" s="111"/>
+      <c r="A228" s="106"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -13693,7 +13629,7 @@
       <c r="AA228" s="6"/>
     </row>
     <row r="229">
-      <c r="A229" s="111"/>
+      <c r="A229" s="106"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -13722,7 +13658,7 @@
       <c r="AA229" s="6"/>
     </row>
     <row r="230">
-      <c r="A230" s="111"/>
+      <c r="A230" s="106"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -13751,7 +13687,7 @@
       <c r="AA230" s="6"/>
     </row>
     <row r="231">
-      <c r="A231" s="111"/>
+      <c r="A231" s="106"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -13780,7 +13716,7 @@
       <c r="AA231" s="6"/>
     </row>
     <row r="232">
-      <c r="A232" s="111"/>
+      <c r="A232" s="106"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -13809,7 +13745,7 @@
       <c r="AA232" s="6"/>
     </row>
     <row r="233">
-      <c r="A233" s="111"/>
+      <c r="A233" s="106"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -13838,7 +13774,7 @@
       <c r="AA233" s="6"/>
     </row>
     <row r="234">
-      <c r="A234" s="111"/>
+      <c r="A234" s="106"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -13867,7 +13803,7 @@
       <c r="AA234" s="6"/>
     </row>
     <row r="235">
-      <c r="A235" s="111"/>
+      <c r="A235" s="106"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -13896,7 +13832,7 @@
       <c r="AA235" s="6"/>
     </row>
     <row r="236">
-      <c r="A236" s="111"/>
+      <c r="A236" s="106"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -13925,7 +13861,7 @@
       <c r="AA236" s="6"/>
     </row>
     <row r="237">
-      <c r="A237" s="111"/>
+      <c r="A237" s="106"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -13954,7 +13890,7 @@
       <c r="AA237" s="6"/>
     </row>
     <row r="238">
-      <c r="A238" s="111"/>
+      <c r="A238" s="106"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -13983,7 +13919,7 @@
       <c r="AA238" s="6"/>
     </row>
     <row r="239">
-      <c r="A239" s="111"/>
+      <c r="A239" s="106"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -14012,7 +13948,7 @@
       <c r="AA239" s="6"/>
     </row>
     <row r="240">
-      <c r="A240" s="111"/>
+      <c r="A240" s="106"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -14041,7 +13977,7 @@
       <c r="AA240" s="6"/>
     </row>
     <row r="241">
-      <c r="A241" s="111"/>
+      <c r="A241" s="106"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -14070,7 +14006,7 @@
       <c r="AA241" s="6"/>
     </row>
     <row r="242">
-      <c r="A242" s="111"/>
+      <c r="A242" s="106"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -14099,7 +14035,7 @@
       <c r="AA242" s="6"/>
     </row>
     <row r="243">
-      <c r="A243" s="111"/>
+      <c r="A243" s="106"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -14128,7 +14064,7 @@
       <c r="AA243" s="6"/>
     </row>
     <row r="244">
-      <c r="A244" s="111"/>
+      <c r="A244" s="106"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -14157,7 +14093,7 @@
       <c r="AA244" s="6"/>
     </row>
     <row r="245">
-      <c r="A245" s="111"/>
+      <c r="A245" s="106"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -14186,7 +14122,7 @@
       <c r="AA245" s="6"/>
     </row>
     <row r="246">
-      <c r="A246" s="111"/>
+      <c r="A246" s="106"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -14215,7 +14151,7 @@
       <c r="AA246" s="6"/>
     </row>
     <row r="247">
-      <c r="A247" s="111"/>
+      <c r="A247" s="106"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -14244,7 +14180,7 @@
       <c r="AA247" s="6"/>
     </row>
     <row r="248">
-      <c r="A248" s="111"/>
+      <c r="A248" s="106"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -14273,7 +14209,7 @@
       <c r="AA248" s="6"/>
     </row>
     <row r="249">
-      <c r="A249" s="111"/>
+      <c r="A249" s="106"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
       <c r="D249" s="6"/>
@@ -14302,7 +14238,7 @@
       <c r="AA249" s="6"/>
     </row>
     <row r="250">
-      <c r="A250" s="111"/>
+      <c r="A250" s="106"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
@@ -14331,7 +14267,7 @@
       <c r="AA250" s="6"/>
     </row>
     <row r="251">
-      <c r="A251" s="111"/>
+      <c r="A251" s="106"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
       <c r="D251" s="6"/>
@@ -14360,7 +14296,7 @@
       <c r="AA251" s="6"/>
     </row>
     <row r="252">
-      <c r="A252" s="111"/>
+      <c r="A252" s="106"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
       <c r="D252" s="6"/>
@@ -14389,7 +14325,7 @@
       <c r="AA252" s="6"/>
     </row>
     <row r="253">
-      <c r="A253" s="111"/>
+      <c r="A253" s="106"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
       <c r="D253" s="6"/>
@@ -14418,7 +14354,7 @@
       <c r="AA253" s="6"/>
     </row>
     <row r="254">
-      <c r="A254" s="111"/>
+      <c r="A254" s="106"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
@@ -14447,7 +14383,7 @@
       <c r="AA254" s="6"/>
     </row>
     <row r="255">
-      <c r="A255" s="111"/>
+      <c r="A255" s="106"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
       <c r="D255" s="6"/>
@@ -14476,7 +14412,7 @@
       <c r="AA255" s="6"/>
     </row>
     <row r="256">
-      <c r="A256" s="111"/>
+      <c r="A256" s="106"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
       <c r="D256" s="6"/>
@@ -14505,7 +14441,7 @@
       <c r="AA256" s="6"/>
     </row>
     <row r="257">
-      <c r="A257" s="111"/>
+      <c r="A257" s="106"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
       <c r="D257" s="6"/>
@@ -14534,7 +14470,7 @@
       <c r="AA257" s="6"/>
     </row>
     <row r="258">
-      <c r="A258" s="111"/>
+      <c r="A258" s="106"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
@@ -14563,7 +14499,7 @@
       <c r="AA258" s="6"/>
     </row>
     <row r="259">
-      <c r="A259" s="111"/>
+      <c r="A259" s="106"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
       <c r="D259" s="6"/>
@@ -14592,7 +14528,7 @@
       <c r="AA259" s="6"/>
     </row>
     <row r="260">
-      <c r="A260" s="111"/>
+      <c r="A260" s="106"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
       <c r="D260" s="6"/>
@@ -14621,7 +14557,7 @@
       <c r="AA260" s="6"/>
     </row>
     <row r="261">
-      <c r="A261" s="111"/>
+      <c r="A261" s="106"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
       <c r="D261" s="6"/>
@@ -14650,7 +14586,7 @@
       <c r="AA261" s="6"/>
     </row>
     <row r="262">
-      <c r="A262" s="111"/>
+      <c r="A262" s="106"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
@@ -14679,7 +14615,7 @@
       <c r="AA262" s="6"/>
     </row>
     <row r="263">
-      <c r="A263" s="111"/>
+      <c r="A263" s="106"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
       <c r="D263" s="6"/>
@@ -14708,7 +14644,7 @@
       <c r="AA263" s="6"/>
     </row>
     <row r="264">
-      <c r="A264" s="111"/>
+      <c r="A264" s="106"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
@@ -14737,7 +14673,7 @@
       <c r="AA264" s="6"/>
     </row>
     <row r="265">
-      <c r="A265" s="111"/>
+      <c r="A265" s="106"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
       <c r="D265" s="6"/>
@@ -14766,7 +14702,7 @@
       <c r="AA265" s="6"/>
     </row>
     <row r="266">
-      <c r="A266" s="111"/>
+      <c r="A266" s="106"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
@@ -14795,7 +14731,7 @@
       <c r="AA266" s="6"/>
     </row>
     <row r="267">
-      <c r="A267" s="111"/>
+      <c r="A267" s="106"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
       <c r="D267" s="6"/>
@@ -14824,7 +14760,7 @@
       <c r="AA267" s="6"/>
     </row>
     <row r="268">
-      <c r="A268" s="111"/>
+      <c r="A268" s="106"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
       <c r="D268" s="6"/>
@@ -14853,7 +14789,7 @@
       <c r="AA268" s="6"/>
     </row>
     <row r="269">
-      <c r="A269" s="111"/>
+      <c r="A269" s="106"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
       <c r="D269" s="6"/>
@@ -14882,7 +14818,7 @@
       <c r="AA269" s="6"/>
     </row>
     <row r="270">
-      <c r="A270" s="111"/>
+      <c r="A270" s="106"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
       <c r="D270" s="6"/>
@@ -14911,7 +14847,7 @@
       <c r="AA270" s="6"/>
     </row>
     <row r="271">
-      <c r="A271" s="111"/>
+      <c r="A271" s="106"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
@@ -14940,7 +14876,7 @@
       <c r="AA271" s="6"/>
     </row>
     <row r="272">
-      <c r="A272" s="111"/>
+      <c r="A272" s="106"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
       <c r="D272" s="6"/>
@@ -14969,7 +14905,7 @@
       <c r="AA272" s="6"/>
     </row>
     <row r="273">
-      <c r="A273" s="111"/>
+      <c r="A273" s="106"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
       <c r="D273" s="6"/>
@@ -14998,7 +14934,7 @@
       <c r="AA273" s="6"/>
     </row>
     <row r="274">
-      <c r="A274" s="111"/>
+      <c r="A274" s="106"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
       <c r="D274" s="6"/>
@@ -15027,7 +14963,7 @@
       <c r="AA274" s="6"/>
     </row>
     <row r="275">
-      <c r="A275" s="111"/>
+      <c r="A275" s="106"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
@@ -15056,7 +14992,7 @@
       <c r="AA275" s="6"/>
     </row>
     <row r="276">
-      <c r="A276" s="111"/>
+      <c r="A276" s="106"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
       <c r="D276" s="6"/>
@@ -15085,7 +15021,7 @@
       <c r="AA276" s="6"/>
     </row>
     <row r="277">
-      <c r="A277" s="111"/>
+      <c r="A277" s="106"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
       <c r="D277" s="6"/>
@@ -15114,7 +15050,7 @@
       <c r="AA277" s="6"/>
     </row>
     <row r="278">
-      <c r="A278" s="111"/>
+      <c r="A278" s="106"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
       <c r="D278" s="6"/>
@@ -15143,7 +15079,7 @@
       <c r="AA278" s="6"/>
     </row>
     <row r="279">
-      <c r="A279" s="111"/>
+      <c r="A279" s="106"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
@@ -15172,7 +15108,7 @@
       <c r="AA279" s="6"/>
     </row>
     <row r="280">
-      <c r="A280" s="111"/>
+      <c r="A280" s="106"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
       <c r="D280" s="6"/>
@@ -15201,7 +15137,7 @@
       <c r="AA280" s="6"/>
     </row>
     <row r="281">
-      <c r="A281" s="111"/>
+      <c r="A281" s="106"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
       <c r="D281" s="6"/>
@@ -15230,7 +15166,7 @@
       <c r="AA281" s="6"/>
     </row>
     <row r="282">
-      <c r="A282" s="111"/>
+      <c r="A282" s="106"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
       <c r="D282" s="6"/>
@@ -15259,7 +15195,7 @@
       <c r="AA282" s="6"/>
     </row>
     <row r="283">
-      <c r="A283" s="111"/>
+      <c r="A283" s="106"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
       <c r="D283" s="6"/>
@@ -15288,7 +15224,7 @@
       <c r="AA283" s="6"/>
     </row>
     <row r="284">
-      <c r="A284" s="111"/>
+      <c r="A284" s="106"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
       <c r="D284" s="6"/>
@@ -15317,7 +15253,7 @@
       <c r="AA284" s="6"/>
     </row>
     <row r="285">
-      <c r="A285" s="111"/>
+      <c r="A285" s="106"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
       <c r="D285" s="6"/>
@@ -15346,7 +15282,7 @@
       <c r="AA285" s="6"/>
     </row>
     <row r="286">
-      <c r="A286" s="111"/>
+      <c r="A286" s="106"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
       <c r="D286" s="6"/>
@@ -15375,7 +15311,7 @@
       <c r="AA286" s="6"/>
     </row>
     <row r="287">
-      <c r="A287" s="111"/>
+      <c r="A287" s="106"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
       <c r="D287" s="6"/>
@@ -15404,7 +15340,7 @@
       <c r="AA287" s="6"/>
     </row>
     <row r="288">
-      <c r="A288" s="111"/>
+      <c r="A288" s="106"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
       <c r="D288" s="6"/>
@@ -15433,7 +15369,7 @@
       <c r="AA288" s="6"/>
     </row>
     <row r="289">
-      <c r="A289" s="111"/>
+      <c r="A289" s="106"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
       <c r="D289" s="6"/>
@@ -15462,7 +15398,7 @@
       <c r="AA289" s="6"/>
     </row>
     <row r="290">
-      <c r="A290" s="111"/>
+      <c r="A290" s="106"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
@@ -15491,7 +15427,7 @@
       <c r="AA290" s="6"/>
     </row>
     <row r="291">
-      <c r="A291" s="111"/>
+      <c r="A291" s="106"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
       <c r="D291" s="6"/>
@@ -15520,7 +15456,7 @@
       <c r="AA291" s="6"/>
     </row>
     <row r="292">
-      <c r="A292" s="111"/>
+      <c r="A292" s="106"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
       <c r="D292" s="6"/>
@@ -15549,7 +15485,7 @@
       <c r="AA292" s="6"/>
     </row>
     <row r="293">
-      <c r="A293" s="111"/>
+      <c r="A293" s="106"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
       <c r="D293" s="6"/>
@@ -15578,7 +15514,7 @@
       <c r="AA293" s="6"/>
     </row>
     <row r="294">
-      <c r="A294" s="111"/>
+      <c r="A294" s="106"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
       <c r="D294" s="6"/>
@@ -15607,7 +15543,7 @@
       <c r="AA294" s="6"/>
     </row>
     <row r="295">
-      <c r="A295" s="111"/>
+      <c r="A295" s="106"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
       <c r="D295" s="6"/>
@@ -15636,7 +15572,7 @@
       <c r="AA295" s="6"/>
     </row>
     <row r="296">
-      <c r="A296" s="111"/>
+      <c r="A296" s="106"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -15665,7 +15601,7 @@
       <c r="AA296" s="6"/>
     </row>
     <row r="297">
-      <c r="A297" s="111"/>
+      <c r="A297" s="106"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
       <c r="D297" s="6"/>
@@ -15694,7 +15630,7 @@
       <c r="AA297" s="6"/>
     </row>
     <row r="298">
-      <c r="A298" s="111"/>
+      <c r="A298" s="106"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
       <c r="D298" s="6"/>
@@ -15723,7 +15659,7 @@
       <c r="AA298" s="6"/>
     </row>
     <row r="299">
-      <c r="A299" s="111"/>
+      <c r="A299" s="106"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
@@ -15752,7 +15688,7 @@
       <c r="AA299" s="6"/>
     </row>
     <row r="300">
-      <c r="A300" s="111"/>
+      <c r="A300" s="106"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
       <c r="D300" s="6"/>
@@ -15781,7 +15717,7 @@
       <c r="AA300" s="6"/>
     </row>
     <row r="301">
-      <c r="A301" s="111"/>
+      <c r="A301" s="106"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
       <c r="D301" s="6"/>
@@ -15810,7 +15746,7 @@
       <c r="AA301" s="6"/>
     </row>
     <row r="302">
-      <c r="A302" s="111"/>
+      <c r="A302" s="106"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
@@ -15839,7 +15775,7 @@
       <c r="AA302" s="6"/>
     </row>
     <row r="303">
-      <c r="A303" s="111"/>
+      <c r="A303" s="106"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
       <c r="D303" s="6"/>
@@ -15868,7 +15804,7 @@
       <c r="AA303" s="6"/>
     </row>
     <row r="304">
-      <c r="A304" s="111"/>
+      <c r="A304" s="106"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
@@ -15897,7 +15833,7 @@
       <c r="AA304" s="6"/>
     </row>
     <row r="305">
-      <c r="A305" s="111"/>
+      <c r="A305" s="106"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
       <c r="D305" s="6"/>
@@ -15926,7 +15862,7 @@
       <c r="AA305" s="6"/>
     </row>
     <row r="306">
-      <c r="A306" s="111"/>
+      <c r="A306" s="106"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
       <c r="D306" s="6"/>
@@ -15955,7 +15891,7 @@
       <c r="AA306" s="6"/>
     </row>
     <row r="307">
-      <c r="A307" s="111"/>
+      <c r="A307" s="106"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
       <c r="D307" s="6"/>
@@ -15984,7 +15920,7 @@
       <c r="AA307" s="6"/>
     </row>
     <row r="308">
-      <c r="A308" s="111"/>
+      <c r="A308" s="106"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
       <c r="D308" s="6"/>
@@ -16013,7 +15949,7 @@
       <c r="AA308" s="6"/>
     </row>
     <row r="309">
-      <c r="A309" s="111"/>
+      <c r="A309" s="106"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
       <c r="D309" s="6"/>
@@ -16042,7 +15978,7 @@
       <c r="AA309" s="6"/>
     </row>
     <row r="310">
-      <c r="A310" s="111"/>
+      <c r="A310" s="106"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -16071,7 +16007,7 @@
       <c r="AA310" s="6"/>
     </row>
     <row r="311">
-      <c r="A311" s="111"/>
+      <c r="A311" s="106"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
       <c r="D311" s="6"/>
@@ -16100,7 +16036,7 @@
       <c r="AA311" s="6"/>
     </row>
     <row r="312">
-      <c r="A312" s="111"/>
+      <c r="A312" s="106"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
@@ -16129,7 +16065,7 @@
       <c r="AA312" s="6"/>
     </row>
     <row r="313">
-      <c r="A313" s="111"/>
+      <c r="A313" s="106"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
       <c r="D313" s="6"/>
@@ -16158,7 +16094,7 @@
       <c r="AA313" s="6"/>
     </row>
     <row r="314">
-      <c r="A314" s="111"/>
+      <c r="A314" s="106"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
       <c r="D314" s="6"/>
@@ -16187,7 +16123,7 @@
       <c r="AA314" s="6"/>
     </row>
     <row r="315">
-      <c r="A315" s="111"/>
+      <c r="A315" s="106"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
       <c r="D315" s="6"/>
@@ -16216,7 +16152,7 @@
       <c r="AA315" s="6"/>
     </row>
     <row r="316">
-      <c r="A316" s="111"/>
+      <c r="A316" s="106"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
       <c r="D316" s="6"/>
@@ -16245,7 +16181,7 @@
       <c r="AA316" s="6"/>
     </row>
     <row r="317">
-      <c r="A317" s="111"/>
+      <c r="A317" s="106"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
       <c r="D317" s="6"/>
@@ -16274,7 +16210,7 @@
       <c r="AA317" s="6"/>
     </row>
     <row r="318">
-      <c r="A318" s="111"/>
+      <c r="A318" s="106"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
       <c r="D318" s="6"/>
@@ -16303,7 +16239,7 @@
       <c r="AA318" s="6"/>
     </row>
     <row r="319">
-      <c r="A319" s="111"/>
+      <c r="A319" s="106"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
       <c r="D319" s="6"/>
@@ -16332,7 +16268,7 @@
       <c r="AA319" s="6"/>
     </row>
     <row r="320">
-      <c r="A320" s="111"/>
+      <c r="A320" s="106"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
       <c r="D320" s="6"/>
@@ -16361,7 +16297,7 @@
       <c r="AA320" s="6"/>
     </row>
     <row r="321">
-      <c r="A321" s="111"/>
+      <c r="A321" s="106"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
       <c r="D321" s="6"/>
@@ -16390,7 +16326,7 @@
       <c r="AA321" s="6"/>
     </row>
     <row r="322">
-      <c r="A322" s="111"/>
+      <c r="A322" s="106"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
       <c r="D322" s="6"/>
@@ -16419,7 +16355,7 @@
       <c r="AA322" s="6"/>
     </row>
     <row r="323">
-      <c r="A323" s="111"/>
+      <c r="A323" s="106"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
       <c r="D323" s="6"/>
@@ -16448,7 +16384,7 @@
       <c r="AA323" s="6"/>
     </row>
     <row r="324">
-      <c r="A324" s="111"/>
+      <c r="A324" s="106"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
@@ -16477,7 +16413,7 @@
       <c r="AA324" s="6"/>
     </row>
     <row r="325">
-      <c r="A325" s="111"/>
+      <c r="A325" s="106"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
       <c r="D325" s="6"/>
@@ -16506,7 +16442,7 @@
       <c r="AA325" s="6"/>
     </row>
     <row r="326">
-      <c r="A326" s="111"/>
+      <c r="A326" s="106"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
       <c r="D326" s="6"/>
@@ -16535,7 +16471,7 @@
       <c r="AA326" s="6"/>
     </row>
     <row r="327">
-      <c r="A327" s="111"/>
+      <c r="A327" s="106"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
       <c r="D327" s="6"/>
@@ -16564,7 +16500,7 @@
       <c r="AA327" s="6"/>
     </row>
     <row r="328">
-      <c r="A328" s="111"/>
+      <c r="A328" s="106"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
       <c r="D328" s="6"/>
@@ -16593,7 +16529,7 @@
       <c r="AA328" s="6"/>
     </row>
     <row r="329">
-      <c r="A329" s="111"/>
+      <c r="A329" s="106"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
       <c r="D329" s="6"/>
@@ -16622,7 +16558,7 @@
       <c r="AA329" s="6"/>
     </row>
     <row r="330">
-      <c r="A330" s="111"/>
+      <c r="A330" s="106"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
       <c r="D330" s="6"/>
@@ -16651,7 +16587,7 @@
       <c r="AA330" s="6"/>
     </row>
     <row r="331">
-      <c r="A331" s="111"/>
+      <c r="A331" s="106"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
       <c r="D331" s="6"/>
@@ -16680,7 +16616,7 @@
       <c r="AA331" s="6"/>
     </row>
     <row r="332">
-      <c r="A332" s="111"/>
+      <c r="A332" s="106"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
       <c r="D332" s="6"/>
@@ -16709,7 +16645,7 @@
       <c r="AA332" s="6"/>
     </row>
     <row r="333">
-      <c r="A333" s="111"/>
+      <c r="A333" s="106"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
       <c r="D333" s="6"/>
@@ -16738,7 +16674,7 @@
       <c r="AA333" s="6"/>
     </row>
     <row r="334">
-      <c r="A334" s="111"/>
+      <c r="A334" s="106"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
       <c r="D334" s="6"/>
@@ -16767,7 +16703,7 @@
       <c r="AA334" s="6"/>
     </row>
     <row r="335">
-      <c r="A335" s="111"/>
+      <c r="A335" s="106"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -16796,7 +16732,7 @@
       <c r="AA335" s="6"/>
     </row>
     <row r="336">
-      <c r="A336" s="111"/>
+      <c r="A336" s="106"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
       <c r="D336" s="6"/>
@@ -16825,7 +16761,7 @@
       <c r="AA336" s="6"/>
     </row>
     <row r="337">
-      <c r="A337" s="111"/>
+      <c r="A337" s="106"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
       <c r="D337" s="6"/>
@@ -16854,7 +16790,7 @@
       <c r="AA337" s="6"/>
     </row>
     <row r="338">
-      <c r="A338" s="111"/>
+      <c r="A338" s="106"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -16883,7 +16819,7 @@
       <c r="AA338" s="6"/>
     </row>
     <row r="339">
-      <c r="A339" s="111"/>
+      <c r="A339" s="106"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
@@ -16912,7 +16848,7 @@
       <c r="AA339" s="6"/>
     </row>
     <row r="340">
-      <c r="A340" s="111"/>
+      <c r="A340" s="106"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
       <c r="D340" s="6"/>
@@ -16941,7 +16877,7 @@
       <c r="AA340" s="6"/>
     </row>
     <row r="341">
-      <c r="A341" s="111"/>
+      <c r="A341" s="106"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
       <c r="D341" s="6"/>
@@ -16970,7 +16906,7 @@
       <c r="AA341" s="6"/>
     </row>
     <row r="342">
-      <c r="A342" s="111"/>
+      <c r="A342" s="106"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
       <c r="D342" s="6"/>
@@ -16999,7 +16935,7 @@
       <c r="AA342" s="6"/>
     </row>
     <row r="343">
-      <c r="A343" s="111"/>
+      <c r="A343" s="106"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
       <c r="D343" s="6"/>
@@ -17028,7 +16964,7 @@
       <c r="AA343" s="6"/>
     </row>
     <row r="344">
-      <c r="A344" s="111"/>
+      <c r="A344" s="106"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -17057,7 +16993,7 @@
       <c r="AA344" s="6"/>
     </row>
     <row r="345">
-      <c r="A345" s="111"/>
+      <c r="A345" s="106"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
@@ -17086,7 +17022,7 @@
       <c r="AA345" s="6"/>
     </row>
     <row r="346">
-      <c r="A346" s="111"/>
+      <c r="A346" s="106"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
       <c r="D346" s="6"/>
@@ -17115,7 +17051,7 @@
       <c r="AA346" s="6"/>
     </row>
     <row r="347">
-      <c r="A347" s="111"/>
+      <c r="A347" s="106"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
       <c r="D347" s="6"/>
@@ -17144,7 +17080,7 @@
       <c r="AA347" s="6"/>
     </row>
     <row r="348">
-      <c r="A348" s="111"/>
+      <c r="A348" s="106"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
@@ -17173,7 +17109,7 @@
       <c r="AA348" s="6"/>
     </row>
     <row r="349">
-      <c r="A349" s="111"/>
+      <c r="A349" s="106"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
       <c r="D349" s="6"/>
@@ -17202,7 +17138,7 @@
       <c r="AA349" s="6"/>
     </row>
     <row r="350">
-      <c r="A350" s="111"/>
+      <c r="A350" s="106"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
       <c r="D350" s="6"/>
@@ -17231,7 +17167,7 @@
       <c r="AA350" s="6"/>
     </row>
     <row r="351">
-      <c r="A351" s="111"/>
+      <c r="A351" s="106"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
       <c r="D351" s="6"/>
@@ -17260,7 +17196,7 @@
       <c r="AA351" s="6"/>
     </row>
     <row r="352">
-      <c r="A352" s="111"/>
+      <c r="A352" s="106"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
       <c r="D352" s="6"/>
@@ -17289,7 +17225,7 @@
       <c r="AA352" s="6"/>
     </row>
     <row r="353">
-      <c r="A353" s="111"/>
+      <c r="A353" s="106"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
@@ -17318,7 +17254,7 @@
       <c r="AA353" s="6"/>
     </row>
     <row r="354">
-      <c r="A354" s="111"/>
+      <c r="A354" s="106"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
       <c r="D354" s="6"/>
@@ -17347,7 +17283,7 @@
       <c r="AA354" s="6"/>
     </row>
     <row r="355">
-      <c r="A355" s="111"/>
+      <c r="A355" s="106"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -17376,7 +17312,7 @@
       <c r="AA355" s="6"/>
     </row>
     <row r="356">
-      <c r="A356" s="111"/>
+      <c r="A356" s="106"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -17405,7 +17341,7 @@
       <c r="AA356" s="6"/>
     </row>
     <row r="357">
-      <c r="A357" s="111"/>
+      <c r="A357" s="106"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -17434,7 +17370,7 @@
       <c r="AA357" s="6"/>
     </row>
     <row r="358">
-      <c r="A358" s="111"/>
+      <c r="A358" s="106"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
       <c r="D358" s="6"/>
@@ -17463,7 +17399,7 @@
       <c r="AA358" s="6"/>
     </row>
     <row r="359">
-      <c r="A359" s="111"/>
+      <c r="A359" s="106"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -17492,7 +17428,7 @@
       <c r="AA359" s="6"/>
     </row>
     <row r="360">
-      <c r="A360" s="111"/>
+      <c r="A360" s="106"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
       <c r="D360" s="6"/>
@@ -17521,7 +17457,7 @@
       <c r="AA360" s="6"/>
     </row>
     <row r="361">
-      <c r="A361" s="111"/>
+      <c r="A361" s="106"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
       <c r="D361" s="6"/>
@@ -17550,7 +17486,7 @@
       <c r="AA361" s="6"/>
     </row>
     <row r="362">
-      <c r="A362" s="111"/>
+      <c r="A362" s="106"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
       <c r="D362" s="6"/>
@@ -17579,7 +17515,7 @@
       <c r="AA362" s="6"/>
     </row>
     <row r="363">
-      <c r="A363" s="111"/>
+      <c r="A363" s="106"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
@@ -17608,7 +17544,7 @@
       <c r="AA363" s="6"/>
     </row>
     <row r="364">
-      <c r="A364" s="111"/>
+      <c r="A364" s="106"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
       <c r="D364" s="6"/>
@@ -17637,7 +17573,7 @@
       <c r="AA364" s="6"/>
     </row>
     <row r="365">
-      <c r="A365" s="111"/>
+      <c r="A365" s="106"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
       <c r="D365" s="6"/>
@@ -17666,7 +17602,7 @@
       <c r="AA365" s="6"/>
     </row>
     <row r="366">
-      <c r="A366" s="111"/>
+      <c r="A366" s="106"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
@@ -17695,7 +17631,7 @@
       <c r="AA366" s="6"/>
     </row>
     <row r="367">
-      <c r="A367" s="111"/>
+      <c r="A367" s="106"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -17724,7 +17660,7 @@
       <c r="AA367" s="6"/>
     </row>
     <row r="368">
-      <c r="A368" s="111"/>
+      <c r="A368" s="106"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
@@ -17753,7 +17689,7 @@
       <c r="AA368" s="6"/>
     </row>
     <row r="369">
-      <c r="A369" s="111"/>
+      <c r="A369" s="106"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
       <c r="D369" s="6"/>
@@ -17782,7 +17718,7 @@
       <c r="AA369" s="6"/>
     </row>
     <row r="370">
-      <c r="A370" s="111"/>
+      <c r="A370" s="106"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
@@ -17811,7 +17747,7 @@
       <c r="AA370" s="6"/>
     </row>
     <row r="371">
-      <c r="A371" s="111"/>
+      <c r="A371" s="106"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
       <c r="D371" s="6"/>
@@ -17840,7 +17776,7 @@
       <c r="AA371" s="6"/>
     </row>
     <row r="372">
-      <c r="A372" s="111"/>
+      <c r="A372" s="106"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
       <c r="D372" s="6"/>
@@ -17869,7 +17805,7 @@
       <c r="AA372" s="6"/>
     </row>
     <row r="373">
-      <c r="A373" s="111"/>
+      <c r="A373" s="106"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
@@ -17898,7 +17834,7 @@
       <c r="AA373" s="6"/>
     </row>
     <row r="374">
-      <c r="A374" s="111"/>
+      <c r="A374" s="106"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
       <c r="D374" s="6"/>
@@ -17927,7 +17863,7 @@
       <c r="AA374" s="6"/>
     </row>
     <row r="375">
-      <c r="A375" s="111"/>
+      <c r="A375" s="106"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
       <c r="D375" s="6"/>
@@ -17956,7 +17892,7 @@
       <c r="AA375" s="6"/>
     </row>
     <row r="376">
-      <c r="A376" s="111"/>
+      <c r="A376" s="106"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
       <c r="D376" s="6"/>
@@ -17985,7 +17921,7 @@
       <c r="AA376" s="6"/>
     </row>
     <row r="377">
-      <c r="A377" s="111"/>
+      <c r="A377" s="106"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
@@ -18014,7 +17950,7 @@
       <c r="AA377" s="6"/>
     </row>
     <row r="378">
-      <c r="A378" s="111"/>
+      <c r="A378" s="106"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
       <c r="D378" s="6"/>
@@ -18043,7 +17979,7 @@
       <c r="AA378" s="6"/>
     </row>
     <row r="379">
-      <c r="A379" s="111"/>
+      <c r="A379" s="106"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
       <c r="D379" s="6"/>
@@ -18072,7 +18008,7 @@
       <c r="AA379" s="6"/>
     </row>
     <row r="380">
-      <c r="A380" s="111"/>
+      <c r="A380" s="106"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
       <c r="D380" s="6"/>
@@ -18101,7 +18037,7 @@
       <c r="AA380" s="6"/>
     </row>
     <row r="381">
-      <c r="A381" s="111"/>
+      <c r="A381" s="106"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
       <c r="D381" s="6"/>
@@ -18130,7 +18066,7 @@
       <c r="AA381" s="6"/>
     </row>
     <row r="382">
-      <c r="A382" s="111"/>
+      <c r="A382" s="106"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
       <c r="D382" s="6"/>
@@ -18159,7 +18095,7 @@
       <c r="AA382" s="6"/>
     </row>
     <row r="383">
-      <c r="A383" s="111"/>
+      <c r="A383" s="106"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
       <c r="D383" s="6"/>
@@ -18188,7 +18124,7 @@
       <c r="AA383" s="6"/>
     </row>
     <row r="384">
-      <c r="A384" s="111"/>
+      <c r="A384" s="106"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
       <c r="D384" s="6"/>
@@ -18217,7 +18153,7 @@
       <c r="AA384" s="6"/>
     </row>
     <row r="385">
-      <c r="A385" s="111"/>
+      <c r="A385" s="106"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
       <c r="D385" s="6"/>
@@ -18246,7 +18182,7 @@
       <c r="AA385" s="6"/>
     </row>
     <row r="386">
-      <c r="A386" s="111"/>
+      <c r="A386" s="106"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
       <c r="D386" s="6"/>
@@ -18275,7 +18211,7 @@
       <c r="AA386" s="6"/>
     </row>
     <row r="387">
-      <c r="A387" s="111"/>
+      <c r="A387" s="106"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -18304,7 +18240,7 @@
       <c r="AA387" s="6"/>
     </row>
     <row r="388">
-      <c r="A388" s="111"/>
+      <c r="A388" s="106"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -18333,7 +18269,7 @@
       <c r="AA388" s="6"/>
     </row>
     <row r="389">
-      <c r="A389" s="111"/>
+      <c r="A389" s="106"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -18362,7 +18298,7 @@
       <c r="AA389" s="6"/>
     </row>
     <row r="390">
-      <c r="A390" s="111"/>
+      <c r="A390" s="106"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
       <c r="D390" s="6"/>
@@ -18391,7 +18327,7 @@
       <c r="AA390" s="6"/>
     </row>
     <row r="391">
-      <c r="A391" s="111"/>
+      <c r="A391" s="106"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
       <c r="D391" s="6"/>
@@ -18420,7 +18356,7 @@
       <c r="AA391" s="6"/>
     </row>
     <row r="392">
-      <c r="A392" s="111"/>
+      <c r="A392" s="106"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
       <c r="D392" s="6"/>
@@ -18449,7 +18385,7 @@
       <c r="AA392" s="6"/>
     </row>
     <row r="393">
-      <c r="A393" s="111"/>
+      <c r="A393" s="106"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
       <c r="D393" s="6"/>
@@ -18478,7 +18414,7 @@
       <c r="AA393" s="6"/>
     </row>
     <row r="394">
-      <c r="A394" s="111"/>
+      <c r="A394" s="106"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
       <c r="D394" s="6"/>
@@ -18507,7 +18443,7 @@
       <c r="AA394" s="6"/>
     </row>
     <row r="395">
-      <c r="A395" s="111"/>
+      <c r="A395" s="106"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -18536,7 +18472,7 @@
       <c r="AA395" s="6"/>
     </row>
     <row r="396">
-      <c r="A396" s="111"/>
+      <c r="A396" s="106"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -18565,7 +18501,7 @@
       <c r="AA396" s="6"/>
     </row>
     <row r="397">
-      <c r="A397" s="111"/>
+      <c r="A397" s="106"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
@@ -18594,7 +18530,7 @@
       <c r="AA397" s="6"/>
     </row>
     <row r="398">
-      <c r="A398" s="111"/>
+      <c r="A398" s="106"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -18623,7 +18559,7 @@
       <c r="AA398" s="6"/>
     </row>
     <row r="399">
-      <c r="A399" s="111"/>
+      <c r="A399" s="106"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -18652,7 +18588,7 @@
       <c r="AA399" s="6"/>
     </row>
     <row r="400">
-      <c r="A400" s="111"/>
+      <c r="A400" s="106"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
@@ -18681,7 +18617,7 @@
       <c r="AA400" s="6"/>
     </row>
     <row r="401">
-      <c r="A401" s="111"/>
+      <c r="A401" s="106"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
@@ -18710,7 +18646,7 @@
       <c r="AA401" s="6"/>
     </row>
     <row r="402">
-      <c r="A402" s="111"/>
+      <c r="A402" s="106"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
@@ -18739,7 +18675,7 @@
       <c r="AA402" s="6"/>
     </row>
     <row r="403">
-      <c r="A403" s="111"/>
+      <c r="A403" s="106"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -18768,7 +18704,7 @@
       <c r="AA403" s="6"/>
     </row>
     <row r="404">
-      <c r="A404" s="111"/>
+      <c r="A404" s="106"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
       <c r="D404" s="6"/>
@@ -18797,7 +18733,7 @@
       <c r="AA404" s="6"/>
     </row>
     <row r="405">
-      <c r="A405" s="111"/>
+      <c r="A405" s="106"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
@@ -18826,7 +18762,7 @@
       <c r="AA405" s="6"/>
     </row>
     <row r="406">
-      <c r="A406" s="111"/>
+      <c r="A406" s="106"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
       <c r="D406" s="6"/>
@@ -18855,7 +18791,7 @@
       <c r="AA406" s="6"/>
     </row>
     <row r="407">
-      <c r="A407" s="111"/>
+      <c r="A407" s="106"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
@@ -18884,7 +18820,7 @@
       <c r="AA407" s="6"/>
     </row>
     <row r="408">
-      <c r="A408" s="111"/>
+      <c r="A408" s="106"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
       <c r="D408" s="6"/>
@@ -18913,7 +18849,7 @@
       <c r="AA408" s="6"/>
     </row>
     <row r="409">
-      <c r="A409" s="111"/>
+      <c r="A409" s="106"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
@@ -18942,7 +18878,7 @@
       <c r="AA409" s="6"/>
     </row>
     <row r="410">
-      <c r="A410" s="111"/>
+      <c r="A410" s="106"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -18971,7 +18907,7 @@
       <c r="AA410" s="6"/>
     </row>
     <row r="411">
-      <c r="A411" s="111"/>
+      <c r="A411" s="106"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
       <c r="D411" s="6"/>
@@ -19000,7 +18936,7 @@
       <c r="AA411" s="6"/>
     </row>
     <row r="412">
-      <c r="A412" s="111"/>
+      <c r="A412" s="106"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
       <c r="D412" s="6"/>
@@ -19029,7 +18965,7 @@
       <c r="AA412" s="6"/>
     </row>
     <row r="413">
-      <c r="A413" s="111"/>
+      <c r="A413" s="106"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
       <c r="D413" s="6"/>
@@ -19058,7 +18994,7 @@
       <c r="AA413" s="6"/>
     </row>
     <row r="414">
-      <c r="A414" s="111"/>
+      <c r="A414" s="106"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
       <c r="D414" s="6"/>
@@ -19087,7 +19023,7 @@
       <c r="AA414" s="6"/>
     </row>
     <row r="415">
-      <c r="A415" s="111"/>
+      <c r="A415" s="106"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
       <c r="D415" s="6"/>
@@ -19116,7 +19052,7 @@
       <c r="AA415" s="6"/>
     </row>
     <row r="416">
-      <c r="A416" s="111"/>
+      <c r="A416" s="106"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
@@ -19145,7 +19081,7 @@
       <c r="AA416" s="6"/>
     </row>
     <row r="417">
-      <c r="A417" s="111"/>
+      <c r="A417" s="106"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -19174,7 +19110,7 @@
       <c r="AA417" s="6"/>
     </row>
     <row r="418">
-      <c r="A418" s="111"/>
+      <c r="A418" s="106"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
@@ -19203,7 +19139,7 @@
       <c r="AA418" s="6"/>
     </row>
     <row r="419">
-      <c r="A419" s="111"/>
+      <c r="A419" s="106"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
@@ -19232,7 +19168,7 @@
       <c r="AA419" s="6"/>
     </row>
     <row r="420">
-      <c r="A420" s="111"/>
+      <c r="A420" s="106"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -19261,7 +19197,7 @@
       <c r="AA420" s="6"/>
     </row>
     <row r="421">
-      <c r="A421" s="111"/>
+      <c r="A421" s="106"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
@@ -19290,7 +19226,7 @@
       <c r="AA421" s="6"/>
     </row>
     <row r="422">
-      <c r="A422" s="111"/>
+      <c r="A422" s="106"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
@@ -19319,7 +19255,7 @@
       <c r="AA422" s="6"/>
     </row>
     <row r="423">
-      <c r="A423" s="111"/>
+      <c r="A423" s="106"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
@@ -19348,7 +19284,7 @@
       <c r="AA423" s="6"/>
     </row>
     <row r="424">
-      <c r="A424" s="111"/>
+      <c r="A424" s="106"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -19377,7 +19313,7 @@
       <c r="AA424" s="6"/>
     </row>
     <row r="425">
-      <c r="A425" s="111"/>
+      <c r="A425" s="106"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
@@ -19406,7 +19342,7 @@
       <c r="AA425" s="6"/>
     </row>
     <row r="426">
-      <c r="A426" s="111"/>
+      <c r="A426" s="106"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
@@ -19435,7 +19371,7 @@
       <c r="AA426" s="6"/>
     </row>
     <row r="427">
-      <c r="A427" s="111"/>
+      <c r="A427" s="106"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
@@ -19464,7 +19400,7 @@
       <c r="AA427" s="6"/>
     </row>
     <row r="428">
-      <c r="A428" s="111"/>
+      <c r="A428" s="106"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
@@ -19493,7 +19429,7 @@
       <c r="AA428" s="6"/>
     </row>
     <row r="429">
-      <c r="A429" s="111"/>
+      <c r="A429" s="106"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
@@ -19522,7 +19458,7 @@
       <c r="AA429" s="6"/>
     </row>
     <row r="430">
-      <c r="A430" s="111"/>
+      <c r="A430" s="106"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
@@ -19551,7 +19487,7 @@
       <c r="AA430" s="6"/>
     </row>
     <row r="431">
-      <c r="A431" s="111"/>
+      <c r="A431" s="106"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
@@ -19580,7 +19516,7 @@
       <c r="AA431" s="6"/>
     </row>
     <row r="432">
-      <c r="A432" s="111"/>
+      <c r="A432" s="106"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
@@ -19609,7 +19545,7 @@
       <c r="AA432" s="6"/>
     </row>
     <row r="433">
-      <c r="A433" s="111"/>
+      <c r="A433" s="106"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
@@ -19638,7 +19574,7 @@
       <c r="AA433" s="6"/>
     </row>
     <row r="434">
-      <c r="A434" s="111"/>
+      <c r="A434" s="106"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
@@ -19667,7 +19603,7 @@
       <c r="AA434" s="6"/>
     </row>
     <row r="435">
-      <c r="A435" s="111"/>
+      <c r="A435" s="106"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
@@ -19696,7 +19632,7 @@
       <c r="AA435" s="6"/>
     </row>
     <row r="436">
-      <c r="A436" s="111"/>
+      <c r="A436" s="106"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
@@ -19725,7 +19661,7 @@
       <c r="AA436" s="6"/>
     </row>
     <row r="437">
-      <c r="A437" s="111"/>
+      <c r="A437" s="106"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
@@ -19754,7 +19690,7 @@
       <c r="AA437" s="6"/>
     </row>
     <row r="438">
-      <c r="A438" s="111"/>
+      <c r="A438" s="106"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
       <c r="D438" s="6"/>
@@ -19783,7 +19719,7 @@
       <c r="AA438" s="6"/>
     </row>
     <row r="439">
-      <c r="A439" s="111"/>
+      <c r="A439" s="106"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
       <c r="D439" s="6"/>
@@ -19812,7 +19748,7 @@
       <c r="AA439" s="6"/>
     </row>
     <row r="440">
-      <c r="A440" s="111"/>
+      <c r="A440" s="106"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
       <c r="D440" s="6"/>
@@ -19841,7 +19777,7 @@
       <c r="AA440" s="6"/>
     </row>
     <row r="441">
-      <c r="A441" s="111"/>
+      <c r="A441" s="106"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
       <c r="D441" s="6"/>
@@ -19870,7 +19806,7 @@
       <c r="AA441" s="6"/>
     </row>
     <row r="442">
-      <c r="A442" s="111"/>
+      <c r="A442" s="106"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
       <c r="D442" s="6"/>
@@ -19899,7 +19835,7 @@
       <c r="AA442" s="6"/>
     </row>
     <row r="443">
-      <c r="A443" s="111"/>
+      <c r="A443" s="106"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
       <c r="D443" s="6"/>
@@ -19928,7 +19864,7 @@
       <c r="AA443" s="6"/>
     </row>
     <row r="444">
-      <c r="A444" s="111"/>
+      <c r="A444" s="106"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
       <c r="D444" s="6"/>
@@ -19957,7 +19893,7 @@
       <c r="AA444" s="6"/>
     </row>
     <row r="445">
-      <c r="A445" s="111"/>
+      <c r="A445" s="106"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
       <c r="D445" s="6"/>
@@ -19986,7 +19922,7 @@
       <c r="AA445" s="6"/>
     </row>
     <row r="446">
-      <c r="A446" s="111"/>
+      <c r="A446" s="106"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
       <c r="D446" s="6"/>
@@ -20015,7 +19951,7 @@
       <c r="AA446" s="6"/>
     </row>
     <row r="447">
-      <c r="A447" s="111"/>
+      <c r="A447" s="106"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
       <c r="D447" s="6"/>
@@ -20044,7 +19980,7 @@
       <c r="AA447" s="6"/>
     </row>
     <row r="448">
-      <c r="A448" s="111"/>
+      <c r="A448" s="106"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
       <c r="D448" s="6"/>
@@ -20073,7 +20009,7 @@
       <c r="AA448" s="6"/>
     </row>
     <row r="449">
-      <c r="A449" s="111"/>
+      <c r="A449" s="106"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
       <c r="D449" s="6"/>
@@ -20102,7 +20038,7 @@
       <c r="AA449" s="6"/>
     </row>
     <row r="450">
-      <c r="A450" s="111"/>
+      <c r="A450" s="106"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
       <c r="D450" s="6"/>
@@ -20131,7 +20067,7 @@
       <c r="AA450" s="6"/>
     </row>
     <row r="451">
-      <c r="A451" s="111"/>
+      <c r="A451" s="106"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6"/>
       <c r="D451" s="6"/>
@@ -20160,7 +20096,7 @@
       <c r="AA451" s="6"/>
     </row>
     <row r="452">
-      <c r="A452" s="111"/>
+      <c r="A452" s="106"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
@@ -20189,7 +20125,7 @@
       <c r="AA452" s="6"/>
     </row>
     <row r="453">
-      <c r="A453" s="111"/>
+      <c r="A453" s="106"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6"/>
       <c r="D453" s="6"/>
@@ -20218,7 +20154,7 @@
       <c r="AA453" s="6"/>
     </row>
     <row r="454">
-      <c r="A454" s="111"/>
+      <c r="A454" s="106"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -20247,7 +20183,7 @@
       <c r="AA454" s="6"/>
     </row>
     <row r="455">
-      <c r="A455" s="111"/>
+      <c r="A455" s="106"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6"/>
       <c r="D455" s="6"/>
@@ -20276,7 +20212,7 @@
       <c r="AA455" s="6"/>
     </row>
     <row r="456">
-      <c r="A456" s="111"/>
+      <c r="A456" s="106"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6"/>
       <c r="D456" s="6"/>
@@ -20305,7 +20241,7 @@
       <c r="AA456" s="6"/>
     </row>
     <row r="457">
-      <c r="A457" s="111"/>
+      <c r="A457" s="106"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6"/>
       <c r="D457" s="6"/>
@@ -20334,7 +20270,7 @@
       <c r="AA457" s="6"/>
     </row>
     <row r="458">
-      <c r="A458" s="111"/>
+      <c r="A458" s="106"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6"/>
       <c r="D458" s="6"/>
@@ -20363,7 +20299,7 @@
       <c r="AA458" s="6"/>
     </row>
     <row r="459">
-      <c r="A459" s="111"/>
+      <c r="A459" s="106"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6"/>
       <c r="D459" s="6"/>
@@ -20392,7 +20328,7 @@
       <c r="AA459" s="6"/>
     </row>
     <row r="460">
-      <c r="A460" s="111"/>
+      <c r="A460" s="106"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6"/>
       <c r="D460" s="6"/>
@@ -20421,7 +20357,7 @@
       <c r="AA460" s="6"/>
     </row>
     <row r="461">
-      <c r="A461" s="111"/>
+      <c r="A461" s="106"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6"/>
       <c r="D461" s="6"/>
@@ -20450,7 +20386,7 @@
       <c r="AA461" s="6"/>
     </row>
     <row r="462">
-      <c r="A462" s="111"/>
+      <c r="A462" s="106"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6"/>
       <c r="D462" s="6"/>
@@ -20479,7 +20415,7 @@
       <c r="AA462" s="6"/>
     </row>
     <row r="463">
-      <c r="A463" s="111"/>
+      <c r="A463" s="106"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6"/>
       <c r="D463" s="6"/>
@@ -20508,7 +20444,7 @@
       <c r="AA463" s="6"/>
     </row>
     <row r="464">
-      <c r="A464" s="111"/>
+      <c r="A464" s="106"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6"/>
       <c r="D464" s="6"/>
@@ -20537,7 +20473,7 @@
       <c r="AA464" s="6"/>
     </row>
     <row r="465">
-      <c r="A465" s="111"/>
+      <c r="A465" s="106"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6"/>
       <c r="D465" s="6"/>
@@ -20566,7 +20502,7 @@
       <c r="AA465" s="6"/>
     </row>
     <row r="466">
-      <c r="A466" s="111"/>
+      <c r="A466" s="106"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6"/>
       <c r="D466" s="6"/>
@@ -20595,7 +20531,7 @@
       <c r="AA466" s="6"/>
     </row>
     <row r="467">
-      <c r="A467" s="111"/>
+      <c r="A467" s="106"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6"/>
       <c r="D467" s="6"/>
@@ -20624,7 +20560,7 @@
       <c r="AA467" s="6"/>
     </row>
     <row r="468">
-      <c r="A468" s="111"/>
+      <c r="A468" s="106"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6"/>
       <c r="D468" s="6"/>
@@ -20653,7 +20589,7 @@
       <c r="AA468" s="6"/>
     </row>
     <row r="469">
-      <c r="A469" s="111"/>
+      <c r="A469" s="106"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6"/>
       <c r="D469" s="6"/>
@@ -20682,7 +20618,7 @@
       <c r="AA469" s="6"/>
     </row>
     <row r="470">
-      <c r="A470" s="111"/>
+      <c r="A470" s="106"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6"/>
       <c r="D470" s="6"/>
@@ -20711,7 +20647,7 @@
       <c r="AA470" s="6"/>
     </row>
     <row r="471">
-      <c r="A471" s="111"/>
+      <c r="A471" s="106"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -20740,7 +20676,7 @@
       <c r="AA471" s="6"/>
     </row>
     <row r="472">
-      <c r="A472" s="111"/>
+      <c r="A472" s="106"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6"/>
       <c r="D472" s="6"/>
@@ -20769,7 +20705,7 @@
       <c r="AA472" s="6"/>
     </row>
     <row r="473">
-      <c r="A473" s="111"/>
+      <c r="A473" s="106"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6"/>
       <c r="D473" s="6"/>
@@ -20798,7 +20734,7 @@
       <c r="AA473" s="6"/>
     </row>
     <row r="474">
-      <c r="A474" s="111"/>
+      <c r="A474" s="106"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6"/>
       <c r="D474" s="6"/>
@@ -20827,7 +20763,7 @@
       <c r="AA474" s="6"/>
     </row>
     <row r="475">
-      <c r="A475" s="111"/>
+      <c r="A475" s="106"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6"/>
       <c r="D475" s="6"/>
@@ -20856,7 +20792,7 @@
       <c r="AA475" s="6"/>
     </row>
     <row r="476">
-      <c r="A476" s="111"/>
+      <c r="A476" s="106"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6"/>
       <c r="D476" s="6"/>
@@ -20885,7 +20821,7 @@
       <c r="AA476" s="6"/>
     </row>
     <row r="477">
-      <c r="A477" s="111"/>
+      <c r="A477" s="106"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6"/>
       <c r="D477" s="6"/>
@@ -20914,7 +20850,7 @@
       <c r="AA477" s="6"/>
     </row>
     <row r="478">
-      <c r="A478" s="111"/>
+      <c r="A478" s="106"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6"/>
       <c r="D478" s="6"/>
@@ -20943,7 +20879,7 @@
       <c r="AA478" s="6"/>
     </row>
     <row r="479">
-      <c r="A479" s="111"/>
+      <c r="A479" s="106"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6"/>
       <c r="D479" s="6"/>
@@ -20972,7 +20908,7 @@
       <c r="AA479" s="6"/>
     </row>
     <row r="480">
-      <c r="A480" s="111"/>
+      <c r="A480" s="106"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6"/>
       <c r="D480" s="6"/>
@@ -21001,7 +20937,7 @@
       <c r="AA480" s="6"/>
     </row>
     <row r="481">
-      <c r="A481" s="111"/>
+      <c r="A481" s="106"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6"/>
       <c r="D481" s="6"/>
@@ -21030,7 +20966,7 @@
       <c r="AA481" s="6"/>
     </row>
     <row r="482">
-      <c r="A482" s="111"/>
+      <c r="A482" s="106"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6"/>
       <c r="D482" s="6"/>
@@ -21059,7 +20995,7 @@
       <c r="AA482" s="6"/>
     </row>
     <row r="483">
-      <c r="A483" s="111"/>
+      <c r="A483" s="106"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6"/>
       <c r="D483" s="6"/>
@@ -21088,7 +21024,7 @@
       <c r="AA483" s="6"/>
     </row>
     <row r="484">
-      <c r="A484" s="111"/>
+      <c r="A484" s="106"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6"/>
       <c r="D484" s="6"/>
@@ -21117,7 +21053,7 @@
       <c r="AA484" s="6"/>
     </row>
     <row r="485">
-      <c r="A485" s="111"/>
+      <c r="A485" s="106"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6"/>
       <c r="D485" s="6"/>
@@ -21146,7 +21082,7 @@
       <c r="AA485" s="6"/>
     </row>
     <row r="486">
-      <c r="A486" s="111"/>
+      <c r="A486" s="106"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
       <c r="D486" s="6"/>
@@ -21175,7 +21111,7 @@
       <c r="AA486" s="6"/>
     </row>
     <row r="487">
-      <c r="A487" s="111"/>
+      <c r="A487" s="106"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
       <c r="D487" s="6"/>
@@ -21204,7 +21140,7 @@
       <c r="AA487" s="6"/>
     </row>
     <row r="488">
-      <c r="A488" s="111"/>
+      <c r="A488" s="106"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
       <c r="D488" s="6"/>
@@ -21233,7 +21169,7 @@
       <c r="AA488" s="6"/>
     </row>
     <row r="489">
-      <c r="A489" s="111"/>
+      <c r="A489" s="106"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
       <c r="D489" s="6"/>
@@ -21262,7 +21198,7 @@
       <c r="AA489" s="6"/>
     </row>
     <row r="490">
-      <c r="A490" s="111"/>
+      <c r="A490" s="106"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
       <c r="D490" s="6"/>
@@ -21291,7 +21227,7 @@
       <c r="AA490" s="6"/>
     </row>
     <row r="491">
-      <c r="A491" s="111"/>
+      <c r="A491" s="106"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
       <c r="D491" s="6"/>
@@ -21320,7 +21256,7 @@
       <c r="AA491" s="6"/>
     </row>
     <row r="492">
-      <c r="A492" s="111"/>
+      <c r="A492" s="106"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
       <c r="D492" s="6"/>
@@ -21349,7 +21285,7 @@
       <c r="AA492" s="6"/>
     </row>
     <row r="493">
-      <c r="A493" s="111"/>
+      <c r="A493" s="106"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
@@ -21378,7 +21314,7 @@
       <c r="AA493" s="6"/>
     </row>
     <row r="494">
-      <c r="A494" s="111"/>
+      <c r="A494" s="106"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
       <c r="D494" s="6"/>
@@ -21407,7 +21343,7 @@
       <c r="AA494" s="6"/>
     </row>
     <row r="495">
-      <c r="A495" s="111"/>
+      <c r="A495" s="106"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
       <c r="D495" s="6"/>
@@ -21436,7 +21372,7 @@
       <c r="AA495" s="6"/>
     </row>
     <row r="496">
-      <c r="A496" s="111"/>
+      <c r="A496" s="106"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
       <c r="D496" s="6"/>
@@ -21465,7 +21401,7 @@
       <c r="AA496" s="6"/>
     </row>
     <row r="497">
-      <c r="A497" s="111"/>
+      <c r="A497" s="106"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
       <c r="D497" s="6"/>
@@ -21494,7 +21430,7 @@
       <c r="AA497" s="6"/>
     </row>
     <row r="498">
-      <c r="A498" s="111"/>
+      <c r="A498" s="106"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
       <c r="D498" s="6"/>
@@ -21523,7 +21459,7 @@
       <c r="AA498" s="6"/>
     </row>
     <row r="499">
-      <c r="A499" s="111"/>
+      <c r="A499" s="106"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
       <c r="D499" s="6"/>
@@ -21552,7 +21488,7 @@
       <c r="AA499" s="6"/>
     </row>
     <row r="500">
-      <c r="A500" s="111"/>
+      <c r="A500" s="106"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
       <c r="D500" s="6"/>
@@ -21581,7 +21517,7 @@
       <c r="AA500" s="6"/>
     </row>
     <row r="501">
-      <c r="A501" s="111"/>
+      <c r="A501" s="106"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
       <c r="D501" s="6"/>
@@ -21610,7 +21546,7 @@
       <c r="AA501" s="6"/>
     </row>
     <row r="502">
-      <c r="A502" s="111"/>
+      <c r="A502" s="106"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
       <c r="D502" s="6"/>
@@ -21639,7 +21575,7 @@
       <c r="AA502" s="6"/>
     </row>
     <row r="503">
-      <c r="A503" s="111"/>
+      <c r="A503" s="106"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
       <c r="D503" s="6"/>
@@ -21668,7 +21604,7 @@
       <c r="AA503" s="6"/>
     </row>
     <row r="504">
-      <c r="A504" s="111"/>
+      <c r="A504" s="106"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
       <c r="D504" s="6"/>
@@ -21697,7 +21633,7 @@
       <c r="AA504" s="6"/>
     </row>
     <row r="505">
-      <c r="A505" s="111"/>
+      <c r="A505" s="106"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
       <c r="D505" s="6"/>
@@ -21726,7 +21662,7 @@
       <c r="AA505" s="6"/>
     </row>
     <row r="506">
-      <c r="A506" s="111"/>
+      <c r="A506" s="106"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
       <c r="D506" s="6"/>
@@ -21755,7 +21691,7 @@
       <c r="AA506" s="6"/>
     </row>
     <row r="507">
-      <c r="A507" s="111"/>
+      <c r="A507" s="106"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
       <c r="D507" s="6"/>
@@ -21784,7 +21720,7 @@
       <c r="AA507" s="6"/>
     </row>
     <row r="508">
-      <c r="A508" s="111"/>
+      <c r="A508" s="106"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
       <c r="D508" s="6"/>
@@ -21813,7 +21749,7 @@
       <c r="AA508" s="6"/>
     </row>
     <row r="509">
-      <c r="A509" s="111"/>
+      <c r="A509" s="106"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
       <c r="D509" s="6"/>
@@ -21842,7 +21778,7 @@
       <c r="AA509" s="6"/>
     </row>
     <row r="510">
-      <c r="A510" s="111"/>
+      <c r="A510" s="106"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
       <c r="D510" s="6"/>
@@ -21871,7 +21807,7 @@
       <c r="AA510" s="6"/>
     </row>
     <row r="511">
-      <c r="A511" s="111"/>
+      <c r="A511" s="106"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
       <c r="D511" s="6"/>
@@ -21900,7 +21836,7 @@
       <c r="AA511" s="6"/>
     </row>
     <row r="512">
-      <c r="A512" s="111"/>
+      <c r="A512" s="106"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
       <c r="D512" s="6"/>
@@ -21929,7 +21865,7 @@
       <c r="AA512" s="6"/>
     </row>
     <row r="513">
-      <c r="A513" s="111"/>
+      <c r="A513" s="106"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
       <c r="D513" s="6"/>
@@ -21958,7 +21894,7 @@
       <c r="AA513" s="6"/>
     </row>
     <row r="514">
-      <c r="A514" s="111"/>
+      <c r="A514" s="106"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
       <c r="D514" s="6"/>
@@ -21987,7 +21923,7 @@
       <c r="AA514" s="6"/>
     </row>
     <row r="515">
-      <c r="A515" s="111"/>
+      <c r="A515" s="106"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
       <c r="D515" s="6"/>
@@ -22016,7 +21952,7 @@
       <c r="AA515" s="6"/>
     </row>
     <row r="516">
-      <c r="A516" s="111"/>
+      <c r="A516" s="106"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
       <c r="D516" s="6"/>
@@ -22045,7 +21981,7 @@
       <c r="AA516" s="6"/>
     </row>
     <row r="517">
-      <c r="A517" s="111"/>
+      <c r="A517" s="106"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
       <c r="D517" s="6"/>
@@ -22074,7 +22010,7 @@
       <c r="AA517" s="6"/>
     </row>
     <row r="518">
-      <c r="A518" s="111"/>
+      <c r="A518" s="106"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
       <c r="D518" s="6"/>
@@ -22103,7 +22039,7 @@
       <c r="AA518" s="6"/>
     </row>
     <row r="519">
-      <c r="A519" s="111"/>
+      <c r="A519" s="106"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
       <c r="D519" s="6"/>
@@ -22132,7 +22068,7 @@
       <c r="AA519" s="6"/>
     </row>
     <row r="520">
-      <c r="A520" s="111"/>
+      <c r="A520" s="106"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
       <c r="D520" s="6"/>
@@ -22161,7 +22097,7 @@
       <c r="AA520" s="6"/>
     </row>
     <row r="521">
-      <c r="A521" s="111"/>
+      <c r="A521" s="106"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
       <c r="D521" s="6"/>
@@ -22190,7 +22126,7 @@
       <c r="AA521" s="6"/>
     </row>
     <row r="522">
-      <c r="A522" s="111"/>
+      <c r="A522" s="106"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
       <c r="D522" s="6"/>
@@ -22219,7 +22155,7 @@
       <c r="AA522" s="6"/>
     </row>
     <row r="523">
-      <c r="A523" s="111"/>
+      <c r="A523" s="106"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
       <c r="D523" s="6"/>
@@ -22248,7 +22184,7 @@
       <c r="AA523" s="6"/>
     </row>
     <row r="524">
-      <c r="A524" s="111"/>
+      <c r="A524" s="106"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
       <c r="D524" s="6"/>
@@ -22277,7 +22213,7 @@
       <c r="AA524" s="6"/>
     </row>
     <row r="525">
-      <c r="A525" s="111"/>
+      <c r="A525" s="106"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
       <c r="D525" s="6"/>
@@ -22306,7 +22242,7 @@
       <c r="AA525" s="6"/>
     </row>
     <row r="526">
-      <c r="A526" s="111"/>
+      <c r="A526" s="106"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
       <c r="D526" s="6"/>
@@ -22335,7 +22271,7 @@
       <c r="AA526" s="6"/>
     </row>
     <row r="527">
-      <c r="A527" s="111"/>
+      <c r="A527" s="106"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
       <c r="D527" s="6"/>
@@ -22364,7 +22300,7 @@
       <c r="AA527" s="6"/>
     </row>
     <row r="528">
-      <c r="A528" s="111"/>
+      <c r="A528" s="106"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
       <c r="D528" s="6"/>
@@ -22393,7 +22329,7 @@
       <c r="AA528" s="6"/>
     </row>
     <row r="529">
-      <c r="A529" s="111"/>
+      <c r="A529" s="106"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
       <c r="D529" s="6"/>
@@ -22422,7 +22358,7 @@
       <c r="AA529" s="6"/>
     </row>
     <row r="530">
-      <c r="A530" s="111"/>
+      <c r="A530" s="106"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
       <c r="D530" s="6"/>
@@ -22451,7 +22387,7 @@
       <c r="AA530" s="6"/>
     </row>
     <row r="531">
-      <c r="A531" s="111"/>
+      <c r="A531" s="106"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
       <c r="D531" s="6"/>
@@ -22480,7 +22416,7 @@
       <c r="AA531" s="6"/>
     </row>
     <row r="532">
-      <c r="A532" s="111"/>
+      <c r="A532" s="106"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
       <c r="D532" s="6"/>
@@ -22509,7 +22445,7 @@
       <c r="AA532" s="6"/>
     </row>
     <row r="533">
-      <c r="A533" s="111"/>
+      <c r="A533" s="106"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
       <c r="D533" s="6"/>
@@ -22538,7 +22474,7 @@
       <c r="AA533" s="6"/>
     </row>
     <row r="534">
-      <c r="A534" s="111"/>
+      <c r="A534" s="106"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
       <c r="D534" s="6"/>
@@ -22567,7 +22503,7 @@
       <c r="AA534" s="6"/>
     </row>
     <row r="535">
-      <c r="A535" s="111"/>
+      <c r="A535" s="106"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
       <c r="D535" s="6"/>
@@ -22596,7 +22532,7 @@
       <c r="AA535" s="6"/>
     </row>
     <row r="536">
-      <c r="A536" s="111"/>
+      <c r="A536" s="106"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
       <c r="D536" s="6"/>
@@ -22625,7 +22561,7 @@
       <c r="AA536" s="6"/>
     </row>
     <row r="537">
-      <c r="A537" s="111"/>
+      <c r="A537" s="106"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
       <c r="D537" s="6"/>
@@ -22654,7 +22590,7 @@
       <c r="AA537" s="6"/>
     </row>
     <row r="538">
-      <c r="A538" s="111"/>
+      <c r="A538" s="106"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
       <c r="D538" s="6"/>
@@ -22683,7 +22619,7 @@
       <c r="AA538" s="6"/>
     </row>
     <row r="539">
-      <c r="A539" s="111"/>
+      <c r="A539" s="106"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
       <c r="D539" s="6"/>
@@ -22712,7 +22648,7 @@
       <c r="AA539" s="6"/>
     </row>
     <row r="540">
-      <c r="A540" s="111"/>
+      <c r="A540" s="106"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
       <c r="D540" s="6"/>
@@ -22741,7 +22677,7 @@
       <c r="AA540" s="6"/>
     </row>
     <row r="541">
-      <c r="A541" s="111"/>
+      <c r="A541" s="106"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
       <c r="D541" s="6"/>
@@ -22770,7 +22706,7 @@
       <c r="AA541" s="6"/>
     </row>
     <row r="542">
-      <c r="A542" s="111"/>
+      <c r="A542" s="106"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
       <c r="D542" s="6"/>
@@ -22799,7 +22735,7 @@
       <c r="AA542" s="6"/>
     </row>
     <row r="543">
-      <c r="A543" s="111"/>
+      <c r="A543" s="106"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
       <c r="D543" s="6"/>
@@ -22828,7 +22764,7 @@
       <c r="AA543" s="6"/>
     </row>
     <row r="544">
-      <c r="A544" s="111"/>
+      <c r="A544" s="106"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
       <c r="D544" s="6"/>
@@ -22857,7 +22793,7 @@
       <c r="AA544" s="6"/>
     </row>
     <row r="545">
-      <c r="A545" s="111"/>
+      <c r="A545" s="106"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
       <c r="D545" s="6"/>
@@ -22886,7 +22822,7 @@
       <c r="AA545" s="6"/>
     </row>
     <row r="546">
-      <c r="A546" s="111"/>
+      <c r="A546" s="106"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
       <c r="D546" s="6"/>
@@ -22915,7 +22851,7 @@
       <c r="AA546" s="6"/>
     </row>
     <row r="547">
-      <c r="A547" s="111"/>
+      <c r="A547" s="106"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
       <c r="D547" s="6"/>
@@ -22944,7 +22880,7 @@
       <c r="AA547" s="6"/>
     </row>
     <row r="548">
-      <c r="A548" s="111"/>
+      <c r="A548" s="106"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
       <c r="D548" s="6"/>
@@ -22973,7 +22909,7 @@
       <c r="AA548" s="6"/>
     </row>
     <row r="549">
-      <c r="A549" s="111"/>
+      <c r="A549" s="106"/>
       <c r="B549" s="6"/>
       <c r="C549" s="6"/>
       <c r="D549" s="6"/>
@@ -23002,7 +22938,7 @@
       <c r="AA549" s="6"/>
     </row>
     <row r="550">
-      <c r="A550" s="111"/>
+      <c r="A550" s="106"/>
       <c r="B550" s="6"/>
       <c r="C550" s="6"/>
       <c r="D550" s="6"/>
@@ -23031,7 +22967,7 @@
       <c r="AA550" s="6"/>
     </row>
     <row r="551">
-      <c r="A551" s="111"/>
+      <c r="A551" s="106"/>
       <c r="B551" s="6"/>
       <c r="C551" s="6"/>
       <c r="D551" s="6"/>
@@ -23060,7 +22996,7 @@
       <c r="AA551" s="6"/>
     </row>
     <row r="552">
-      <c r="A552" s="111"/>
+      <c r="A552" s="106"/>
       <c r="B552" s="6"/>
       <c r="C552" s="6"/>
       <c r="D552" s="6"/>
@@ -23089,7 +23025,7 @@
       <c r="AA552" s="6"/>
     </row>
     <row r="553">
-      <c r="A553" s="111"/>
+      <c r="A553" s="106"/>
       <c r="B553" s="6"/>
       <c r="C553" s="6"/>
       <c r="D553" s="6"/>
@@ -23118,7 +23054,7 @@
       <c r="AA553" s="6"/>
     </row>
     <row r="554">
-      <c r="A554" s="111"/>
+      <c r="A554" s="106"/>
       <c r="B554" s="6"/>
       <c r="C554" s="6"/>
       <c r="D554" s="6"/>
@@ -23147,7 +23083,7 @@
       <c r="AA554" s="6"/>
     </row>
     <row r="555">
-      <c r="A555" s="111"/>
+      <c r="A555" s="106"/>
       <c r="B555" s="6"/>
       <c r="C555" s="6"/>
       <c r="D555" s="6"/>
@@ -23176,7 +23112,7 @@
       <c r="AA555" s="6"/>
     </row>
     <row r="556">
-      <c r="A556" s="111"/>
+      <c r="A556" s="106"/>
       <c r="B556" s="6"/>
       <c r="C556" s="6"/>
       <c r="D556" s="6"/>
@@ -23205,7 +23141,7 @@
       <c r="AA556" s="6"/>
     </row>
     <row r="557">
-      <c r="A557" s="111"/>
+      <c r="A557" s="106"/>
       <c r="B557" s="6"/>
       <c r="C557" s="6"/>
       <c r="D557" s="6"/>
@@ -23234,7 +23170,7 @@
       <c r="AA557" s="6"/>
     </row>
     <row r="558">
-      <c r="A558" s="111"/>
+      <c r="A558" s="106"/>
       <c r="B558" s="6"/>
       <c r="C558" s="6"/>
       <c r="D558" s="6"/>
@@ -23263,7 +23199,7 @@
       <c r="AA558" s="6"/>
     </row>
     <row r="559">
-      <c r="A559" s="111"/>
+      <c r="A559" s="106"/>
       <c r="B559" s="6"/>
       <c r="C559" s="6"/>
       <c r="D559" s="6"/>
@@ -23292,7 +23228,7 @@
       <c r="AA559" s="6"/>
     </row>
     <row r="560">
-      <c r="A560" s="111"/>
+      <c r="A560" s="106"/>
       <c r="B560" s="6"/>
       <c r="C560" s="6"/>
       <c r="D560" s="6"/>
@@ -23321,7 +23257,7 @@
       <c r="AA560" s="6"/>
     </row>
     <row r="561">
-      <c r="A561" s="111"/>
+      <c r="A561" s="106"/>
       <c r="B561" s="6"/>
       <c r="C561" s="6"/>
       <c r="D561" s="6"/>
@@ -23350,7 +23286,7 @@
       <c r="AA561" s="6"/>
     </row>
     <row r="562">
-      <c r="A562" s="111"/>
+      <c r="A562" s="106"/>
       <c r="B562" s="6"/>
       <c r="C562" s="6"/>
       <c r="D562" s="6"/>
@@ -23379,7 +23315,7 @@
       <c r="AA562" s="6"/>
     </row>
     <row r="563">
-      <c r="A563" s="111"/>
+      <c r="A563" s="106"/>
       <c r="B563" s="6"/>
       <c r="C563" s="6"/>
       <c r="D563" s="6"/>
@@ -23408,7 +23344,7 @@
       <c r="AA563" s="6"/>
     </row>
     <row r="564">
-      <c r="A564" s="111"/>
+      <c r="A564" s="106"/>
       <c r="B564" s="6"/>
       <c r="C564" s="6"/>
       <c r="D564" s="6"/>
@@ -23437,7 +23373,7 @@
       <c r="AA564" s="6"/>
     </row>
     <row r="565">
-      <c r="A565" s="111"/>
+      <c r="A565" s="106"/>
       <c r="B565" s="6"/>
       <c r="C565" s="6"/>
       <c r="D565" s="6"/>
@@ -23466,7 +23402,7 @@
       <c r="AA565" s="6"/>
     </row>
     <row r="566">
-      <c r="A566" s="111"/>
+      <c r="A566" s="106"/>
       <c r="B566" s="6"/>
       <c r="C566" s="6"/>
       <c r="D566" s="6"/>
@@ -23495,7 +23431,7 @@
       <c r="AA566" s="6"/>
     </row>
     <row r="567">
-      <c r="A567" s="111"/>
+      <c r="A567" s="106"/>
       <c r="B567" s="6"/>
       <c r="C567" s="6"/>
       <c r="D567" s="6"/>
@@ -23524,7 +23460,7 @@
       <c r="AA567" s="6"/>
     </row>
     <row r="568">
-      <c r="A568" s="111"/>
+      <c r="A568" s="106"/>
       <c r="B568" s="6"/>
       <c r="C568" s="6"/>
       <c r="D568" s="6"/>
@@ -23553,7 +23489,7 @@
       <c r="AA568" s="6"/>
     </row>
     <row r="569">
-      <c r="A569" s="111"/>
+      <c r="A569" s="106"/>
       <c r="B569" s="6"/>
       <c r="C569" s="6"/>
       <c r="D569" s="6"/>
@@ -23582,7 +23518,7 @@
       <c r="AA569" s="6"/>
     </row>
     <row r="570">
-      <c r="A570" s="111"/>
+      <c r="A570" s="106"/>
       <c r="B570" s="6"/>
       <c r="C570" s="6"/>
       <c r="D570" s="6"/>
@@ -23611,7 +23547,7 @@
       <c r="AA570" s="6"/>
     </row>
     <row r="571">
-      <c r="A571" s="111"/>
+      <c r="A571" s="106"/>
       <c r="B571" s="6"/>
       <c r="C571" s="6"/>
       <c r="D571" s="6"/>
@@ -23640,7 +23576,7 @@
       <c r="AA571" s="6"/>
     </row>
     <row r="572">
-      <c r="A572" s="111"/>
+      <c r="A572" s="106"/>
       <c r="B572" s="6"/>
       <c r="C572" s="6"/>
       <c r="D572" s="6"/>
@@ -23669,7 +23605,7 @@
       <c r="AA572" s="6"/>
     </row>
     <row r="573">
-      <c r="A573" s="111"/>
+      <c r="A573" s="106"/>
       <c r="B573" s="6"/>
       <c r="C573" s="6"/>
       <c r="D573" s="6"/>
@@ -23698,7 +23634,7 @@
       <c r="AA573" s="6"/>
     </row>
     <row r="574">
-      <c r="A574" s="111"/>
+      <c r="A574" s="106"/>
       <c r="B574" s="6"/>
       <c r="C574" s="6"/>
       <c r="D574" s="6"/>
@@ -23727,7 +23663,7 @@
       <c r="AA574" s="6"/>
     </row>
     <row r="575">
-      <c r="A575" s="111"/>
+      <c r="A575" s="106"/>
       <c r="B575" s="6"/>
       <c r="C575" s="6"/>
       <c r="D575" s="6"/>
@@ -23756,7 +23692,7 @@
       <c r="AA575" s="6"/>
     </row>
     <row r="576">
-      <c r="A576" s="111"/>
+      <c r="A576" s="106"/>
       <c r="B576" s="6"/>
       <c r="C576" s="6"/>
       <c r="D576" s="6"/>
@@ -23785,7 +23721,7 @@
       <c r="AA576" s="6"/>
     </row>
     <row r="577">
-      <c r="A577" s="111"/>
+      <c r="A577" s="106"/>
       <c r="B577" s="6"/>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -23814,7 +23750,7 @@
       <c r="AA577" s="6"/>
     </row>
     <row r="578">
-      <c r="A578" s="111"/>
+      <c r="A578" s="106"/>
       <c r="B578" s="6"/>
       <c r="C578" s="6"/>
       <c r="D578" s="6"/>
@@ -23843,7 +23779,7 @@
       <c r="AA578" s="6"/>
     </row>
     <row r="579">
-      <c r="A579" s="111"/>
+      <c r="A579" s="106"/>
       <c r="B579" s="6"/>
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
@@ -23872,7 +23808,7 @@
       <c r="AA579" s="6"/>
     </row>
     <row r="580">
-      <c r="A580" s="111"/>
+      <c r="A580" s="106"/>
       <c r="B580" s="6"/>
       <c r="C580" s="6"/>
       <c r="D580" s="6"/>
@@ -23901,7 +23837,7 @@
       <c r="AA580" s="6"/>
     </row>
     <row r="581">
-      <c r="A581" s="111"/>
+      <c r="A581" s="106"/>
       <c r="B581" s="6"/>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -23930,7 +23866,7 @@
       <c r="AA581" s="6"/>
     </row>
     <row r="582">
-      <c r="A582" s="111"/>
+      <c r="A582" s="106"/>
       <c r="B582" s="6"/>
       <c r="C582" s="6"/>
       <c r="D582" s="6"/>
@@ -23959,7 +23895,7 @@
       <c r="AA582" s="6"/>
     </row>
     <row r="583">
-      <c r="A583" s="111"/>
+      <c r="A583" s="106"/>
       <c r="B583" s="6"/>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -23988,7 +23924,7 @@
       <c r="AA583" s="6"/>
     </row>
     <row r="584">
-      <c r="A584" s="111"/>
+      <c r="A584" s="106"/>
       <c r="B584" s="6"/>
       <c r="C584" s="6"/>
       <c r="D584" s="6"/>
@@ -24017,7 +23953,7 @@
       <c r="AA584" s="6"/>
     </row>
     <row r="585">
-      <c r="A585" s="111"/>
+      <c r="A585" s="106"/>
       <c r="B585" s="6"/>
       <c r="C585" s="6"/>
       <c r="D585" s="6"/>
@@ -24046,7 +23982,7 @@
       <c r="AA585" s="6"/>
     </row>
     <row r="586">
-      <c r="A586" s="111"/>
+      <c r="A586" s="106"/>
       <c r="B586" s="6"/>
       <c r="C586" s="6"/>
       <c r="D586" s="6"/>
@@ -24075,7 +24011,7 @@
       <c r="AA586" s="6"/>
     </row>
     <row r="587">
-      <c r="A587" s="111"/>
+      <c r="A587" s="106"/>
       <c r="B587" s="6"/>
       <c r="C587" s="6"/>
       <c r="D587" s="6"/>
@@ -24104,7 +24040,7 @@
       <c r="AA587" s="6"/>
     </row>
     <row r="588">
-      <c r="A588" s="111"/>
+      <c r="A588" s="106"/>
       <c r="B588" s="6"/>
       <c r="C588" s="6"/>
       <c r="D588" s="6"/>
@@ -24133,7 +24069,7 @@
       <c r="AA588" s="6"/>
     </row>
     <row r="589">
-      <c r="A589" s="111"/>
+      <c r="A589" s="106"/>
       <c r="B589" s="6"/>
       <c r="C589" s="6"/>
       <c r="D589" s="6"/>
@@ -24162,7 +24098,7 @@
       <c r="AA589" s="6"/>
     </row>
     <row r="590">
-      <c r="A590" s="111"/>
+      <c r="A590" s="106"/>
       <c r="B590" s="6"/>
       <c r="C590" s="6"/>
       <c r="D590" s="6"/>
@@ -24191,7 +24127,7 @@
       <c r="AA590" s="6"/>
     </row>
     <row r="591">
-      <c r="A591" s="111"/>
+      <c r="A591" s="106"/>
       <c r="B591" s="6"/>
       <c r="C591" s="6"/>
       <c r="D591" s="6"/>
@@ -24220,7 +24156,7 @@
       <c r="AA591" s="6"/>
     </row>
     <row r="592">
-      <c r="A592" s="111"/>
+      <c r="A592" s="106"/>
       <c r="B592" s="6"/>
       <c r="C592" s="6"/>
       <c r="D592" s="6"/>
@@ -24249,7 +24185,7 @@
       <c r="AA592" s="6"/>
     </row>
     <row r="593">
-      <c r="A593" s="111"/>
+      <c r="A593" s="106"/>
       <c r="B593" s="6"/>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -24278,7 +24214,7 @@
       <c r="AA593" s="6"/>
     </row>
     <row r="594">
-      <c r="A594" s="111"/>
+      <c r="A594" s="106"/>
       <c r="B594" s="6"/>
       <c r="C594" s="6"/>
       <c r="D594" s="6"/>
@@ -24307,7 +24243,7 @@
       <c r="AA594" s="6"/>
     </row>
     <row r="595">
-      <c r="A595" s="111"/>
+      <c r="A595" s="106"/>
       <c r="B595" s="6"/>
       <c r="C595" s="6"/>
       <c r="D595" s="6"/>
@@ -24336,7 +24272,7 @@
       <c r="AA595" s="6"/>
     </row>
     <row r="596">
-      <c r="A596" s="111"/>
+      <c r="A596" s="106"/>
       <c r="B596" s="6"/>
       <c r="C596" s="6"/>
       <c r="D596" s="6"/>
@@ -24365,7 +24301,7 @@
       <c r="AA596" s="6"/>
     </row>
     <row r="597">
-      <c r="A597" s="111"/>
+      <c r="A597" s="106"/>
       <c r="B597" s="6"/>
       <c r="C597" s="6"/>
       <c r="D597" s="6"/>
@@ -24394,7 +24330,7 @@
       <c r="AA597" s="6"/>
     </row>
     <row r="598">
-      <c r="A598" s="111"/>
+      <c r="A598" s="106"/>
       <c r="B598" s="6"/>
       <c r="C598" s="6"/>
       <c r="D598" s="6"/>
@@ -24423,7 +24359,7 @@
       <c r="AA598" s="6"/>
     </row>
     <row r="599">
-      <c r="A599" s="111"/>
+      <c r="A599" s="106"/>
       <c r="B599" s="6"/>
       <c r="C599" s="6"/>
       <c r="D599" s="6"/>
@@ -24452,7 +24388,7 @@
       <c r="AA599" s="6"/>
     </row>
     <row r="600">
-      <c r="A600" s="111"/>
+      <c r="A600" s="106"/>
       <c r="B600" s="6"/>
       <c r="C600" s="6"/>
       <c r="D600" s="6"/>
@@ -24481,7 +24417,7 @@
       <c r="AA600" s="6"/>
     </row>
     <row r="601">
-      <c r="A601" s="111"/>
+      <c r="A601" s="106"/>
       <c r="B601" s="6"/>
       <c r="C601" s="6"/>
       <c r="D601" s="6"/>
@@ -24510,7 +24446,7 @@
       <c r="AA601" s="6"/>
     </row>
     <row r="602">
-      <c r="A602" s="111"/>
+      <c r="A602" s="106"/>
       <c r="B602" s="6"/>
       <c r="C602" s="6"/>
       <c r="D602" s="6"/>
@@ -24539,7 +24475,7 @@
       <c r="AA602" s="6"/>
     </row>
     <row r="603">
-      <c r="A603" s="111"/>
+      <c r="A603" s="106"/>
       <c r="B603" s="6"/>
       <c r="C603" s="6"/>
       <c r="D603" s="6"/>
@@ -24568,7 +24504,7 @@
       <c r="AA603" s="6"/>
     </row>
     <row r="604">
-      <c r="A604" s="111"/>
+      <c r="A604" s="106"/>
       <c r="B604" s="6"/>
       <c r="C604" s="6"/>
       <c r="D604" s="6"/>
@@ -24597,7 +24533,7 @@
       <c r="AA604" s="6"/>
     </row>
     <row r="605">
-      <c r="A605" s="111"/>
+      <c r="A605" s="106"/>
       <c r="B605" s="6"/>
       <c r="C605" s="6"/>
       <c r="D605" s="6"/>
@@ -24626,7 +24562,7 @@
       <c r="AA605" s="6"/>
     </row>
     <row r="606">
-      <c r="A606" s="111"/>
+      <c r="A606" s="106"/>
       <c r="B606" s="6"/>
       <c r="C606" s="6"/>
       <c r="D606" s="6"/>
@@ -24655,7 +24591,7 @@
       <c r="AA606" s="6"/>
     </row>
     <row r="607">
-      <c r="A607" s="111"/>
+      <c r="A607" s="106"/>
       <c r="B607" s="6"/>
       <c r="C607" s="6"/>
       <c r="D607" s="6"/>
@@ -24684,7 +24620,7 @@
       <c r="AA607" s="6"/>
     </row>
     <row r="608">
-      <c r="A608" s="111"/>
+      <c r="A608" s="106"/>
       <c r="B608" s="6"/>
       <c r="C608" s="6"/>
       <c r="D608" s="6"/>
@@ -24713,7 +24649,7 @@
       <c r="AA608" s="6"/>
     </row>
     <row r="609">
-      <c r="A609" s="111"/>
+      <c r="A609" s="106"/>
       <c r="B609" s="6"/>
       <c r="C609" s="6"/>
       <c r="D609" s="6"/>
@@ -24742,7 +24678,7 @@
       <c r="AA609" s="6"/>
     </row>
     <row r="610">
-      <c r="A610" s="111"/>
+      <c r="A610" s="106"/>
       <c r="B610" s="6"/>
       <c r="C610" s="6"/>
       <c r="D610" s="6"/>
@@ -24771,7 +24707,7 @@
       <c r="AA610" s="6"/>
     </row>
     <row r="611">
-      <c r="A611" s="111"/>
+      <c r="A611" s="106"/>
       <c r="B611" s="6"/>
       <c r="C611" s="6"/>
       <c r="D611" s="6"/>
@@ -24800,7 +24736,7 @@
       <c r="AA611" s="6"/>
     </row>
     <row r="612">
-      <c r="A612" s="111"/>
+      <c r="A612" s="106"/>
       <c r="B612" s="6"/>
       <c r="C612" s="6"/>
       <c r="D612" s="6"/>
@@ -24829,7 +24765,7 @@
       <c r="AA612" s="6"/>
     </row>
     <row r="613">
-      <c r="A613" s="111"/>
+      <c r="A613" s="106"/>
       <c r="B613" s="6"/>
       <c r="C613" s="6"/>
       <c r="D613" s="6"/>
@@ -24858,7 +24794,7 @@
       <c r="AA613" s="6"/>
     </row>
     <row r="614">
-      <c r="A614" s="111"/>
+      <c r="A614" s="106"/>
       <c r="B614" s="6"/>
       <c r="C614" s="6"/>
       <c r="D614" s="6"/>
@@ -24887,7 +24823,7 @@
       <c r="AA614" s="6"/>
     </row>
     <row r="615">
-      <c r="A615" s="111"/>
+      <c r="A615" s="106"/>
       <c r="B615" s="6"/>
       <c r="C615" s="6"/>
       <c r="D615" s="6"/>
@@ -24916,7 +24852,7 @@
       <c r="AA615" s="6"/>
     </row>
     <row r="616">
-      <c r="A616" s="111"/>
+      <c r="A616" s="106"/>
       <c r="B616" s="6"/>
       <c r="C616" s="6"/>
       <c r="D616" s="6"/>
@@ -24945,7 +24881,7 @@
       <c r="AA616" s="6"/>
     </row>
     <row r="617">
-      <c r="A617" s="111"/>
+      <c r="A617" s="106"/>
       <c r="B617" s="6"/>
       <c r="C617" s="6"/>
       <c r="D617" s="6"/>
@@ -24974,7 +24910,7 @@
       <c r="AA617" s="6"/>
     </row>
     <row r="618">
-      <c r="A618" s="111"/>
+      <c r="A618" s="106"/>
       <c r="B618" s="6"/>
       <c r="C618" s="6"/>
       <c r="D618" s="6"/>
@@ -25003,7 +24939,7 @@
       <c r="AA618" s="6"/>
     </row>
     <row r="619">
-      <c r="A619" s="111"/>
+      <c r="A619" s="106"/>
       <c r="B619" s="6"/>
       <c r="C619" s="6"/>
       <c r="D619" s="6"/>
@@ -25032,7 +24968,7 @@
       <c r="AA619" s="6"/>
     </row>
     <row r="620">
-      <c r="A620" s="111"/>
+      <c r="A620" s="106"/>
       <c r="B620" s="6"/>
       <c r="C620" s="6"/>
       <c r="D620" s="6"/>
@@ -25061,7 +24997,7 @@
       <c r="AA620" s="6"/>
     </row>
     <row r="621">
-      <c r="A621" s="111"/>
+      <c r="A621" s="106"/>
       <c r="B621" s="6"/>
       <c r="C621" s="6"/>
       <c r="D621" s="6"/>
@@ -25090,7 +25026,7 @@
       <c r="AA621" s="6"/>
     </row>
     <row r="622">
-      <c r="A622" s="111"/>
+      <c r="A622" s="106"/>
       <c r="B622" s="6"/>
       <c r="C622" s="6"/>
       <c r="D622" s="6"/>
@@ -25119,7 +25055,7 @@
       <c r="AA622" s="6"/>
     </row>
     <row r="623">
-      <c r="A623" s="111"/>
+      <c r="A623" s="106"/>
       <c r="B623" s="6"/>
       <c r="C623" s="6"/>
       <c r="D623" s="6"/>
@@ -25148,7 +25084,7 @@
       <c r="AA623" s="6"/>
     </row>
     <row r="624">
-      <c r="A624" s="111"/>
+      <c r="A624" s="106"/>
       <c r="B624" s="6"/>
       <c r="C624" s="6"/>
       <c r="D624" s="6"/>
@@ -25177,7 +25113,7 @@
       <c r="AA624" s="6"/>
     </row>
     <row r="625">
-      <c r="A625" s="111"/>
+      <c r="A625" s="106"/>
       <c r="B625" s="6"/>
       <c r="C625" s="6"/>
       <c r="D625" s="6"/>
@@ -25206,7 +25142,7 @@
       <c r="AA625" s="6"/>
     </row>
     <row r="626">
-      <c r="A626" s="111"/>
+      <c r="A626" s="106"/>
       <c r="B626" s="6"/>
       <c r="C626" s="6"/>
       <c r="D626" s="6"/>
@@ -25235,7 +25171,7 @@
       <c r="AA626" s="6"/>
     </row>
     <row r="627">
-      <c r="A627" s="111"/>
+      <c r="A627" s="106"/>
       <c r="B627" s="6"/>
       <c r="C627" s="6"/>
       <c r="D627" s="6"/>
@@ -25264,7 +25200,7 @@
       <c r="AA627" s="6"/>
     </row>
     <row r="628">
-      <c r="A628" s="111"/>
+      <c r="A628" s="106"/>
       <c r="B628" s="6"/>
       <c r="C628" s="6"/>
       <c r="D628" s="6"/>
@@ -25293,7 +25229,7 @@
       <c r="AA628" s="6"/>
     </row>
     <row r="629">
-      <c r="A629" s="111"/>
+      <c r="A629" s="106"/>
       <c r="B629" s="6"/>
       <c r="C629" s="6"/>
       <c r="D629" s="6"/>
@@ -25322,7 +25258,7 @@
       <c r="AA629" s="6"/>
     </row>
     <row r="630">
-      <c r="A630" s="111"/>
+      <c r="A630" s="106"/>
       <c r="B630" s="6"/>
       <c r="C630" s="6"/>
       <c r="D630" s="6"/>
@@ -25351,7 +25287,7 @@
       <c r="AA630" s="6"/>
     </row>
     <row r="631">
-      <c r="A631" s="111"/>
+      <c r="A631" s="106"/>
       <c r="B631" s="6"/>
       <c r="C631" s="6"/>
       <c r="D631" s="6"/>
@@ -25380,7 +25316,7 @@
       <c r="AA631" s="6"/>
     </row>
     <row r="632">
-      <c r="A632" s="111"/>
+      <c r="A632" s="106"/>
       <c r="B632" s="6"/>
       <c r="C632" s="6"/>
       <c r="D632" s="6"/>
@@ -25409,7 +25345,7 @@
       <c r="AA632" s="6"/>
     </row>
     <row r="633">
-      <c r="A633" s="111"/>
+      <c r="A633" s="106"/>
       <c r="B633" s="6"/>
       <c r="C633" s="6"/>
       <c r="D633" s="6"/>
@@ -25438,7 +25374,7 @@
       <c r="AA633" s="6"/>
     </row>
     <row r="634">
-      <c r="A634" s="111"/>
+      <c r="A634" s="106"/>
       <c r="B634" s="6"/>
       <c r="C634" s="6"/>
       <c r="D634" s="6"/>
@@ -25467,7 +25403,7 @@
       <c r="AA634" s="6"/>
     </row>
     <row r="635">
-      <c r="A635" s="111"/>
+      <c r="A635" s="106"/>
       <c r="B635" s="6"/>
       <c r="C635" s="6"/>
       <c r="D635" s="6"/>
@@ -25496,7 +25432,7 @@
       <c r="AA635" s="6"/>
     </row>
     <row r="636">
-      <c r="A636" s="111"/>
+      <c r="A636" s="106"/>
       <c r="B636" s="6"/>
       <c r="C636" s="6"/>
       <c r="D636" s="6"/>
@@ -25525,7 +25461,7 @@
       <c r="AA636" s="6"/>
     </row>
     <row r="637">
-      <c r="A637" s="111"/>
+      <c r="A637" s="106"/>
       <c r="B637" s="6"/>
       <c r="C637" s="6"/>
       <c r="D637" s="6"/>
@@ -25554,7 +25490,7 @@
       <c r="AA637" s="6"/>
     </row>
     <row r="638">
-      <c r="A638" s="111"/>
+      <c r="A638" s="106"/>
       <c r="B638" s="6"/>
       <c r="C638" s="6"/>
       <c r="D638" s="6"/>
@@ -25583,7 +25519,7 @@
       <c r="AA638" s="6"/>
     </row>
     <row r="639">
-      <c r="A639" s="111"/>
+      <c r="A639" s="106"/>
       <c r="B639" s="6"/>
       <c r="C639" s="6"/>
       <c r="D639" s="6"/>
@@ -25612,7 +25548,7 @@
       <c r="AA639" s="6"/>
     </row>
     <row r="640">
-      <c r="A640" s="111"/>
+      <c r="A640" s="106"/>
       <c r="B640" s="6"/>
       <c r="C640" s="6"/>
       <c r="D640" s="6"/>
@@ -25641,7 +25577,7 @@
       <c r="AA640" s="6"/>
     </row>
     <row r="641">
-      <c r="A641" s="111"/>
+      <c r="A641" s="106"/>
       <c r="B641" s="6"/>
       <c r="C641" s="6"/>
       <c r="D641" s="6"/>
@@ -25670,7 +25606,7 @@
       <c r="AA641" s="6"/>
     </row>
     <row r="642">
-      <c r="A642" s="111"/>
+      <c r="A642" s="106"/>
       <c r="B642" s="6"/>
       <c r="C642" s="6"/>
       <c r="D642" s="6"/>
@@ -25699,7 +25635,7 @@
       <c r="AA642" s="6"/>
     </row>
     <row r="643">
-      <c r="A643" s="111"/>
+      <c r="A643" s="106"/>
       <c r="B643" s="6"/>
       <c r="C643" s="6"/>
       <c r="D643" s="6"/>
@@ -25728,7 +25664,7 @@
       <c r="AA643" s="6"/>
     </row>
     <row r="644">
-      <c r="A644" s="111"/>
+      <c r="A644" s="106"/>
       <c r="B644" s="6"/>
       <c r="C644" s="6"/>
       <c r="D644" s="6"/>
@@ -25757,7 +25693,7 @@
       <c r="AA644" s="6"/>
     </row>
     <row r="645">
-      <c r="A645" s="111"/>
+      <c r="A645" s="106"/>
       <c r="B645" s="6"/>
       <c r="C645" s="6"/>
       <c r="D645" s="6"/>
@@ -25786,7 +25722,7 @@
       <c r="AA645" s="6"/>
     </row>
     <row r="646">
-      <c r="A646" s="111"/>
+      <c r="A646" s="106"/>
       <c r="B646" s="6"/>
       <c r="C646" s="6"/>
       <c r="D646" s="6"/>
@@ -25815,7 +25751,7 @@
       <c r="AA646" s="6"/>
     </row>
     <row r="647">
-      <c r="A647" s="111"/>
+      <c r="A647" s="106"/>
       <c r="B647" s="6"/>
       <c r="C647" s="6"/>
       <c r="D647" s="6"/>
@@ -25844,7 +25780,7 @@
       <c r="AA647" s="6"/>
     </row>
     <row r="648">
-      <c r="A648" s="111"/>
+      <c r="A648" s="106"/>
       <c r="B648" s="6"/>
       <c r="C648" s="6"/>
       <c r="D648" s="6"/>
@@ -25873,7 +25809,7 @@
       <c r="AA648" s="6"/>
     </row>
     <row r="649">
-      <c r="A649" s="111"/>
+      <c r="A649" s="106"/>
       <c r="B649" s="6"/>
       <c r="C649" s="6"/>
       <c r="D649" s="6"/>
@@ -25902,7 +25838,7 @@
       <c r="AA649" s="6"/>
     </row>
     <row r="650">
-      <c r="A650" s="111"/>
+      <c r="A650" s="106"/>
       <c r="B650" s="6"/>
       <c r="C650" s="6"/>
       <c r="D650" s="6"/>
@@ -25931,7 +25867,7 @@
       <c r="AA650" s="6"/>
     </row>
     <row r="651">
-      <c r="A651" s="111"/>
+      <c r="A651" s="106"/>
       <c r="B651" s="6"/>
       <c r="C651" s="6"/>
       <c r="D651" s="6"/>
@@ -25960,7 +25896,7 @@
       <c r="AA651" s="6"/>
     </row>
     <row r="652">
-      <c r="A652" s="111"/>
+      <c r="A652" s="106"/>
       <c r="B652" s="6"/>
       <c r="C652" s="6"/>
       <c r="D652" s="6"/>
@@ -25989,7 +25925,7 @@
       <c r="AA652" s="6"/>
     </row>
     <row r="653">
-      <c r="A653" s="111"/>
+      <c r="A653" s="106"/>
       <c r="B653" s="6"/>
       <c r="C653" s="6"/>
       <c r="D653" s="6"/>
@@ -26018,7 +25954,7 @@
       <c r="AA653" s="6"/>
     </row>
     <row r="654">
-      <c r="A654" s="111"/>
+      <c r="A654" s="106"/>
       <c r="B654" s="6"/>
       <c r="C654" s="6"/>
       <c r="D654" s="6"/>
@@ -26047,7 +25983,7 @@
       <c r="AA654" s="6"/>
     </row>
     <row r="655">
-      <c r="A655" s="111"/>
+      <c r="A655" s="106"/>
       <c r="B655" s="6"/>
       <c r="C655" s="6"/>
       <c r="D655" s="6"/>
@@ -26076,7 +26012,7 @@
       <c r="AA655" s="6"/>
     </row>
     <row r="656">
-      <c r="A656" s="111"/>
+      <c r="A656" s="106"/>
       <c r="B656" s="6"/>
       <c r="C656" s="6"/>
       <c r="D656" s="6"/>
@@ -26105,7 +26041,7 @@
       <c r="AA656" s="6"/>
     </row>
     <row r="657">
-      <c r="A657" s="111"/>
+      <c r="A657" s="106"/>
       <c r="B657" s="6"/>
       <c r="C657" s="6"/>
       <c r="D657" s="6"/>
@@ -26134,7 +26070,7 @@
       <c r="AA657" s="6"/>
     </row>
     <row r="658">
-      <c r="A658" s="111"/>
+      <c r="A658" s="106"/>
       <c r="B658" s="6"/>
       <c r="C658" s="6"/>
       <c r="D658" s="6"/>
@@ -26163,7 +26099,7 @@
       <c r="AA658" s="6"/>
     </row>
     <row r="659">
-      <c r="A659" s="111"/>
+      <c r="A659" s="106"/>
       <c r="B659" s="6"/>
       <c r="C659" s="6"/>
       <c r="D659" s="6"/>
@@ -26192,7 +26128,7 @@
       <c r="AA659" s="6"/>
     </row>
     <row r="660">
-      <c r="A660" s="111"/>
+      <c r="A660" s="106"/>
       <c r="B660" s="6"/>
       <c r="C660" s="6"/>
       <c r="D660" s="6"/>
@@ -26221,7 +26157,7 @@
       <c r="AA660" s="6"/>
     </row>
     <row r="661">
-      <c r="A661" s="111"/>
+      <c r="A661" s="106"/>
       <c r="B661" s="6"/>
       <c r="C661" s="6"/>
       <c r="D661" s="6"/>
@@ -26250,7 +26186,7 @@
       <c r="AA661" s="6"/>
     </row>
     <row r="662">
-      <c r="A662" s="111"/>
+      <c r="A662" s="106"/>
       <c r="B662" s="6"/>
       <c r="C662" s="6"/>
       <c r="D662" s="6"/>
@@ -26279,7 +26215,7 @@
       <c r="AA662" s="6"/>
     </row>
     <row r="663">
-      <c r="A663" s="111"/>
+      <c r="A663" s="106"/>
       <c r="B663" s="6"/>
       <c r="C663" s="6"/>
       <c r="D663" s="6"/>
@@ -26308,7 +26244,7 @@
       <c r="AA663" s="6"/>
     </row>
     <row r="664">
-      <c r="A664" s="111"/>
+      <c r="A664" s="106"/>
       <c r="B664" s="6"/>
       <c r="C664" s="6"/>
       <c r="D664" s="6"/>
@@ -26337,7 +26273,7 @@
       <c r="AA664" s="6"/>
     </row>
     <row r="665">
-      <c r="A665" s="111"/>
+      <c r="A665" s="106"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
       <c r="D665" s="6"/>
@@ -26366,7 +26302,7 @@
       <c r="AA665" s="6"/>
     </row>
     <row r="666">
-      <c r="A666" s="111"/>
+      <c r="A666" s="106"/>
       <c r="B666" s="6"/>
       <c r="C666" s="6"/>
       <c r="D666" s="6"/>
@@ -26395,7 +26331,7 @@
       <c r="AA666" s="6"/>
     </row>
     <row r="667">
-      <c r="A667" s="111"/>
+      <c r="A667" s="106"/>
       <c r="B667" s="6"/>
       <c r="C667" s="6"/>
       <c r="D667" s="6"/>
@@ -26424,7 +26360,7 @@
       <c r="AA667" s="6"/>
     </row>
     <row r="668">
-      <c r="A668" s="111"/>
+      <c r="A668" s="106"/>
       <c r="B668" s="6"/>
       <c r="C668" s="6"/>
       <c r="D668" s="6"/>
@@ -26453,7 +26389,7 @@
       <c r="AA668" s="6"/>
     </row>
     <row r="669">
-      <c r="A669" s="111"/>
+      <c r="A669" s="106"/>
       <c r="B669" s="6"/>
       <c r="C669" s="6"/>
       <c r="D669" s="6"/>
@@ -26482,7 +26418,7 @@
       <c r="AA669" s="6"/>
     </row>
     <row r="670">
-      <c r="A670" s="111"/>
+      <c r="A670" s="106"/>
       <c r="B670" s="6"/>
       <c r="C670" s="6"/>
       <c r="D670" s="6"/>
@@ -26511,7 +26447,7 @@
       <c r="AA670" s="6"/>
     </row>
     <row r="671">
-      <c r="A671" s="111"/>
+      <c r="A671" s="106"/>
       <c r="B671" s="6"/>
       <c r="C671" s="6"/>
       <c r="D671" s="6"/>
@@ -26540,7 +26476,7 @@
       <c r="AA671" s="6"/>
     </row>
     <row r="672">
-      <c r="A672" s="111"/>
+      <c r="A672" s="106"/>
       <c r="B672" s="6"/>
       <c r="C672" s="6"/>
       <c r="D672" s="6"/>
@@ -26569,7 +26505,7 @@
       <c r="AA672" s="6"/>
     </row>
     <row r="673">
-      <c r="A673" s="111"/>
+      <c r="A673" s="106"/>
       <c r="B673" s="6"/>
       <c r="C673" s="6"/>
       <c r="D673" s="6"/>
@@ -26598,7 +26534,7 @@
       <c r="AA673" s="6"/>
     </row>
     <row r="674">
-      <c r="A674" s="111"/>
+      <c r="A674" s="106"/>
       <c r="B674" s="6"/>
       <c r="C674" s="6"/>
       <c r="D674" s="6"/>
@@ -26627,7 +26563,7 @@
       <c r="AA674" s="6"/>
     </row>
     <row r="675">
-      <c r="A675" s="111"/>
+      <c r="A675" s="106"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
       <c r="D675" s="6"/>
@@ -26656,7 +26592,7 @@
       <c r="AA675" s="6"/>
     </row>
     <row r="676">
-      <c r="A676" s="111"/>
+      <c r="A676" s="106"/>
       <c r="B676" s="6"/>
       <c r="C676" s="6"/>
       <c r="D676" s="6"/>
@@ -26685,7 +26621,7 @@
       <c r="AA676" s="6"/>
     </row>
     <row r="677">
-      <c r="A677" s="111"/>
+      <c r="A677" s="106"/>
       <c r="B677" s="6"/>
       <c r="C677" s="6"/>
       <c r="D677" s="6"/>
@@ -26714,7 +26650,7 @@
       <c r="AA677" s="6"/>
     </row>
     <row r="678">
-      <c r="A678" s="111"/>
+      <c r="A678" s="106"/>
       <c r="B678" s="6"/>
       <c r="C678" s="6"/>
       <c r="D678" s="6"/>
@@ -26743,7 +26679,7 @@
       <c r="AA678" s="6"/>
     </row>
     <row r="679">
-      <c r="A679" s="111"/>
+      <c r="A679" s="106"/>
       <c r="B679" s="6"/>
       <c r="C679" s="6"/>
       <c r="D679" s="6"/>
@@ -26772,7 +26708,7 @@
       <c r="AA679" s="6"/>
     </row>
     <row r="680">
-      <c r="A680" s="111"/>
+      <c r="A680" s="106"/>
       <c r="B680" s="6"/>
       <c r="C680" s="6"/>
       <c r="D680" s="6"/>
@@ -26801,7 +26737,7 @@
       <c r="AA680" s="6"/>
     </row>
     <row r="681">
-      <c r="A681" s="111"/>
+      <c r="A681" s="106"/>
       <c r="B681" s="6"/>
       <c r="C681" s="6"/>
       <c r="D681" s="6"/>
@@ -26830,7 +26766,7 @@
       <c r="AA681" s="6"/>
     </row>
     <row r="682">
-      <c r="A682" s="111"/>
+      <c r="A682" s="106"/>
       <c r="B682" s="6"/>
       <c r="C682" s="6"/>
       <c r="D682" s="6"/>
@@ -26859,7 +26795,7 @@
       <c r="AA682" s="6"/>
     </row>
     <row r="683">
-      <c r="A683" s="111"/>
+      <c r="A683" s="106"/>
       <c r="B683" s="6"/>
       <c r="C683" s="6"/>
       <c r="D683" s="6"/>
@@ -26888,7 +26824,7 @@
       <c r="AA683" s="6"/>
     </row>
     <row r="684">
-      <c r="A684" s="111"/>
+      <c r="A684" s="106"/>
       <c r="B684" s="6"/>
       <c r="C684" s="6"/>
       <c r="D684" s="6"/>
@@ -26917,7 +26853,7 @@
       <c r="AA684" s="6"/>
     </row>
     <row r="685">
-      <c r="A685" s="111"/>
+      <c r="A685" s="106"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
       <c r="D685" s="6"/>
@@ -26946,7 +26882,7 @@
       <c r="AA685" s="6"/>
     </row>
     <row r="686">
-      <c r="A686" s="111"/>
+      <c r="A686" s="106"/>
       <c r="B686" s="6"/>
       <c r="C686" s="6"/>
       <c r="D686" s="6"/>
@@ -26975,7 +26911,7 @@
       <c r="AA686" s="6"/>
     </row>
     <row r="687">
-      <c r="A687" s="111"/>
+      <c r="A687" s="106"/>
       <c r="B687" s="6"/>
       <c r="C687" s="6"/>
       <c r="D687" s="6"/>
@@ -27004,7 +26940,7 @@
       <c r="AA687" s="6"/>
     </row>
     <row r="688">
-      <c r="A688" s="111"/>
+      <c r="A688" s="106"/>
       <c r="B688" s="6"/>
       <c r="C688" s="6"/>
       <c r="D688" s="6"/>
@@ -27033,7 +26969,7 @@
       <c r="AA688" s="6"/>
     </row>
     <row r="689">
-      <c r="A689" s="111"/>
+      <c r="A689" s="106"/>
       <c r="B689" s="6"/>
       <c r="C689" s="6"/>
       <c r="D689" s="6"/>
@@ -27062,7 +26998,7 @@
       <c r="AA689" s="6"/>
     </row>
     <row r="690">
-      <c r="A690" s="111"/>
+      <c r="A690" s="106"/>
       <c r="B690" s="6"/>
       <c r="C690" s="6"/>
       <c r="D690" s="6"/>
@@ -27091,7 +27027,7 @@
       <c r="AA690" s="6"/>
     </row>
     <row r="691">
-      <c r="A691" s="111"/>
+      <c r="A691" s="106"/>
       <c r="B691" s="6"/>
       <c r="C691" s="6"/>
       <c r="D691" s="6"/>
@@ -27120,7 +27056,7 @@
       <c r="AA691" s="6"/>
     </row>
     <row r="692">
-      <c r="A692" s="111"/>
+      <c r="A692" s="106"/>
       <c r="B692" s="6"/>
       <c r="C692" s="6"/>
       <c r="D692" s="6"/>
@@ -27149,7 +27085,7 @@
       <c r="AA692" s="6"/>
     </row>
     <row r="693">
-      <c r="A693" s="111"/>
+      <c r="A693" s="106"/>
       <c r="B693" s="6"/>
       <c r="C693" s="6"/>
       <c r="D693" s="6"/>
@@ -27178,7 +27114,7 @@
       <c r="AA693" s="6"/>
     </row>
     <row r="694">
-      <c r="A694" s="111"/>
+      <c r="A694" s="106"/>
       <c r="B694" s="6"/>
       <c r="C694" s="6"/>
       <c r="D694" s="6"/>
@@ -27207,7 +27143,7 @@
       <c r="AA694" s="6"/>
     </row>
     <row r="695">
-      <c r="A695" s="111"/>
+      <c r="A695" s="106"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
       <c r="D695" s="6"/>
@@ -27236,7 +27172,7 @@
       <c r="AA695" s="6"/>
     </row>
     <row r="696">
-      <c r="A696" s="111"/>
+      <c r="A696" s="106"/>
       <c r="B696" s="6"/>
       <c r="C696" s="6"/>
       <c r="D696" s="6"/>
@@ -27265,7 +27201,7 @@
       <c r="AA696" s="6"/>
     </row>
     <row r="697">
-      <c r="A697" s="111"/>
+      <c r="A697" s="106"/>
       <c r="B697" s="6"/>
       <c r="C697" s="6"/>
       <c r="D697" s="6"/>
@@ -27294,7 +27230,7 @@
       <c r="AA697" s="6"/>
     </row>
     <row r="698">
-      <c r="A698" s="111"/>
+      <c r="A698" s="106"/>
       <c r="B698" s="6"/>
       <c r="C698" s="6"/>
       <c r="D698" s="6"/>
@@ -27323,7 +27259,7 @@
       <c r="AA698" s="6"/>
     </row>
     <row r="699">
-      <c r="A699" s="111"/>
+      <c r="A699" s="106"/>
       <c r="B699" s="6"/>
       <c r="C699" s="6"/>
       <c r="D699" s="6"/>
@@ -27352,7 +27288,7 @@
       <c r="AA699" s="6"/>
     </row>
     <row r="700">
-      <c r="A700" s="111"/>
+      <c r="A700" s="106"/>
       <c r="B700" s="6"/>
       <c r="C700" s="6"/>
       <c r="D700" s="6"/>
@@ -27381,7 +27317,7 @@
       <c r="AA700" s="6"/>
     </row>
     <row r="701">
-      <c r="A701" s="111"/>
+      <c r="A701" s="106"/>
       <c r="B701" s="6"/>
       <c r="C701" s="6"/>
       <c r="D701" s="6"/>
@@ -27410,7 +27346,7 @@
       <c r="AA701" s="6"/>
     </row>
     <row r="702">
-      <c r="A702" s="111"/>
+      <c r="A702" s="106"/>
       <c r="B702" s="6"/>
       <c r="C702" s="6"/>
       <c r="D702" s="6"/>
@@ -27439,7 +27375,7 @@
       <c r="AA702" s="6"/>
     </row>
     <row r="703">
-      <c r="A703" s="111"/>
+      <c r="A703" s="106"/>
       <c r="B703" s="6"/>
       <c r="C703" s="6"/>
       <c r="D703" s="6"/>
@@ -27468,7 +27404,7 @@
       <c r="AA703" s="6"/>
     </row>
     <row r="704">
-      <c r="A704" s="111"/>
+      <c r="A704" s="106"/>
       <c r="B704" s="6"/>
       <c r="C704" s="6"/>
       <c r="D704" s="6"/>
@@ -27497,7 +27433,7 @@
       <c r="AA704" s="6"/>
     </row>
     <row r="705">
-      <c r="A705" s="111"/>
+      <c r="A705" s="106"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
       <c r="D705" s="6"/>
@@ -27526,7 +27462,7 @@
       <c r="AA705" s="6"/>
     </row>
     <row r="706">
-      <c r="A706" s="111"/>
+      <c r="A706" s="106"/>
       <c r="B706" s="6"/>
       <c r="C706" s="6"/>
       <c r="D706" s="6"/>
@@ -27555,7 +27491,7 @@
       <c r="AA706" s="6"/>
     </row>
     <row r="707">
-      <c r="A707" s="111"/>
+      <c r="A707" s="106"/>
       <c r="B707" s="6"/>
       <c r="C707" s="6"/>
       <c r="D707" s="6"/>
@@ -27584,7 +27520,7 @@
       <c r="AA707" s="6"/>
     </row>
     <row r="708">
-      <c r="A708" s="111"/>
+      <c r="A708" s="106"/>
       <c r="B708" s="6"/>
       <c r="C708" s="6"/>
       <c r="D708" s="6"/>
@@ -27613,7 +27549,7 @@
       <c r="AA708" s="6"/>
     </row>
     <row r="709">
-      <c r="A709" s="111"/>
+      <c r="A709" s="106"/>
       <c r="B709" s="6"/>
       <c r="C709" s="6"/>
       <c r="D709" s="6"/>
@@ -27642,7 +27578,7 @@
       <c r="AA709" s="6"/>
     </row>
     <row r="710">
-      <c r="A710" s="111"/>
+      <c r="A710" s="106"/>
       <c r="B710" s="6"/>
       <c r="C710" s="6"/>
       <c r="D710" s="6"/>
@@ -27671,7 +27607,7 @@
       <c r="AA710" s="6"/>
     </row>
     <row r="711">
-      <c r="A711" s="111"/>
+      <c r="A711" s="106"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
       <c r="D711" s="6"/>
@@ -27700,7 +27636,7 @@
       <c r="AA711" s="6"/>
     </row>
     <row r="712">
-      <c r="A712" s="111"/>
+      <c r="A712" s="106"/>
       <c r="B712" s="6"/>
       <c r="C712" s="6"/>
       <c r="D712" s="6"/>
@@ -27729,7 +27665,7 @@
       <c r="AA712" s="6"/>
     </row>
     <row r="713">
-      <c r="A713" s="111"/>
+      <c r="A713" s="106"/>
       <c r="B713" s="6"/>
       <c r="C713" s="6"/>
       <c r="D713" s="6"/>
@@ -27758,7 +27694,7 @@
       <c r="AA713" s="6"/>
     </row>
     <row r="714">
-      <c r="A714" s="111"/>
+      <c r="A714" s="106"/>
       <c r="B714" s="6"/>
       <c r="C714" s="6"/>
       <c r="D714" s="6"/>
@@ -27787,7 +27723,7 @@
       <c r="AA714" s="6"/>
     </row>
     <row r="715">
-      <c r="A715" s="111"/>
+      <c r="A715" s="106"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
       <c r="D715" s="6"/>
@@ -27816,7 +27752,7 @@
       <c r="AA715" s="6"/>
     </row>
     <row r="716">
-      <c r="A716" s="111"/>
+      <c r="A716" s="106"/>
       <c r="B716" s="6"/>
       <c r="C716" s="6"/>
       <c r="D716" s="6"/>
@@ -27845,7 +27781,7 @@
       <c r="AA716" s="6"/>
     </row>
     <row r="717">
-      <c r="A717" s="111"/>
+      <c r="A717" s="106"/>
       <c r="B717" s="6"/>
       <c r="C717" s="6"/>
       <c r="D717" s="6"/>
@@ -27874,7 +27810,7 @@
       <c r="AA717" s="6"/>
     </row>
     <row r="718">
-      <c r="A718" s="111"/>
+      <c r="A718" s="106"/>
       <c r="B718" s="6"/>
       <c r="C718" s="6"/>
       <c r="D718" s="6"/>
@@ -27903,7 +27839,7 @@
       <c r="AA718" s="6"/>
     </row>
     <row r="719">
-      <c r="A719" s="111"/>
+      <c r="A719" s="106"/>
       <c r="B719" s="6"/>
       <c r="C719" s="6"/>
       <c r="D719" s="6"/>
@@ -27932,7 +27868,7 @@
       <c r="AA719" s="6"/>
     </row>
     <row r="720">
-      <c r="A720" s="111"/>
+      <c r="A720" s="106"/>
       <c r="B720" s="6"/>
       <c r="C720" s="6"/>
       <c r="D720" s="6"/>
@@ -27961,7 +27897,7 @@
       <c r="AA720" s="6"/>
     </row>
     <row r="721">
-      <c r="A721" s="111"/>
+      <c r="A721" s="106"/>
       <c r="B721" s="6"/>
       <c r="C721" s="6"/>
       <c r="D721" s="6"/>
@@ -27990,7 +27926,7 @@
       <c r="AA721" s="6"/>
     </row>
     <row r="722">
-      <c r="A722" s="111"/>
+      <c r="A722" s="106"/>
       <c r="B722" s="6"/>
       <c r="C722" s="6"/>
       <c r="D722" s="6"/>
@@ -28019,7 +27955,7 @@
       <c r="AA722" s="6"/>
     </row>
     <row r="723">
-      <c r="A723" s="111"/>
+      <c r="A723" s="106"/>
       <c r="B723" s="6"/>
       <c r="C723" s="6"/>
       <c r="D723" s="6"/>
@@ -28048,7 +27984,7 @@
       <c r="AA723" s="6"/>
     </row>
     <row r="724">
-      <c r="A724" s="111"/>
+      <c r="A724" s="106"/>
       <c r="B724" s="6"/>
       <c r="C724" s="6"/>
       <c r="D724" s="6"/>
@@ -28077,7 +28013,7 @@
       <c r="AA724" s="6"/>
     </row>
     <row r="725">
-      <c r="A725" s="111"/>
+      <c r="A725" s="106"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
       <c r="D725" s="6"/>
@@ -28106,7 +28042,7 @@
       <c r="AA725" s="6"/>
     </row>
     <row r="726">
-      <c r="A726" s="111"/>
+      <c r="A726" s="106"/>
       <c r="B726" s="6"/>
       <c r="C726" s="6"/>
       <c r="D726" s="6"/>
@@ -28135,7 +28071,7 @@
       <c r="AA726" s="6"/>
     </row>
     <row r="727">
-      <c r="A727" s="111"/>
+      <c r="A727" s="106"/>
       <c r="B727" s="6"/>
       <c r="C727" s="6"/>
       <c r="D727" s="6"/>
@@ -28164,7 +28100,7 @@
       <c r="AA727" s="6"/>
     </row>
     <row r="728">
-      <c r="A728" s="111"/>
+      <c r="A728" s="106"/>
       <c r="B728" s="6"/>
       <c r="C728" s="6"/>
       <c r="D728" s="6"/>
@@ -28193,7 +28129,7 @@
       <c r="AA728" s="6"/>
     </row>
     <row r="729">
-      <c r="A729" s="111"/>
+      <c r="A729" s="106"/>
       <c r="B729" s="6"/>
       <c r="C729" s="6"/>
       <c r="D729" s="6"/>
@@ -28222,7 +28158,7 @@
       <c r="AA729" s="6"/>
     </row>
     <row r="730">
-      <c r="A730" s="111"/>
+      <c r="A730" s="106"/>
       <c r="B730" s="6"/>
       <c r="C730" s="6"/>
       <c r="D730" s="6"/>
@@ -28251,7 +28187,7 @@
       <c r="AA730" s="6"/>
     </row>
     <row r="731">
-      <c r="A731" s="111"/>
+      <c r="A731" s="106"/>
       <c r="B731" s="6"/>
       <c r="C731" s="6"/>
       <c r="D731" s="6"/>
@@ -28280,7 +28216,7 @@
       <c r="AA731" s="6"/>
     </row>
     <row r="732">
-      <c r="A732" s="111"/>
+      <c r="A732" s="106"/>
       <c r="B732" s="6"/>
       <c r="C732" s="6"/>
       <c r="D732" s="6"/>
@@ -28309,7 +28245,7 @@
       <c r="AA732" s="6"/>
     </row>
     <row r="733">
-      <c r="A733" s="111"/>
+      <c r="A733" s="106"/>
       <c r="B733" s="6"/>
       <c r="C733" s="6"/>
       <c r="D733" s="6"/>
@@ -28338,7 +28274,7 @@
       <c r="AA733" s="6"/>
     </row>
     <row r="734">
-      <c r="A734" s="111"/>
+      <c r="A734" s="106"/>
       <c r="B734" s="6"/>
       <c r="C734" s="6"/>
       <c r="D734" s="6"/>
@@ -28367,7 +28303,7 @@
       <c r="AA734" s="6"/>
     </row>
     <row r="735">
-      <c r="A735" s="111"/>
+      <c r="A735" s="106"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
       <c r="D735" s="6"/>
@@ -28396,7 +28332,7 @@
       <c r="AA735" s="6"/>
     </row>
     <row r="736">
-      <c r="A736" s="111"/>
+      <c r="A736" s="106"/>
       <c r="B736" s="6"/>
       <c r="C736" s="6"/>
       <c r="D736" s="6"/>
@@ -28425,7 +28361,7 @@
       <c r="AA736" s="6"/>
     </row>
     <row r="737">
-      <c r="A737" s="111"/>
+      <c r="A737" s="106"/>
       <c r="B737" s="6"/>
       <c r="C737" s="6"/>
       <c r="D737" s="6"/>
@@ -28454,7 +28390,7 @@
       <c r="AA737" s="6"/>
     </row>
     <row r="738">
-      <c r="A738" s="111"/>
+      <c r="A738" s="106"/>
       <c r="B738" s="6"/>
       <c r="C738" s="6"/>
       <c r="D738" s="6"/>
@@ -28483,7 +28419,7 @@
       <c r="AA738" s="6"/>
     </row>
     <row r="739">
-      <c r="A739" s="111"/>
+      <c r="A739" s="106"/>
       <c r="B739" s="6"/>
       <c r="C739" s="6"/>
       <c r="D739" s="6"/>
@@ -28512,7 +28448,7 @@
       <c r="AA739" s="6"/>
     </row>
     <row r="740">
-      <c r="A740" s="111"/>
+      <c r="A740" s="106"/>
       <c r="B740" s="6"/>
       <c r="C740" s="6"/>
       <c r="D740" s="6"/>
@@ -28541,7 +28477,7 @@
       <c r="AA740" s="6"/>
     </row>
     <row r="741">
-      <c r="A741" s="111"/>
+      <c r="A741" s="106"/>
       <c r="B741" s="6"/>
       <c r="C741" s="6"/>
       <c r="D741" s="6"/>
@@ -28570,7 +28506,7 @@
       <c r="AA741" s="6"/>
     </row>
     <row r="742">
-      <c r="A742" s="111"/>
+      <c r="A742" s="106"/>
       <c r="B742" s="6"/>
       <c r="C742" s="6"/>
       <c r="D742" s="6"/>
@@ -28599,7 +28535,7 @@
       <c r="AA742" s="6"/>
     </row>
     <row r="743">
-      <c r="A743" s="111"/>
+      <c r="A743" s="106"/>
       <c r="B743" s="6"/>
       <c r="C743" s="6"/>
       <c r="D743" s="6"/>
@@ -28628,7 +28564,7 @@
       <c r="AA743" s="6"/>
     </row>
     <row r="744">
-      <c r="A744" s="111"/>
+      <c r="A744" s="106"/>
       <c r="B744" s="6"/>
       <c r="C744" s="6"/>
       <c r="D744" s="6"/>
@@ -28657,7 +28593,7 @@
       <c r="AA744" s="6"/>
     </row>
     <row r="745">
-      <c r="A745" s="111"/>
+      <c r="A745" s="106"/>
       <c r="B745" s="6"/>
       <c r="C745" s="6"/>
       <c r="D745" s="6"/>
@@ -28686,7 +28622,7 @@
       <c r="AA745" s="6"/>
     </row>
     <row r="746">
-      <c r="A746" s="111"/>
+      <c r="A746" s="106"/>
       <c r="B746" s="6"/>
       <c r="C746" s="6"/>
       <c r="D746" s="6"/>
@@ -28715,7 +28651,7 @@
       <c r="AA746" s="6"/>
     </row>
     <row r="747">
-      <c r="A747" s="111"/>
+      <c r="A747" s="106"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
       <c r="D747" s="6"/>
@@ -28744,7 +28680,7 @@
       <c r="AA747" s="6"/>
     </row>
     <row r="748">
-      <c r="A748" s="111"/>
+      <c r="A748" s="106"/>
       <c r="B748" s="6"/>
       <c r="C748" s="6"/>
       <c r="D748" s="6"/>
@@ -28773,7 +28709,7 @@
       <c r="AA748" s="6"/>
     </row>
     <row r="749">
-      <c r="A749" s="111"/>
+      <c r="A749" s="106"/>
       <c r="B749" s="6"/>
       <c r="C749" s="6"/>
       <c r="D749" s="6"/>
@@ -28802,7 +28738,7 @@
       <c r="AA749" s="6"/>
     </row>
     <row r="750">
-      <c r="A750" s="111"/>
+      <c r="A750" s="106"/>
       <c r="B750" s="6"/>
       <c r="C750" s="6"/>
       <c r="D750" s="6"/>
@@ -28831,7 +28767,7 @@
       <c r="AA750" s="6"/>
     </row>
     <row r="751">
-      <c r="A751" s="111"/>
+      <c r="A751" s="106"/>
       <c r="B751" s="6"/>
       <c r="C751" s="6"/>
       <c r="D751" s="6"/>
@@ -28860,7 +28796,7 @@
       <c r="AA751" s="6"/>
     </row>
     <row r="752">
-      <c r="A752" s="111"/>
+      <c r="A752" s="106"/>
       <c r="B752" s="6"/>
       <c r="C752" s="6"/>
       <c r="D752" s="6"/>
@@ -28889,7 +28825,7 @@
       <c r="AA752" s="6"/>
     </row>
     <row r="753">
-      <c r="A753" s="111"/>
+      <c r="A753" s="106"/>
       <c r="B753" s="6"/>
       <c r="C753" s="6"/>
       <c r="D753" s="6"/>
@@ -28918,7 +28854,7 @@
       <c r="AA753" s="6"/>
     </row>
     <row r="754">
-      <c r="A754" s="111"/>
+      <c r="A754" s="106"/>
       <c r="B754" s="6"/>
       <c r="C754" s="6"/>
       <c r="D754" s="6"/>
@@ -28947,7 +28883,7 @@
       <c r="AA754" s="6"/>
     </row>
     <row r="755">
-      <c r="A755" s="111"/>
+      <c r="A755" s="106"/>
       <c r="B755" s="6"/>
       <c r="C755" s="6"/>
       <c r="D755" s="6"/>
@@ -28976,7 +28912,7 @@
       <c r="AA755" s="6"/>
     </row>
     <row r="756">
-      <c r="A756" s="111"/>
+      <c r="A756" s="106"/>
       <c r="B756" s="6"/>
       <c r="C756" s="6"/>
       <c r="D756" s="6"/>
@@ -29005,7 +28941,7 @@
       <c r="AA756" s="6"/>
     </row>
     <row r="757">
-      <c r="A757" s="111"/>
+      <c r="A757" s="106"/>
       <c r="B757" s="6"/>
       <c r="C757" s="6"/>
       <c r="D757" s="6"/>
@@ -29034,7 +28970,7 @@
       <c r="AA757" s="6"/>
     </row>
     <row r="758">
-      <c r="A758" s="111"/>
+      <c r="A758" s="106"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
       <c r="D758" s="6"/>
@@ -29063,7 +28999,7 @@
       <c r="AA758" s="6"/>
     </row>
     <row r="759">
-      <c r="A759" s="111"/>
+      <c r="A759" s="106"/>
       <c r="B759" s="6"/>
       <c r="C759" s="6"/>
       <c r="D759" s="6"/>
@@ -29092,7 +29028,7 @@
       <c r="AA759" s="6"/>
     </row>
     <row r="760">
-      <c r="A760" s="111"/>
+      <c r="A760" s="106"/>
       <c r="B760" s="6"/>
       <c r="C760" s="6"/>
       <c r="D760" s="6"/>
@@ -29121,7 +29057,7 @@
       <c r="AA760" s="6"/>
     </row>
     <row r="761">
-      <c r="A761" s="111"/>
+      <c r="A761" s="106"/>
       <c r="B761" s="6"/>
       <c r="C761" s="6"/>
       <c r="D761" s="6"/>
@@ -29150,7 +29086,7 @@
       <c r="AA761" s="6"/>
     </row>
     <row r="762">
-      <c r="A762" s="111"/>
+      <c r="A762" s="106"/>
       <c r="B762" s="6"/>
       <c r="C762" s="6"/>
       <c r="D762" s="6"/>
@@ -29179,7 +29115,7 @@
       <c r="AA762" s="6"/>
     </row>
     <row r="763">
-      <c r="A763" s="111"/>
+      <c r="A763" s="106"/>
       <c r="B763" s="6"/>
       <c r="C763" s="6"/>
       <c r="D763" s="6"/>
@@ -29208,7 +29144,7 @@
       <c r="AA763" s="6"/>
     </row>
     <row r="764">
-      <c r="A764" s="111"/>
+      <c r="A764" s="106"/>
       <c r="B764" s="6"/>
       <c r="C764" s="6"/>
       <c r="D764" s="6"/>
@@ -29237,7 +29173,7 @@
       <c r="AA764" s="6"/>
     </row>
     <row r="765">
-      <c r="A765" s="111"/>
+      <c r="A765" s="106"/>
       <c r="B765" s="6"/>
       <c r="C765" s="6"/>
       <c r="D765" s="6"/>
@@ -29266,7 +29202,7 @@
       <c r="AA765" s="6"/>
     </row>
     <row r="766">
-      <c r="A766" s="111"/>
+      <c r="A766" s="106"/>
       <c r="B766" s="6"/>
       <c r="C766" s="6"/>
       <c r="D766" s="6"/>
@@ -29295,7 +29231,7 @@
       <c r="AA766" s="6"/>
     </row>
     <row r="767">
-      <c r="A767" s="111"/>
+      <c r="A767" s="106"/>
       <c r="B767" s="6"/>
       <c r="C767" s="6"/>
       <c r="D767" s="6"/>
@@ -29324,7 +29260,7 @@
       <c r="AA767" s="6"/>
     </row>
     <row r="768">
-      <c r="A768" s="111"/>
+      <c r="A768" s="106"/>
       <c r="B768" s="6"/>
       <c r="C768" s="6"/>
       <c r="D768" s="6"/>
@@ -29353,7 +29289,7 @@
       <c r="AA768" s="6"/>
     </row>
     <row r="769">
-      <c r="A769" s="111"/>
+      <c r="A769" s="106"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
       <c r="D769" s="6"/>
@@ -29382,7 +29318,7 @@
       <c r="AA769" s="6"/>
     </row>
     <row r="770">
-      <c r="A770" s="111"/>
+      <c r="A770" s="106"/>
       <c r="B770" s="6"/>
       <c r="C770" s="6"/>
       <c r="D770" s="6"/>
@@ -29411,7 +29347,7 @@
       <c r="AA770" s="6"/>
     </row>
     <row r="771">
-      <c r="A771" s="111"/>
+      <c r="A771" s="106"/>
       <c r="B771" s="6"/>
       <c r="C771" s="6"/>
       <c r="D771" s="6"/>
@@ -29440,7 +29376,7 @@
       <c r="AA771" s="6"/>
     </row>
     <row r="772">
-      <c r="A772" s="111"/>
+      <c r="A772" s="106"/>
       <c r="B772" s="6"/>
       <c r="C772" s="6"/>
       <c r="D772" s="6"/>
@@ -29469,7 +29405,7 @@
       <c r="AA772" s="6"/>
     </row>
     <row r="773">
-      <c r="A773" s="111"/>
+      <c r="A773" s="106"/>
       <c r="B773" s="6"/>
       <c r="C773" s="6"/>
       <c r="D773" s="6"/>
@@ -29498,7 +29434,7 @@
       <c r="AA773" s="6"/>
     </row>
     <row r="774">
-      <c r="A774" s="111"/>
+      <c r="A774" s="106"/>
       <c r="B774" s="6"/>
       <c r="C774" s="6"/>
       <c r="D774" s="6"/>
@@ -29527,7 +29463,7 @@
       <c r="AA774" s="6"/>
     </row>
     <row r="775">
-      <c r="A775" s="111"/>
+      <c r="A775" s="106"/>
       <c r="B775" s="6"/>
       <c r="C775" s="6"/>
       <c r="D775" s="6"/>
@@ -29556,7 +29492,7 @@
       <c r="AA775" s="6"/>
     </row>
     <row r="776">
-      <c r="A776" s="111"/>
+      <c r="A776" s="106"/>
       <c r="B776" s="6"/>
       <c r="C776" s="6"/>
       <c r="D776" s="6"/>
@@ -29585,7 +29521,7 @@
       <c r="AA776" s="6"/>
     </row>
     <row r="777">
-      <c r="A777" s="111"/>
+      <c r="A777" s="106"/>
       <c r="B777" s="6"/>
       <c r="C777" s="6"/>
       <c r="D777" s="6"/>
@@ -29614,7 +29550,7 @@
       <c r="AA777" s="6"/>
     </row>
     <row r="778">
-      <c r="A778" s="111"/>
+      <c r="A778" s="106"/>
       <c r="B778" s="6"/>
       <c r="C778" s="6"/>
       <c r="D778" s="6"/>
@@ -29643,7 +29579,7 @@
       <c r="AA778" s="6"/>
     </row>
     <row r="779">
-      <c r="A779" s="111"/>
+      <c r="A779" s="106"/>
       <c r="B779" s="6"/>
       <c r="C779" s="6"/>
       <c r="D779" s="6"/>
@@ -29672,7 +29608,7 @@
       <c r="AA779" s="6"/>
     </row>
     <row r="780">
-      <c r="A780" s="111"/>
+      <c r="A780" s="106"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
       <c r="D780" s="6"/>
@@ -29701,7 +29637,7 @@
       <c r="AA780" s="6"/>
     </row>
     <row r="781">
-      <c r="A781" s="111"/>
+      <c r="A781" s="106"/>
       <c r="B781" s="6"/>
       <c r="C781" s="6"/>
       <c r="D781" s="6"/>
@@ -29730,7 +29666,7 @@
       <c r="AA781" s="6"/>
     </row>
     <row r="782">
-      <c r="A782" s="111"/>
+      <c r="A782" s="106"/>
       <c r="B782" s="6"/>
       <c r="C782" s="6"/>
       <c r="D782" s="6"/>
@@ -29759,7 +29695,7 @@
       <c r="AA782" s="6"/>
     </row>
     <row r="783">
-      <c r="A783" s="111"/>
+      <c r="A783" s="106"/>
       <c r="B783" s="6"/>
       <c r="C783" s="6"/>
       <c r="D783" s="6"/>
@@ -29788,7 +29724,7 @@
       <c r="AA783" s="6"/>
     </row>
     <row r="784">
-      <c r="A784" s="111"/>
+      <c r="A784" s="106"/>
       <c r="B784" s="6"/>
       <c r="C784" s="6"/>
       <c r="D784" s="6"/>
@@ -29817,7 +29753,7 @@
       <c r="AA784" s="6"/>
     </row>
     <row r="785">
-      <c r="A785" s="111"/>
+      <c r="A785" s="106"/>
       <c r="B785" s="6"/>
       <c r="C785" s="6"/>
       <c r="D785" s="6"/>
@@ -29846,7 +29782,7 @@
       <c r="AA785" s="6"/>
     </row>
     <row r="786">
-      <c r="A786" s="111"/>
+      <c r="A786" s="106"/>
       <c r="B786" s="6"/>
       <c r="C786" s="6"/>
       <c r="D786" s="6"/>
@@ -29875,7 +29811,7 @@
       <c r="AA786" s="6"/>
     </row>
     <row r="787">
-      <c r="A787" s="111"/>
+      <c r="A787" s="106"/>
       <c r="B787" s="6"/>
       <c r="C787" s="6"/>
       <c r="D787" s="6"/>
@@ -29904,7 +29840,7 @@
       <c r="AA787" s="6"/>
     </row>
     <row r="788">
-      <c r="A788" s="111"/>
+      <c r="A788" s="106"/>
       <c r="B788" s="6"/>
       <c r="C788" s="6"/>
       <c r="D788" s="6"/>
@@ -29933,7 +29869,7 @@
       <c r="AA788" s="6"/>
     </row>
     <row r="789">
-      <c r="A789" s="111"/>
+      <c r="A789" s="106"/>
       <c r="B789" s="6"/>
       <c r="C789" s="6"/>
       <c r="D789" s="6"/>
@@ -29962,7 +29898,7 @@
       <c r="AA789" s="6"/>
     </row>
     <row r="790">
-      <c r="A790" s="111"/>
+      <c r="A790" s="106"/>
       <c r="B790" s="6"/>
       <c r="C790" s="6"/>
       <c r="D790" s="6"/>
@@ -29991,7 +29927,7 @@
       <c r="AA790" s="6"/>
     </row>
     <row r="791">
-      <c r="A791" s="111"/>
+      <c r="A791" s="106"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
       <c r="D791" s="6"/>
@@ -30020,7 +29956,7 @@
       <c r="AA791" s="6"/>
     </row>
     <row r="792">
-      <c r="A792" s="111"/>
+      <c r="A792" s="106"/>
       <c r="B792" s="6"/>
       <c r="C792" s="6"/>
       <c r="D792" s="6"/>
@@ -30049,7 +29985,7 @@
       <c r="AA792" s="6"/>
     </row>
     <row r="793">
-      <c r="A793" s="111"/>
+      <c r="A793" s="106"/>
       <c r="B793" s="6"/>
       <c r="C793" s="6"/>
       <c r="D793" s="6"/>
@@ -30078,7 +30014,7 @@
       <c r="AA793" s="6"/>
     </row>
     <row r="794">
-      <c r="A794" s="111"/>
+      <c r="A794" s="106"/>
       <c r="B794" s="6"/>
       <c r="C794" s="6"/>
       <c r="D794" s="6"/>
@@ -30107,7 +30043,7 @@
       <c r="AA794" s="6"/>
     </row>
     <row r="795">
-      <c r="A795" s="111"/>
+      <c r="A795" s="106"/>
       <c r="B795" s="6"/>
       <c r="C795" s="6"/>
       <c r="D795" s="6"/>
@@ -30136,7 +30072,7 @@
       <c r="AA795" s="6"/>
     </row>
     <row r="796">
-      <c r="A796" s="111"/>
+      <c r="A796" s="106"/>
       <c r="B796" s="6"/>
       <c r="C796" s="6"/>
       <c r="D796" s="6"/>
@@ -30165,7 +30101,7 @@
       <c r="AA796" s="6"/>
     </row>
     <row r="797">
-      <c r="A797" s="111"/>
+      <c r="A797" s="106"/>
       <c r="B797" s="6"/>
       <c r="C797" s="6"/>
       <c r="D797" s="6"/>
@@ -30194,7 +30130,7 @@
       <c r="AA797" s="6"/>
     </row>
     <row r="798">
-      <c r="A798" s="111"/>
+      <c r="A798" s="106"/>
       <c r="B798" s="6"/>
       <c r="C798" s="6"/>
       <c r="D798" s="6"/>
@@ -30223,7 +30159,7 @@
       <c r="AA798" s="6"/>
     </row>
     <row r="799">
-      <c r="A799" s="111"/>
+      <c r="A799" s="106"/>
       <c r="B799" s="6"/>
       <c r="C799" s="6"/>
       <c r="D799" s="6"/>
@@ -30252,7 +30188,7 @@
       <c r="AA799" s="6"/>
     </row>
     <row r="800">
-      <c r="A800" s="111"/>
+      <c r="A800" s="106"/>
       <c r="B800" s="6"/>
       <c r="C800" s="6"/>
       <c r="D800" s="6"/>
@@ -30281,7 +30217,7 @@
       <c r="AA800" s="6"/>
     </row>
     <row r="801">
-      <c r="A801" s="111"/>
+      <c r="A801" s="106"/>
       <c r="B801" s="6"/>
       <c r="C801" s="6"/>
       <c r="D801" s="6"/>
@@ -30310,7 +30246,7 @@
       <c r="AA801" s="6"/>
     </row>
     <row r="802">
-      <c r="A802" s="111"/>
+      <c r="A802" s="106"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
       <c r="D802" s="6"/>
@@ -30339,7 +30275,7 @@
       <c r="AA802" s="6"/>
     </row>
     <row r="803">
-      <c r="A803" s="111"/>
+      <c r="A803" s="106"/>
       <c r="B803" s="6"/>
       <c r="C803" s="6"/>
       <c r="D803" s="6"/>
@@ -30368,7 +30304,7 @@
       <c r="AA803" s="6"/>
     </row>
     <row r="804">
-      <c r="A804" s="111"/>
+      <c r="A804" s="106"/>
       <c r="B804" s="6"/>
       <c r="C804" s="6"/>
       <c r="D804" s="6"/>
@@ -30397,7 +30333,7 @@
       <c r="AA804" s="6"/>
     </row>
     <row r="805">
-      <c r="A805" s="111"/>
+      <c r="A805" s="106"/>
       <c r="B805" s="6"/>
       <c r="C805" s="6"/>
       <c r="D805" s="6"/>
@@ -30426,7 +30362,7 @@
       <c r="AA805" s="6"/>
     </row>
     <row r="806">
-      <c r="A806" s="111"/>
+      <c r="A806" s="106"/>
       <c r="B806" s="6"/>
       <c r="C806" s="6"/>
       <c r="D806" s="6"/>
@@ -30455,7 +30391,7 @@
       <c r="AA806" s="6"/>
     </row>
     <row r="807">
-      <c r="A807" s="111"/>
+      <c r="A807" s="106"/>
       <c r="B807" s="6"/>
       <c r="C807" s="6"/>
       <c r="D807" s="6"/>
@@ -30484,7 +30420,7 @@
       <c r="AA807" s="6"/>
     </row>
     <row r="808">
-      <c r="A808" s="111"/>
+      <c r="A808" s="106"/>
       <c r="B808" s="6"/>
       <c r="C808" s="6"/>
       <c r="D808" s="6"/>
@@ -30513,7 +30449,7 @@
       <c r="AA808" s="6"/>
     </row>
     <row r="809">
-      <c r="A809" s="111"/>
+      <c r="A809" s="106"/>
       <c r="B809" s="6"/>
       <c r="C809" s="6"/>
       <c r="D809" s="6"/>
@@ -30542,7 +30478,7 @@
       <c r="AA809" s="6"/>
     </row>
     <row r="810">
-      <c r="A810" s="111"/>
+      <c r="A810" s="106"/>
       <c r="B810" s="6"/>
       <c r="C810" s="6"/>
       <c r="D810" s="6"/>
@@ -30571,7 +30507,7 @@
       <c r="AA810" s="6"/>
     </row>
     <row r="811">
-      <c r="A811" s="111"/>
+      <c r="A811" s="106"/>
       <c r="B811" s="6"/>
       <c r="C811" s="6"/>
       <c r="D811" s="6"/>
@@ -30600,7 +30536,7 @@
       <c r="AA811" s="6"/>
     </row>
     <row r="812">
-      <c r="A812" s="111"/>
+      <c r="A812" s="106"/>
       <c r="B812" s="6"/>
       <c r="C812" s="6"/>
       <c r="D812" s="6"/>
@@ -30629,7 +30565,7 @@
       <c r="AA812" s="6"/>
     </row>
     <row r="813">
-      <c r="A813" s="111"/>
+      <c r="A813" s="106"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
       <c r="D813" s="6"/>
@@ -30658,7 +30594,7 @@
       <c r="AA813" s="6"/>
     </row>
     <row r="814">
-      <c r="A814" s="111"/>
+      <c r="A814" s="106"/>
       <c r="B814" s="6"/>
       <c r="C814" s="6"/>
       <c r="D814" s="6"/>
@@ -30687,7 +30623,7 @@
       <c r="AA814" s="6"/>
     </row>
     <row r="815">
-      <c r="A815" s="111"/>
+      <c r="A815" s="106"/>
       <c r="B815" s="6"/>
       <c r="C815" s="6"/>
       <c r="D815" s="6"/>
@@ -30716,7 +30652,7 @@
       <c r="AA815" s="6"/>
     </row>
     <row r="816">
-      <c r="A816" s="111"/>
+      <c r="A816" s="106"/>
       <c r="B816" s="6"/>
       <c r="C816" s="6"/>
       <c r="D816" s="6"/>
@@ -30745,7 +30681,7 @@
       <c r="AA816" s="6"/>
     </row>
     <row r="817">
-      <c r="A817" s="111"/>
+      <c r="A817" s="106"/>
       <c r="B817" s="6"/>
       <c r="C817" s="6"/>
       <c r="D817" s="6"/>
@@ -30774,7 +30710,7 @@
       <c r="AA817" s="6"/>
     </row>
     <row r="818">
-      <c r="A818" s="111"/>
+      <c r="A818" s="106"/>
       <c r="B818" s="6"/>
       <c r="C818" s="6"/>
       <c r="D818" s="6"/>
@@ -30803,7 +30739,7 @@
       <c r="AA818" s="6"/>
     </row>
     <row r="819">
-      <c r="A819" s="111"/>
+      <c r="A819" s="106"/>
       <c r="B819" s="6"/>
       <c r="C819" s="6"/>
       <c r="D819" s="6"/>
@@ -30832,7 +30768,7 @@
       <c r="AA819" s="6"/>
     </row>
     <row r="820">
-      <c r="A820" s="111"/>
+      <c r="A820" s="106"/>
       <c r="B820" s="6"/>
       <c r="C820" s="6"/>
       <c r="D820" s="6"/>
@@ -30861,7 +30797,7 @@
       <c r="AA820" s="6"/>
     </row>
     <row r="821">
-      <c r="A821" s="111"/>
+      <c r="A821" s="106"/>
       <c r="B821" s="6"/>
       <c r="C821" s="6"/>
       <c r="D821" s="6"/>
@@ -30890,7 +30826,7 @@
       <c r="AA821" s="6"/>
     </row>
     <row r="822">
-      <c r="A822" s="111"/>
+      <c r="A822" s="106"/>
       <c r="B822" s="6"/>
       <c r="C822" s="6"/>
       <c r="D822" s="6"/>
@@ -30919,7 +30855,7 @@
       <c r="AA822" s="6"/>
     </row>
     <row r="823">
-      <c r="A823" s="111"/>
+      <c r="A823" s="106"/>
       <c r="B823" s="6"/>
       <c r="C823" s="6"/>
       <c r="D823" s="6"/>
@@ -30948,7 +30884,7 @@
       <c r="AA823" s="6"/>
     </row>
     <row r="824">
-      <c r="A824" s="111"/>
+      <c r="A824" s="106"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
       <c r="D824" s="6"/>
@@ -30977,7 +30913,7 @@
       <c r="AA824" s="6"/>
     </row>
     <row r="825">
-      <c r="A825" s="111"/>
+      <c r="A825" s="106"/>
       <c r="B825" s="6"/>
       <c r="C825" s="6"/>
       <c r="D825" s="6"/>
@@ -31006,7 +30942,7 @@
       <c r="AA825" s="6"/>
     </row>
     <row r="826">
-      <c r="A826" s="111"/>
+      <c r="A826" s="106"/>
       <c r="B826" s="6"/>
       <c r="C826" s="6"/>
       <c r="D826" s="6"/>
@@ -31035,7 +30971,7 @@
       <c r="AA826" s="6"/>
     </row>
     <row r="827">
-      <c r="A827" s="111"/>
+      <c r="A827" s="106"/>
       <c r="B827" s="6"/>
       <c r="C827" s="6"/>
       <c r="D827" s="6"/>
@@ -31064,7 +31000,7 @@
       <c r="AA827" s="6"/>
     </row>
     <row r="828">
-      <c r="A828" s="111"/>
+      <c r="A828" s="106"/>
       <c r="B828" s="6"/>
       <c r="C828" s="6"/>
       <c r="D828" s="6"/>
@@ -31093,7 +31029,7 @@
       <c r="AA828" s="6"/>
     </row>
     <row r="829">
-      <c r="A829" s="111"/>
+      <c r="A829" s="106"/>
       <c r="B829" s="6"/>
       <c r="C829" s="6"/>
       <c r="D829" s="6"/>
@@ -31122,7 +31058,7 @@
       <c r="AA829" s="6"/>
     </row>
     <row r="830">
-      <c r="A830" s="111"/>
+      <c r="A830" s="106"/>
       <c r="B830" s="6"/>
       <c r="C830" s="6"/>
       <c r="D830" s="6"/>
@@ -31151,7 +31087,7 @@
       <c r="AA830" s="6"/>
     </row>
     <row r="831">
-      <c r="A831" s="111"/>
+      <c r="A831" s="106"/>
       <c r="B831" s="6"/>
       <c r="C831" s="6"/>
       <c r="D831" s="6"/>
@@ -31180,7 +31116,7 @@
       <c r="AA831" s="6"/>
     </row>
     <row r="832">
-      <c r="A832" s="111"/>
+      <c r="A832" s="106"/>
       <c r="B832" s="6"/>
       <c r="C832" s="6"/>
       <c r="D832" s="6"/>
@@ -31209,7 +31145,7 @@
       <c r="AA832" s="6"/>
     </row>
     <row r="833">
-      <c r="A833" s="111"/>
+      <c r="A833" s="106"/>
       <c r="B833" s="6"/>
       <c r="C833" s="6"/>
       <c r="D833" s="6"/>
@@ -31238,7 +31174,7 @@
       <c r="AA833" s="6"/>
     </row>
     <row r="834">
-      <c r="A834" s="111"/>
+      <c r="A834" s="106"/>
       <c r="B834" s="6"/>
       <c r="C834" s="6"/>
       <c r="D834" s="6"/>
@@ -31267,7 +31203,7 @@
       <c r="AA834" s="6"/>
     </row>
     <row r="835">
-      <c r="A835" s="111"/>
+      <c r="A835" s="106"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
       <c r="D835" s="6"/>
@@ -31296,7 +31232,7 @@
       <c r="AA835" s="6"/>
     </row>
     <row r="836">
-      <c r="A836" s="111"/>
+      <c r="A836" s="106"/>
       <c r="B836" s="6"/>
       <c r="C836" s="6"/>
       <c r="D836" s="6"/>
@@ -31325,7 +31261,7 @@
       <c r="AA836" s="6"/>
     </row>
     <row r="837">
-      <c r="A837" s="111"/>
+      <c r="A837" s="106"/>
       <c r="B837" s="6"/>
       <c r="C837" s="6"/>
       <c r="D837" s="6"/>
@@ -31354,7 +31290,7 @@
       <c r="AA837" s="6"/>
     </row>
     <row r="838">
-      <c r="A838" s="111"/>
+      <c r="A838" s="106"/>
       <c r="B838" s="6"/>
       <c r="C838" s="6"/>
       <c r="D838" s="6"/>
@@ -31383,7 +31319,7 @@
       <c r="AA838" s="6"/>
     </row>
     <row r="839">
-      <c r="A839" s="111"/>
+      <c r="A839" s="106"/>
       <c r="B839" s="6"/>
       <c r="C839" s="6"/>
       <c r="D839" s="6"/>
@@ -31412,7 +31348,7 @@
       <c r="AA839" s="6"/>
     </row>
     <row r="840">
-      <c r="A840" s="111"/>
+      <c r="A840" s="106"/>
       <c r="B840" s="6"/>
       <c r="C840" s="6"/>
       <c r="D840" s="6"/>
@@ -31441,7 +31377,7 @@
       <c r="AA840" s="6"/>
     </row>
     <row r="841">
-      <c r="A841" s="111"/>
+      <c r="A841" s="106"/>
       <c r="B841" s="6"/>
       <c r="C841" s="6"/>
       <c r="D841" s="6"/>
@@ -31470,7 +31406,7 @@
       <c r="AA841" s="6"/>
     </row>
     <row r="842">
-      <c r="A842" s="111"/>
+      <c r="A842" s="106"/>
       <c r="B842" s="6"/>
       <c r="C842" s="6"/>
       <c r="D842" s="6"/>
@@ -31499,7 +31435,7 @@
       <c r="AA842" s="6"/>
     </row>
     <row r="843">
-      <c r="A843" s="111"/>
+      <c r="A843" s="106"/>
       <c r="B843" s="6"/>
       <c r="C843" s="6"/>
       <c r="D843" s="6"/>
@@ -31528,7 +31464,7 @@
       <c r="AA843" s="6"/>
     </row>
     <row r="844">
-      <c r="A844" s="111"/>
+      <c r="A844" s="106"/>
       <c r="B844" s="6"/>
       <c r="C844" s="6"/>
       <c r="D844" s="6"/>
@@ -31557,7 +31493,7 @@
       <c r="AA844" s="6"/>
     </row>
     <row r="845">
-      <c r="A845" s="111"/>
+      <c r="A845" s="106"/>
       <c r="B845" s="6"/>
       <c r="C845" s="6"/>
       <c r="D845" s="6"/>
@@ -31586,7 +31522,7 @@
       <c r="AA845" s="6"/>
     </row>
     <row r="846">
-      <c r="A846" s="111"/>
+      <c r="A846" s="106"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
       <c r="D846" s="6"/>
@@ -31615,7 +31551,7 @@
       <c r="AA846" s="6"/>
     </row>
     <row r="847">
-      <c r="A847" s="111"/>
+      <c r="A847" s="106"/>
       <c r="B847" s="6"/>
       <c r="C847" s="6"/>
       <c r="D847" s="6"/>
@@ -31644,7 +31580,7 @@
       <c r="AA847" s="6"/>
     </row>
     <row r="848">
-      <c r="A848" s="111"/>
+      <c r="A848" s="106"/>
       <c r="B848" s="6"/>
       <c r="C848" s="6"/>
       <c r="D848" s="6"/>
@@ -31673,7 +31609,7 @@
       <c r="AA848" s="6"/>
     </row>
     <row r="849">
-      <c r="A849" s="111"/>
+      <c r="A849" s="106"/>
       <c r="B849" s="6"/>
       <c r="C849" s="6"/>
       <c r="D849" s="6"/>
@@ -31702,7 +31638,7 @@
       <c r="AA849" s="6"/>
     </row>
     <row r="850">
-      <c r="A850" s="111"/>
+      <c r="A850" s="106"/>
       <c r="B850" s="6"/>
       <c r="C850" s="6"/>
       <c r="D850" s="6"/>
@@ -31731,7 +31667,7 @@
       <c r="AA850" s="6"/>
     </row>
     <row r="851">
-      <c r="A851" s="111"/>
+      <c r="A851" s="106"/>
       <c r="B851" s="6"/>
       <c r="C851" s="6"/>
       <c r="D851" s="6"/>
@@ -31760,7 +31696,7 @@
       <c r="AA851" s="6"/>
     </row>
     <row r="852">
-      <c r="A852" s="111"/>
+      <c r="A852" s="106"/>
       <c r="B852" s="6"/>
       <c r="C852" s="6"/>
       <c r="D852" s="6"/>
@@ -31789,7 +31725,7 @@
       <c r="AA852" s="6"/>
     </row>
     <row r="853">
-      <c r="A853" s="111"/>
+      <c r="A853" s="106"/>
       <c r="B853" s="6"/>
       <c r="C853" s="6"/>
       <c r="D853" s="6"/>
@@ -31818,7 +31754,7 @@
       <c r="AA853" s="6"/>
     </row>
     <row r="854">
-      <c r="A854" s="111"/>
+      <c r="A854" s="106"/>
       <c r="B854" s="6"/>
       <c r="C854" s="6"/>
       <c r="D854" s="6"/>
@@ -31847,7 +31783,7 @@
       <c r="AA854" s="6"/>
     </row>
     <row r="855">
-      <c r="A855" s="111"/>
+      <c r="A855" s="106"/>
       <c r="B855" s="6"/>
       <c r="C855" s="6"/>
       <c r="D855" s="6"/>
@@ -31876,7 +31812,7 @@
       <c r="AA855" s="6"/>
     </row>
     <row r="856">
-      <c r="A856" s="111"/>
+      <c r="A856" s="106"/>
       <c r="B856" s="6"/>
       <c r="C856" s="6"/>
       <c r="D856" s="6"/>
@@ -31905,7 +31841,7 @@
       <c r="AA856" s="6"/>
     </row>
     <row r="857">
-      <c r="A857" s="111"/>
+      <c r="A857" s="106"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
       <c r="D857" s="6"/>
@@ -31934,7 +31870,7 @@
       <c r="AA857" s="6"/>
     </row>
     <row r="858">
-      <c r="A858" s="111"/>
+      <c r="A858" s="106"/>
       <c r="B858" s="6"/>
       <c r="C858" s="6"/>
       <c r="D858" s="6"/>
@@ -31963,7 +31899,7 @@
       <c r="AA858" s="6"/>
     </row>
     <row r="859">
-      <c r="A859" s="111"/>
+      <c r="A859" s="106"/>
       <c r="B859" s="6"/>
       <c r="C859" s="6"/>
       <c r="D859" s="6"/>
@@ -31992,7 +31928,7 @@
       <c r="AA859" s="6"/>
     </row>
     <row r="860">
-      <c r="A860" s="111"/>
+      <c r="A860" s="106"/>
       <c r="B860" s="6"/>
       <c r="C860" s="6"/>
       <c r="D860" s="6"/>
@@ -32021,7 +31957,7 @@
       <c r="AA860" s="6"/>
     </row>
     <row r="861">
-      <c r="A861" s="111"/>
+      <c r="A861" s="106"/>
       <c r="B861" s="6"/>
       <c r="C861" s="6"/>
       <c r="D861" s="6"/>
@@ -32050,7 +31986,7 @@
       <c r="AA861" s="6"/>
     </row>
     <row r="862">
-      <c r="A862" s="111"/>
+      <c r="A862" s="106"/>
       <c r="B862" s="6"/>
       <c r="C862" s="6"/>
       <c r="D862" s="6"/>
@@ -32079,7 +32015,7 @@
       <c r="AA862" s="6"/>
     </row>
     <row r="863">
-      <c r="A863" s="111"/>
+      <c r="A863" s="106"/>
       <c r="B863" s="6"/>
       <c r="C863" s="6"/>
       <c r="D863" s="6"/>
@@ -32108,7 +32044,7 @@
       <c r="AA863" s="6"/>
     </row>
     <row r="864">
-      <c r="A864" s="111"/>
+      <c r="A864" s="106"/>
       <c r="B864" s="6"/>
       <c r="C864" s="6"/>
       <c r="D864" s="6"/>
@@ -32137,7 +32073,7 @@
       <c r="AA864" s="6"/>
     </row>
     <row r="865">
-      <c r="A865" s="111"/>
+      <c r="A865" s="106"/>
       <c r="B865" s="6"/>
       <c r="C865" s="6"/>
       <c r="D865" s="6"/>
@@ -32166,7 +32102,7 @@
       <c r="AA865" s="6"/>
     </row>
     <row r="866">
-      <c r="A866" s="111"/>
+      <c r="A866" s="106"/>
       <c r="B866" s="6"/>
       <c r="C866" s="6"/>
       <c r="D866" s="6"/>
@@ -32195,7 +32131,7 @@
       <c r="AA866" s="6"/>
     </row>
     <row r="867">
-      <c r="A867" s="111"/>
+      <c r="A867" s="106"/>
       <c r="B867" s="6"/>
       <c r="C867" s="6"/>
       <c r="D867" s="6"/>
@@ -32224,7 +32160,7 @@
       <c r="AA867" s="6"/>
     </row>
     <row r="868">
-      <c r="A868" s="111"/>
+      <c r="A868" s="106"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
       <c r="D868" s="6"/>
@@ -32253,7 +32189,7 @@
       <c r="AA868" s="6"/>
     </row>
     <row r="869">
-      <c r="A869" s="111"/>
+      <c r="A869" s="106"/>
       <c r="B869" s="6"/>
       <c r="C869" s="6"/>
       <c r="D869" s="6"/>
@@ -32282,7 +32218,7 @@
       <c r="AA869" s="6"/>
     </row>
     <row r="870">
-      <c r="A870" s="111"/>
+      <c r="A870" s="106"/>
       <c r="B870" s="6"/>
       <c r="C870" s="6"/>
       <c r="D870" s="6"/>
@@ -32311,7 +32247,7 @@
       <c r="AA870" s="6"/>
     </row>
     <row r="871">
-      <c r="A871" s="111"/>
+      <c r="A871" s="106"/>
       <c r="B871" s="6"/>
       <c r="C871" s="6"/>
       <c r="D871" s="6"/>
@@ -32340,7 +32276,7 @@
       <c r="AA871" s="6"/>
     </row>
     <row r="872">
-      <c r="A872" s="111"/>
+      <c r="A872" s="106"/>
       <c r="B872" s="6"/>
       <c r="C872" s="6"/>
       <c r="D872" s="6"/>
@@ -32369,7 +32305,7 @@
       <c r="AA872" s="6"/>
     </row>
     <row r="873">
-      <c r="A873" s="111"/>
+      <c r="A873" s="106"/>
       <c r="B873" s="6"/>
       <c r="C873" s="6"/>
       <c r="D873" s="6"/>
@@ -32398,7 +32334,7 @@
       <c r="AA873" s="6"/>
     </row>
     <row r="874">
-      <c r="A874" s="111"/>
+      <c r="A874" s="106"/>
       <c r="B874" s="6"/>
       <c r="C874" s="6"/>
       <c r="D874" s="6"/>
@@ -32427,7 +32363,7 @@
       <c r="AA874" s="6"/>
     </row>
     <row r="875">
-      <c r="A875" s="111"/>
+      <c r="A875" s="106"/>
       <c r="B875" s="6"/>
       <c r="C875" s="6"/>
       <c r="D875" s="6"/>
@@ -32456,7 +32392,7 @@
       <c r="AA875" s="6"/>
     </row>
     <row r="876">
-      <c r="A876" s="111"/>
+      <c r="A876" s="106"/>
       <c r="B876" s="6"/>
       <c r="C876" s="6"/>
       <c r="D876" s="6"/>
@@ -32485,7 +32421,7 @@
       <c r="AA876" s="6"/>
     </row>
     <row r="877">
-      <c r="A877" s="111"/>
+      <c r="A877" s="106"/>
       <c r="B877" s="6"/>
       <c r="C877" s="6"/>
       <c r="D877" s="6"/>
@@ -32514,7 +32450,7 @@
       <c r="AA877" s="6"/>
     </row>
     <row r="878">
-      <c r="A878" s="111"/>
+      <c r="A878" s="106"/>
       <c r="B878" s="6"/>
       <c r="C878" s="6"/>
       <c r="D878" s="6"/>
@@ -32543,7 +32479,7 @@
       <c r="AA878" s="6"/>
     </row>
     <row r="879">
-      <c r="A879" s="111"/>
+      <c r="A879" s="106"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
       <c r="D879" s="6"/>
@@ -32572,7 +32508,7 @@
       <c r="AA879" s="6"/>
     </row>
     <row r="880">
-      <c r="A880" s="111"/>
+      <c r="A880" s="106"/>
       <c r="B880" s="6"/>
       <c r="C880" s="6"/>
       <c r="D880" s="6"/>
@@ -32601,7 +32537,7 @@
       <c r="AA880" s="6"/>
     </row>
     <row r="881">
-      <c r="A881" s="111"/>
+      <c r="A881" s="106"/>
       <c r="B881" s="6"/>
       <c r="C881" s="6"/>
       <c r="D881" s="6"/>
@@ -32630,7 +32566,7 @@
       <c r="AA881" s="6"/>
     </row>
     <row r="882">
-      <c r="A882" s="111"/>
+      <c r="A882" s="106"/>
       <c r="B882" s="6"/>
       <c r="C882" s="6"/>
       <c r="D882" s="6"/>
@@ -32659,7 +32595,7 @@
       <c r="AA882" s="6"/>
     </row>
     <row r="883">
-      <c r="A883" s="111"/>
+      <c r="A883" s="106"/>
       <c r="B883" s="6"/>
       <c r="C883" s="6"/>
       <c r="D883" s="6"/>
@@ -32688,7 +32624,7 @@
       <c r="AA883" s="6"/>
     </row>
     <row r="884">
-      <c r="A884" s="111"/>
+      <c r="A884" s="106"/>
       <c r="B884" s="6"/>
       <c r="C884" s="6"/>
       <c r="D884" s="6"/>
@@ -32717,7 +32653,7 @@
       <c r="AA884" s="6"/>
     </row>
     <row r="885">
-      <c r="A885" s="111"/>
+      <c r="A885" s="106"/>
       <c r="B885" s="6"/>
       <c r="C885" s="6"/>
       <c r="D885" s="6"/>
@@ -32746,7 +32682,7 @@
       <c r="AA885" s="6"/>
     </row>
     <row r="886">
-      <c r="A886" s="111"/>
+      <c r="A886" s="106"/>
       <c r="B886" s="6"/>
       <c r="C886" s="6"/>
       <c r="D886" s="6"/>
@@ -32775,7 +32711,7 @@
       <c r="AA886" s="6"/>
     </row>
     <row r="887">
-      <c r="A887" s="111"/>
+      <c r="A887" s="106"/>
       <c r="B887" s="6"/>
       <c r="C887" s="6"/>
       <c r="D887" s="6"/>
@@ -32804,7 +32740,7 @@
       <c r="AA887" s="6"/>
     </row>
     <row r="888">
-      <c r="A888" s="111"/>
+      <c r="A888" s="106"/>
       <c r="B888" s="6"/>
       <c r="C888" s="6"/>
       <c r="D888" s="6"/>
@@ -32833,7 +32769,7 @@
       <c r="AA888" s="6"/>
     </row>
     <row r="889">
-      <c r="A889" s="111"/>
+      <c r="A889" s="106"/>
       <c r="B889" s="6"/>
       <c r="C889" s="6"/>
       <c r="D889" s="6"/>
@@ -32862,7 +32798,7 @@
       <c r="AA889" s="6"/>
     </row>
     <row r="890">
-      <c r="A890" s="111"/>
+      <c r="A890" s="106"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
       <c r="D890" s="6"/>
@@ -32891,7 +32827,7 @@
       <c r="AA890" s="6"/>
     </row>
     <row r="891">
-      <c r="A891" s="111"/>
+      <c r="A891" s="106"/>
       <c r="B891" s="6"/>
       <c r="C891" s="6"/>
       <c r="D891" s="6"/>
@@ -32920,7 +32856,7 @@
       <c r="AA891" s="6"/>
     </row>
     <row r="892">
-      <c r="A892" s="111"/>
+      <c r="A892" s="106"/>
       <c r="B892" s="6"/>
       <c r="C892" s="6"/>
       <c r="D892" s="6"/>
@@ -32949,7 +32885,7 @@
       <c r="AA892" s="6"/>
     </row>
     <row r="893">
-      <c r="A893" s="111"/>
+      <c r="A893" s="106"/>
       <c r="B893" s="6"/>
       <c r="C893" s="6"/>
       <c r="D893" s="6"/>
@@ -32978,7 +32914,7 @@
       <c r="AA893" s="6"/>
     </row>
     <row r="894">
-      <c r="A894" s="111"/>
+      <c r="A894" s="106"/>
       <c r="B894" s="6"/>
       <c r="C894" s="6"/>
       <c r="D894" s="6"/>
@@ -33007,7 +32943,7 @@
       <c r="AA894" s="6"/>
     </row>
     <row r="895">
-      <c r="A895" s="111"/>
+      <c r="A895" s="106"/>
       <c r="B895" s="6"/>
       <c r="C895" s="6"/>
       <c r="D895" s="6"/>
@@ -33036,7 +32972,7 @@
       <c r="AA895" s="6"/>
     </row>
     <row r="896">
-      <c r="A896" s="111"/>
+      <c r="A896" s="106"/>
       <c r="B896" s="6"/>
       <c r="C896" s="6"/>
       <c r="D896" s="6"/>
@@ -33065,7 +33001,7 @@
       <c r="AA896" s="6"/>
     </row>
     <row r="897">
-      <c r="A897" s="111"/>
+      <c r="A897" s="106"/>
       <c r="B897" s="6"/>
       <c r="C897" s="6"/>
       <c r="D897" s="6"/>
@@ -33094,7 +33030,7 @@
       <c r="AA897" s="6"/>
     </row>
     <row r="898">
-      <c r="A898" s="111"/>
+      <c r="A898" s="106"/>
       <c r="B898" s="6"/>
       <c r="C898" s="6"/>
       <c r="D898" s="6"/>
@@ -33123,7 +33059,7 @@
       <c r="AA898" s="6"/>
     </row>
     <row r="899">
-      <c r="A899" s="111"/>
+      <c r="A899" s="106"/>
       <c r="B899" s="6"/>
       <c r="C899" s="6"/>
       <c r="D899" s="6"/>
@@ -33152,7 +33088,7 @@
       <c r="AA899" s="6"/>
     </row>
     <row r="900">
-      <c r="A900" s="111"/>
+      <c r="A900" s="106"/>
       <c r="B900" s="6"/>
       <c r="C900" s="6"/>
       <c r="D900" s="6"/>
@@ -33181,7 +33117,7 @@
       <c r="AA900" s="6"/>
     </row>
     <row r="901">
-      <c r="A901" s="111"/>
+      <c r="A901" s="106"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
       <c r="D901" s="6"/>
@@ -33210,7 +33146,7 @@
       <c r="AA901" s="6"/>
     </row>
     <row r="902">
-      <c r="A902" s="111"/>
+      <c r="A902" s="106"/>
       <c r="B902" s="6"/>
       <c r="C902" s="6"/>
       <c r="D902" s="6"/>
@@ -33239,7 +33175,7 @@
       <c r="AA902" s="6"/>
     </row>
     <row r="903">
-      <c r="A903" s="111"/>
+      <c r="A903" s="106"/>
       <c r="B903" s="6"/>
       <c r="C903" s="6"/>
       <c r="D903" s="6"/>
@@ -33268,7 +33204,7 @@
       <c r="AA903" s="6"/>
     </row>
     <row r="904">
-      <c r="A904" s="111"/>
+      <c r="A904" s="106"/>
       <c r="B904" s="6"/>
       <c r="C904" s="6"/>
       <c r="D904" s="6"/>
@@ -33297,7 +33233,7 @@
       <c r="AA904" s="6"/>
     </row>
     <row r="905">
-      <c r="A905" s="111"/>
+      <c r="A905" s="106"/>
       <c r="B905" s="6"/>
       <c r="C905" s="6"/>
       <c r="D905" s="6"/>
@@ -33326,7 +33262,7 @@
       <c r="AA905" s="6"/>
     </row>
     <row r="906">
-      <c r="A906" s="111"/>
+      <c r="A906" s="106"/>
       <c r="B906" s="6"/>
       <c r="C906" s="6"/>
       <c r="D906" s="6"/>
@@ -33355,7 +33291,7 @@
       <c r="AA906" s="6"/>
     </row>
     <row r="907">
-      <c r="A907" s="111"/>
+      <c r="A907" s="106"/>
       <c r="B907" s="6"/>
       <c r="C907" s="6"/>
       <c r="D907" s="6"/>
@@ -33384,7 +33320,7 @@
       <c r="AA907" s="6"/>
     </row>
     <row r="908">
-      <c r="A908" s="111"/>
+      <c r="A908" s="106"/>
       <c r="B908" s="6"/>
       <c r="C908" s="6"/>
       <c r="D908" s="6"/>
@@ -33413,7 +33349,7 @@
       <c r="AA908" s="6"/>
     </row>
     <row r="909">
-      <c r="A909" s="111"/>
+      <c r="A909" s="106"/>
       <c r="B909" s="6"/>
       <c r="C909" s="6"/>
       <c r="D909" s="6"/>
@@ -33442,7 +33378,7 @@
       <c r="AA909" s="6"/>
     </row>
     <row r="910">
-      <c r="A910" s="111"/>
+      <c r="A910" s="106"/>
       <c r="B910" s="6"/>
       <c r="C910" s="6"/>
       <c r="D910" s="6"/>
@@ -33471,7 +33407,7 @@
       <c r="AA910" s="6"/>
     </row>
     <row r="911">
-      <c r="A911" s="111"/>
+      <c r="A911" s="106"/>
       <c r="B911" s="6"/>
       <c r="C911" s="6"/>
       <c r="D911" s="6"/>
@@ -33500,7 +33436,7 @@
       <c r="AA911" s="6"/>
     </row>
     <row r="912">
-      <c r="A912" s="111"/>
+      <c r="A912" s="106"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
       <c r="D912" s="6"/>
@@ -33529,7 +33465,7 @@
       <c r="AA912" s="6"/>
     </row>
     <row r="913">
-      <c r="A913" s="111"/>
+      <c r="A913" s="106"/>
       <c r="B913" s="6"/>
       <c r="C913" s="6"/>
       <c r="D913" s="6"/>
@@ -33558,7 +33494,7 @@
       <c r="AA913" s="6"/>
     </row>
     <row r="914">
-      <c r="A914" s="111"/>
+      <c r="A914" s="106"/>
       <c r="B914" s="6"/>
       <c r="C914" s="6"/>
       <c r="D914" s="6"/>
@@ -33587,7 +33523,7 @@
       <c r="AA914" s="6"/>
     </row>
     <row r="915">
-      <c r="A915" s="111"/>
+      <c r="A915" s="106"/>
       <c r="B915" s="6"/>
       <c r="C915" s="6"/>
       <c r="D915" s="6"/>
@@ -33616,7 +33552,7 @@
       <c r="AA915" s="6"/>
     </row>
     <row r="916">
-      <c r="A916" s="111"/>
+      <c r="A916" s="106"/>
       <c r="B916" s="6"/>
       <c r="C916" s="6"/>
       <c r="D916" s="6"/>
@@ -33645,7 +33581,7 @@
       <c r="AA916" s="6"/>
     </row>
     <row r="917">
-      <c r="A917" s="111"/>
+      <c r="A917" s="106"/>
       <c r="B917" s="6"/>
       <c r="C917" s="6"/>
       <c r="D917" s="6"/>
@@ -33674,7 +33610,7 @@
       <c r="AA917" s="6"/>
     </row>
     <row r="918">
-      <c r="A918" s="111"/>
+      <c r="A918" s="106"/>
       <c r="B918" s="6"/>
       <c r="C918" s="6"/>
       <c r="D918" s="6"/>
@@ -33703,7 +33639,7 @@
       <c r="AA918" s="6"/>
     </row>
     <row r="919">
-      <c r="A919" s="111"/>
+      <c r="A919" s="106"/>
       <c r="B919" s="6"/>
       <c r="C919" s="6"/>
       <c r="D919" s="6"/>
@@ -33732,7 +33668,7 @@
       <c r="AA919" s="6"/>
     </row>
     <row r="920">
-      <c r="A920" s="111"/>
+      <c r="A920" s="106"/>
       <c r="B920" s="6"/>
       <c r="C920" s="6"/>
       <c r="D920" s="6"/>
@@ -33761,7 +33697,7 @@
       <c r="AA920" s="6"/>
     </row>
     <row r="921">
-      <c r="A921" s="111"/>
+      <c r="A921" s="106"/>
       <c r="B921" s="6"/>
       <c r="C921" s="6"/>
       <c r="D921" s="6"/>
@@ -33790,7 +33726,7 @@
       <c r="AA921" s="6"/>
     </row>
     <row r="922">
-      <c r="A922" s="111"/>
+      <c r="A922" s="106"/>
       <c r="B922" s="6"/>
       <c r="C922" s="6"/>
       <c r="D922" s="6"/>
@@ -33819,7 +33755,7 @@
       <c r="AA922" s="6"/>
     </row>
     <row r="923">
-      <c r="A923" s="111"/>
+      <c r="A923" s="106"/>
       <c r="B923" s="6"/>
       <c r="C923" s="6"/>
       <c r="D923" s="6"/>
@@ -33848,7 +33784,7 @@
       <c r="AA923" s="6"/>
     </row>
     <row r="924">
-      <c r="A924" s="111"/>
+      <c r="A924" s="106"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
       <c r="D924" s="6"/>
@@ -33877,7 +33813,7 @@
       <c r="AA924" s="6"/>
     </row>
     <row r="925">
-      <c r="A925" s="111"/>
+      <c r="A925" s="106"/>
       <c r="B925" s="6"/>
       <c r="C925" s="6"/>
       <c r="D925" s="6"/>
@@ -33906,7 +33842,7 @@
       <c r="AA925" s="6"/>
     </row>
     <row r="926">
-      <c r="A926" s="111"/>
+      <c r="A926" s="106"/>
       <c r="B926" s="6"/>
       <c r="C926" s="6"/>
       <c r="D926" s="6"/>
@@ -33935,7 +33871,7 @@
       <c r="AA926" s="6"/>
     </row>
     <row r="927">
-      <c r="A927" s="111"/>
+      <c r="A927" s="106"/>
       <c r="B927" s="6"/>
       <c r="C927" s="6"/>
       <c r="D927" s="6"/>
@@ -33964,7 +33900,7 @@
       <c r="AA927" s="6"/>
     </row>
     <row r="928">
-      <c r="A928" s="111"/>
+      <c r="A928" s="106"/>
       <c r="B928" s="6"/>
       <c r="C928" s="6"/>
       <c r="D928" s="6"/>
@@ -33993,7 +33929,7 @@
       <c r="AA928" s="6"/>
     </row>
     <row r="929">
-      <c r="A929" s="111"/>
+      <c r="A929" s="106"/>
       <c r="B929" s="6"/>
       <c r="C929" s="6"/>
       <c r="D929" s="6"/>
@@ -34022,7 +33958,7 @@
       <c r="AA929" s="6"/>
     </row>
     <row r="930">
-      <c r="A930" s="111"/>
+      <c r="A930" s="106"/>
       <c r="B930" s="6"/>
       <c r="C930" s="6"/>
       <c r="D930" s="6"/>
@@ -34051,7 +33987,7 @@
       <c r="AA930" s="6"/>
     </row>
     <row r="931">
-      <c r="A931" s="111"/>
+      <c r="A931" s="106"/>
       <c r="B931" s="6"/>
       <c r="C931" s="6"/>
       <c r="D931" s="6"/>
@@ -34080,7 +34016,7 @@
       <c r="AA931" s="6"/>
     </row>
     <row r="932">
-      <c r="A932" s="111"/>
+      <c r="A932" s="106"/>
       <c r="B932" s="6"/>
       <c r="C932" s="6"/>
       <c r="D932" s="6"/>
@@ -34109,7 +34045,7 @@
       <c r="AA932" s="6"/>
     </row>
     <row r="933">
-      <c r="A933" s="111"/>
+      <c r="A933" s="106"/>
       <c r="B933" s="6"/>
       <c r="C933" s="6"/>
       <c r="D933" s="6"/>
@@ -34138,7 +34074,7 @@
       <c r="AA933" s="6"/>
     </row>
     <row r="934">
-      <c r="A934" s="111"/>
+      <c r="A934" s="106"/>
       <c r="B934" s="6"/>
       <c r="C934" s="6"/>
       <c r="D934" s="6"/>
@@ -34167,7 +34103,7 @@
       <c r="AA934" s="6"/>
     </row>
     <row r="935">
-      <c r="A935" s="111"/>
+      <c r="A935" s="106"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
       <c r="D935" s="6"/>
@@ -34196,7 +34132,7 @@
       <c r="AA935" s="6"/>
     </row>
     <row r="936">
-      <c r="A936" s="111"/>
+      <c r="A936" s="106"/>
       <c r="B936" s="6"/>
       <c r="C936" s="6"/>
       <c r="D936" s="6"/>
@@ -34225,7 +34161,7 @@
       <c r="AA936" s="6"/>
     </row>
     <row r="937">
-      <c r="A937" s="111"/>
+      <c r="A937" s="106"/>
       <c r="B937" s="6"/>
       <c r="C937" s="6"/>
       <c r="D937" s="6"/>
@@ -34254,7 +34190,7 @@
       <c r="AA937" s="6"/>
     </row>
     <row r="938">
-      <c r="A938" s="111"/>
+      <c r="A938" s="106"/>
       <c r="B938" s="6"/>
       <c r="C938" s="6"/>
       <c r="D938" s="6"/>
@@ -34283,7 +34219,7 @@
       <c r="AA938" s="6"/>
     </row>
     <row r="939">
-      <c r="A939" s="111"/>
+      <c r="A939" s="106"/>
       <c r="B939" s="6"/>
       <c r="C939" s="6"/>
       <c r="D939" s="6"/>
@@ -34312,7 +34248,7 @@
       <c r="AA939" s="6"/>
     </row>
     <row r="940">
-      <c r="A940" s="111"/>
+      <c r="A940" s="106"/>
       <c r="B940" s="6"/>
       <c r="C940" s="6"/>
       <c r="D940" s="6"/>
@@ -34341,7 +34277,7 @@
       <c r="AA940" s="6"/>
     </row>
     <row r="941">
-      <c r="A941" s="111"/>
+      <c r="A941" s="106"/>
       <c r="B941" s="6"/>
       <c r="C941" s="6"/>
       <c r="D941" s="6"/>
@@ -34370,7 +34306,7 @@
       <c r="AA941" s="6"/>
     </row>
     <row r="942">
-      <c r="A942" s="111"/>
+      <c r="A942" s="106"/>
       <c r="B942" s="6"/>
       <c r="C942" s="6"/>
       <c r="D942" s="6"/>
@@ -34399,7 +34335,7 @@
       <c r="AA942" s="6"/>
     </row>
     <row r="943">
-      <c r="A943" s="111"/>
+      <c r="A943" s="106"/>
       <c r="B943" s="6"/>
       <c r="C943" s="6"/>
       <c r="D943" s="6"/>
@@ -34428,7 +34364,7 @@
       <c r="AA943" s="6"/>
     </row>
     <row r="944">
-      <c r="A944" s="111"/>
+      <c r="A944" s="106"/>
       <c r="B944" s="6"/>
       <c r="C944" s="6"/>
       <c r="D944" s="6"/>
@@ -34457,7 +34393,7 @@
       <c r="AA944" s="6"/>
     </row>
     <row r="945">
-      <c r="A945" s="111"/>
+      <c r="A945" s="106"/>
       <c r="B945" s="6"/>
       <c r="C945" s="6"/>
       <c r="D945" s="6"/>
@@ -34486,7 +34422,7 @@
       <c r="AA945" s="6"/>
     </row>
     <row r="946">
-      <c r="A946" s="111"/>
+      <c r="A946" s="106"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
       <c r="D946" s="6"/>
@@ -34515,7 +34451,7 @@
       <c r="AA946" s="6"/>
     </row>
     <row r="947">
-      <c r="A947" s="111"/>
+      <c r="A947" s="106"/>
       <c r="B947" s="6"/>
       <c r="C947" s="6"/>
       <c r="D947" s="6"/>
@@ -34544,7 +34480,7 @@
       <c r="AA947" s="6"/>
     </row>
     <row r="948">
-      <c r="A948" s="111"/>
+      <c r="A948" s="106"/>
       <c r="B948" s="6"/>
       <c r="C948" s="6"/>
       <c r="D948" s="6"/>
@@ -34573,7 +34509,7 @@
       <c r="AA948" s="6"/>
     </row>
     <row r="949">
-      <c r="A949" s="111"/>
+      <c r="A949" s="106"/>
       <c r="B949" s="6"/>
       <c r="C949" s="6"/>
       <c r="D949" s="6"/>
@@ -34602,7 +34538,7 @@
       <c r="AA949" s="6"/>
     </row>
     <row r="950">
-      <c r="A950" s="111"/>
+      <c r="A950" s="106"/>
       <c r="B950" s="6"/>
       <c r="C950" s="6"/>
       <c r="D950" s="6"/>
@@ -34631,7 +34567,7 @@
       <c r="AA950" s="6"/>
     </row>
     <row r="951">
-      <c r="A951" s="111"/>
+      <c r="A951" s="106"/>
       <c r="B951" s="6"/>
       <c r="C951" s="6"/>
       <c r="D951" s="6"/>
@@ -34660,7 +34596,7 @@
       <c r="AA951" s="6"/>
     </row>
     <row r="952">
-      <c r="A952" s="111"/>
+      <c r="A952" s="106"/>
       <c r="B952" s="6"/>
       <c r="C952" s="6"/>
       <c r="D952" s="6"/>
@@ -34689,7 +34625,7 @@
       <c r="AA952" s="6"/>
     </row>
     <row r="953">
-      <c r="A953" s="111"/>
+      <c r="A953" s="106"/>
       <c r="B953" s="6"/>
       <c r="C953" s="6"/>
       <c r="D953" s="6"/>
@@ -34718,7 +34654,7 @@
       <c r="AA953" s="6"/>
     </row>
     <row r="954">
-      <c r="A954" s="111"/>
+      <c r="A954" s="106"/>
       <c r="B954" s="6"/>
       <c r="C954" s="6"/>
       <c r="D954" s="6"/>
@@ -34747,7 +34683,7 @@
       <c r="AA954" s="6"/>
     </row>
     <row r="955">
-      <c r="A955" s="111"/>
+      <c r="A955" s="106"/>
       <c r="B955" s="6"/>
       <c r="C955" s="6"/>
       <c r="D955" s="6"/>
@@ -34776,7 +34712,7 @@
       <c r="AA955" s="6"/>
     </row>
     <row r="956">
-      <c r="A956" s="111"/>
+      <c r="A956" s="106"/>
       <c r="B956" s="6"/>
       <c r="C956" s="6"/>
       <c r="D956" s="6"/>
@@ -34805,7 +34741,7 @@
       <c r="AA956" s="6"/>
     </row>
     <row r="957">
-      <c r="A957" s="111"/>
+      <c r="A957" s="106"/>
       <c r="B957" s="6"/>
       <c r="C957" s="6"/>
       <c r="D957" s="6"/>
@@ -34834,7 +34770,7 @@
       <c r="AA957" s="6"/>
     </row>
     <row r="958">
-      <c r="A958" s="111"/>
+      <c r="A958" s="106"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
       <c r="D958" s="6"/>
@@ -34863,7 +34799,7 @@
       <c r="AA958" s="6"/>
     </row>
     <row r="959">
-      <c r="A959" s="111"/>
+      <c r="A959" s="106"/>
       <c r="B959" s="6"/>
       <c r="C959" s="6"/>
       <c r="D959" s="6"/>
@@ -34892,7 +34828,7 @@
       <c r="AA959" s="6"/>
     </row>
     <row r="960">
-      <c r="A960" s="111"/>
+      <c r="A960" s="106"/>
       <c r="B960" s="6"/>
       <c r="C960" s="6"/>
       <c r="D960" s="6"/>
@@ -34921,7 +34857,7 @@
       <c r="AA960" s="6"/>
     </row>
     <row r="961">
-      <c r="A961" s="111"/>
+      <c r="A961" s="106"/>
       <c r="B961" s="6"/>
       <c r="C961" s="6"/>
       <c r="D961" s="6"/>
@@ -34950,7 +34886,7 @@
       <c r="AA961" s="6"/>
     </row>
     <row r="962">
-      <c r="A962" s="111"/>
+      <c r="A962" s="106"/>
       <c r="B962" s="6"/>
       <c r="C962" s="6"/>
       <c r="D962" s="6"/>
@@ -34979,7 +34915,7 @@
       <c r="AA962" s="6"/>
     </row>
     <row r="963">
-      <c r="A963" s="111"/>
+      <c r="A963" s="106"/>
       <c r="B963" s="6"/>
       <c r="C963" s="6"/>
       <c r="D963" s="6"/>
@@ -35008,121 +34944,121 @@
       <c r="AA963" s="6"/>
     </row>
     <row r="964">
-      <c r="A964" s="112"/>
+      <c r="A964" s="107"/>
     </row>
     <row r="965">
-      <c r="A965" s="112"/>
+      <c r="A965" s="107"/>
     </row>
     <row r="966">
-      <c r="A966" s="112"/>
+      <c r="A966" s="107"/>
     </row>
     <row r="967">
-      <c r="A967" s="112"/>
+      <c r="A967" s="107"/>
     </row>
     <row r="968">
-      <c r="A968" s="112"/>
+      <c r="A968" s="107"/>
     </row>
     <row r="969">
-      <c r="A969" s="112"/>
+      <c r="A969" s="107"/>
     </row>
     <row r="970">
-      <c r="A970" s="112"/>
+      <c r="A970" s="107"/>
     </row>
     <row r="971">
-      <c r="A971" s="112"/>
+      <c r="A971" s="107"/>
     </row>
     <row r="972">
-      <c r="A972" s="112"/>
+      <c r="A972" s="107"/>
     </row>
     <row r="973">
-      <c r="A973" s="112"/>
+      <c r="A973" s="107"/>
     </row>
     <row r="974">
-      <c r="A974" s="112"/>
+      <c r="A974" s="107"/>
     </row>
     <row r="975">
-      <c r="A975" s="112"/>
+      <c r="A975" s="107"/>
     </row>
     <row r="976">
-      <c r="A976" s="112"/>
+      <c r="A976" s="107"/>
     </row>
     <row r="977">
-      <c r="A977" s="112"/>
+      <c r="A977" s="107"/>
     </row>
     <row r="978">
-      <c r="A978" s="112"/>
+      <c r="A978" s="107"/>
     </row>
     <row r="979">
-      <c r="A979" s="112"/>
+      <c r="A979" s="107"/>
     </row>
     <row r="980">
-      <c r="A980" s="112"/>
+      <c r="A980" s="107"/>
     </row>
     <row r="981">
-      <c r="A981" s="112"/>
+      <c r="A981" s="107"/>
     </row>
     <row r="982">
-      <c r="A982" s="112"/>
+      <c r="A982" s="107"/>
     </row>
     <row r="983">
-      <c r="A983" s="112"/>
+      <c r="A983" s="107"/>
     </row>
     <row r="984">
-      <c r="A984" s="112"/>
+      <c r="A984" s="107"/>
     </row>
     <row r="985">
-      <c r="A985" s="112"/>
+      <c r="A985" s="107"/>
     </row>
     <row r="986">
-      <c r="A986" s="112"/>
+      <c r="A986" s="107"/>
     </row>
     <row r="987">
-      <c r="A987" s="112"/>
+      <c r="A987" s="107"/>
     </row>
     <row r="988">
-      <c r="A988" s="112"/>
+      <c r="A988" s="107"/>
     </row>
     <row r="989">
-      <c r="A989" s="112"/>
+      <c r="A989" s="107"/>
     </row>
     <row r="990">
-      <c r="A990" s="112"/>
+      <c r="A990" s="107"/>
     </row>
     <row r="991">
-      <c r="A991" s="112"/>
+      <c r="A991" s="107"/>
     </row>
     <row r="992">
-      <c r="A992" s="112"/>
+      <c r="A992" s="107"/>
     </row>
     <row r="993">
-      <c r="A993" s="112"/>
+      <c r="A993" s="107"/>
     </row>
     <row r="994">
-      <c r="A994" s="112"/>
+      <c r="A994" s="107"/>
     </row>
     <row r="995">
-      <c r="A995" s="112"/>
+      <c r="A995" s="107"/>
     </row>
     <row r="996">
-      <c r="A996" s="112"/>
+      <c r="A996" s="107"/>
     </row>
     <row r="997">
-      <c r="A997" s="112"/>
+      <c r="A997" s="107"/>
     </row>
     <row r="998">
-      <c r="A998" s="112"/>
+      <c r="A998" s="107"/>
     </row>
     <row r="999">
-      <c r="A999" s="112"/>
+      <c r="A999" s="107"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="112"/>
+      <c r="A1000" s="107"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="112"/>
+      <c r="A1001" s="107"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="112"/>
+      <c r="A1002" s="107"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
